--- a/Drawings/CNC_BOM.xlsx
+++ b/Drawings/CNC_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\SpindleCarriageForCNC\Drawings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\LaserCNCMachine\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B4CA76-AFF0-411F-8CC7-A3713D01EAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A131EA4-007E-423B-8E72-9930EC6DBC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="154">
   <si>
     <t>File</t>
   </si>
@@ -579,6 +579,9 @@
   <si>
     <t>Spacer</t>
   </si>
+  <si>
+    <t>91166A240</t>
+  </si>
 </sst>
 </file>
 
@@ -587,7 +590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -659,8 +662,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +695,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -1212,15 +1227,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1716,126 +1732,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1843,9 +1751,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,35 +1759,144 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2450,11 +2464,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q293"/>
+  <dimension ref="A1:S293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R46" sqref="R46"/>
+      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2518,67 +2532,67 @@
     <row r="3" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212" t="s">
+      <c r="C3" s="173"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="213" t="s">
+      <c r="G3" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="212" t="s">
+      <c r="H3" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="213" t="s">
+      <c r="I3" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="214"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="212" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="212" t="s">
+      <c r="H4" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="214" t="s">
+      <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="214"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212" t="s">
+      <c r="C5" s="173"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="216" t="str">
+      <c r="G5" s="177" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1, FIND("]",CELL("filename"))-(FIND("[",CELL("filename"))+1))</f>
-        <v>CARRIAGE_BOM.xlsx</v>
-      </c>
-      <c r="H5" s="212"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
+        <v>CNC_BOM.xlsx</v>
+      </c>
+      <c r="H5" s="174"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2592,12 +2606,12 @@
       </c>
       <c r="G6" s="22">
         <f ca="1">TODAY()</f>
-        <v>44912</v>
+        <v>44926</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="217">
+      <c r="I6" s="178">
         <v>1</v>
       </c>
       <c r="J6" s="23"/>
@@ -2607,38 +2621,38 @@
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="201" t="s">
+      <c r="C7" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="202" t="s">
+      <c r="D7" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204" t="s">
+      <c r="E7" s="186"/>
+      <c r="F7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="205" t="s">
+      <c r="G7" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="206" t="s">
+      <c r="H7" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="207" t="s">
+      <c r="I7" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="207" t="s">
+      <c r="J7" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="208" t="s">
+      <c r="K7" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="198" t="s">
+      <c r="L7" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="209" t="s">
+      <c r="M7" s="172" t="s">
         <v>148</v>
       </c>
       <c r="N7" s="26" t="s">
@@ -2653,11 +2667,11 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="188" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="194">
+      <c r="D8" s="191">
         <v>2</v>
       </c>
       <c r="E8" s="29"/>
@@ -2687,9 +2701,9 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="167"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="197"/>
+      <c r="D9" s="192"/>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
@@ -2708,9 +2722,9 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="193"/>
+      <c r="B10" s="190"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="195"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="104"/>
       <c r="F10" s="127"/>
       <c r="G10" s="127"/>
@@ -2729,13 +2743,13 @@
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="178">
+      <c r="D11" s="183">
         <v>1</v>
       </c>
       <c r="E11" s="103"/>
@@ -2765,9 +2779,9 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="179"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="184"/>
       <c r="E12" s="104"/>
       <c r="F12" s="49"/>
       <c r="G12" s="50" t="s">
@@ -2782,11 +2796,11 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="188" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="194">
+      <c r="D13" s="191">
         <v>1</v>
       </c>
       <c r="E13" s="29"/>
@@ -2816,9 +2830,9 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="193"/>
+      <c r="B14" s="190"/>
       <c r="C14" s="53"/>
-      <c r="D14" s="195"/>
+      <c r="D14" s="193"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="56" t="s">
@@ -2833,11 +2847,11 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="194" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="191">
+      <c r="D15" s="198">
         <v>1</v>
       </c>
       <c r="E15" s="103"/>
@@ -2867,9 +2881,9 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="188"/>
+      <c r="B16" s="195"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="192"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="104"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
@@ -3624,13 +3638,13 @@
     </row>
     <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="189" t="s">
+      <c r="C38" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="191">
+      <c r="D38" s="198">
         <v>1</v>
       </c>
       <c r="E38" s="103"/>
@@ -3663,9 +3677,9 @@
     </row>
     <row r="39" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="192"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="199"/>
       <c r="E39" s="104"/>
       <c r="F39" s="51"/>
       <c r="G39" s="50" t="s">
@@ -3726,11 +3740,11 @@
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="166" t="s">
+      <c r="B42" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="183"/>
-      <c r="D42" s="176">
+      <c r="C42" s="205"/>
+      <c r="D42" s="200">
         <v>1</v>
       </c>
       <c r="E42" s="29"/>
@@ -3762,9 +3776,9 @@
       <c r="Q42" s="89"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="167"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="177"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="201"/>
       <c r="E43" s="155"/>
       <c r="F43" s="156"/>
       <c r="G43" s="42" t="s">
@@ -3778,11 +3792,11 @@
       <c r="M43" s="44"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="168" t="s">
+      <c r="B44" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="178">
+      <c r="C44" s="181"/>
+      <c r="D44" s="183">
         <v>1</v>
       </c>
       <c r="E44" s="103"/>
@@ -3811,9 +3825,9 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="169"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="179"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="184"/>
       <c r="E45" s="104"/>
       <c r="F45" s="131"/>
       <c r="G45" s="132" t="s">
@@ -3827,11 +3841,11 @@
       <c r="M45" s="52"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="174" t="s">
+      <c r="B46" s="213" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="172"/>
-      <c r="D46" s="176">
+      <c r="C46" s="211"/>
+      <c r="D46" s="200">
         <v>2</v>
       </c>
       <c r="E46" s="29"/>
@@ -3860,9 +3874,9 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="175"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="180"/>
+      <c r="B47" s="214"/>
+      <c r="C47" s="212"/>
+      <c r="D47" s="202"/>
       <c r="E47" s="54"/>
       <c r="F47" s="120"/>
       <c r="G47" s="127" t="s">
@@ -3876,11 +3890,11 @@
       <c r="M47" s="60"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="185"/>
-      <c r="D48" s="181">
+      <c r="C48" s="207"/>
+      <c r="D48" s="203">
         <v>1</v>
       </c>
       <c r="E48" s="135"/>
@@ -3908,10 +3922,10 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="165"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="182"/>
+    <row r="49" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="210"/>
+      <c r="C49" s="208"/>
+      <c r="D49" s="204"/>
       <c r="E49" s="139"/>
       <c r="F49" s="140"/>
       <c r="G49" s="141" t="s">
@@ -3924,7 +3938,7 @@
       <c r="L49" s="143"/>
       <c r="M49" s="52"/>
     </row>
-    <row r="50" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K50" s="160" t="s">
         <v>149</v>
       </c>
@@ -3934,7 +3948,7 @@
         <v>194.13000000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="94" t="s">
         <v>10</v>
       </c>
@@ -3948,7 +3962,7 @@
       <c r="J51" s="95"/>
       <c r="K51" s="96"/>
     </row>
-    <row r="52" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="70" t="s">
         <v>66</v>
       </c>
@@ -3981,7 +3995,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="112" t="s">
         <v>66</v>
       </c>
@@ -4014,7 +4028,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="70" t="s">
         <v>66</v>
       </c>
@@ -4047,7 +4061,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="112" t="s">
         <v>66</v>
       </c>
@@ -4080,7 +4094,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="98" t="s">
         <v>66</v>
       </c>
@@ -4113,7 +4127,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="118"/>
       <c r="C57" s="119"/>
       <c r="D57" s="54"/>
@@ -4133,7 +4147,7 @@
       <c r="L57" s="149"/>
       <c r="M57" s="60"/>
     </row>
-    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="112" t="s">
         <v>66</v>
       </c>
@@ -4166,7 +4180,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="70" t="s">
         <v>66</v>
       </c>
@@ -4199,7 +4213,7 @@
         <v>3.1619999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="112" t="s">
         <v>66</v>
       </c>
@@ -4232,7 +4246,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="70" t="s">
         <v>66</v>
       </c>
@@ -4265,13 +4279,13 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="112" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="113"/>
       <c r="D62" s="114">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" s="114"/>
       <c r="F62" s="115"/>
@@ -4285,9 +4299,9 @@
         <v>31</v>
       </c>
       <c r="J62" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="K62" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="K62" s="216" t="s">
         <v>31</v>
       </c>
       <c r="L62" s="159">
@@ -4295,10 +4309,11 @@
       </c>
       <c r="M62" s="81">
         <f t="shared" si="2"/>
-        <v>7.48</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7.04</v>
+      </c>
+      <c r="S62" s="215"/>
+    </row>
+    <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="70" t="s">
         <v>66</v>
       </c>
@@ -4331,13 +4346,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="112" t="s">
         <v>66</v>
       </c>
       <c r="C64" s="113"/>
       <c r="D64" s="114">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E64" s="114"/>
       <c r="F64" s="115"/>
@@ -4361,8 +4376,9 @@
       </c>
       <c r="M64" s="81">
         <f t="shared" si="2"/>
-        <v>0.84</v>
-      </c>
+        <v>0.48</v>
+      </c>
+      <c r="S64" s="215"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="70" t="s">
@@ -4638,7 +4654,7 @@
       <c r="L73" s="161"/>
       <c r="M73" s="162">
         <f>SUM(M52:M72)</f>
-        <v>140.24200000000002</v>
+        <v>139.44200000000001</v>
       </c>
     </row>
     <row r="74" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4654,7 +4670,7 @@
       <c r="L75" s="161"/>
       <c r="M75" s="162">
         <f>M40+M50+M73</f>
-        <v>1756.5519999999999</v>
+        <v>1755.752</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
@@ -5531,6 +5547,25 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -5538,25 +5573,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Drawings/CNC_BOM.xlsx
+++ b/Drawings/CNC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\LaserCNCMachine\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A131EA4-007E-423B-8E72-9930EC6DBC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3743860E-75AD-41D0-9C4F-962EC7D48465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'arrangement-mat'!$7:$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$70</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="146">
   <si>
     <t>File</t>
   </si>
@@ -84,21 +74,12 @@
     <t>Vladimir Tyrkin</t>
   </si>
   <si>
-    <t>cnc_milling_carriage_v1.SLDASM</t>
-  </si>
-  <si>
     <t>Project Link</t>
   </si>
   <si>
-    <t>Spindle Carriage For CNC</t>
-  </si>
-  <si>
     <t>GitHub</t>
   </si>
   <si>
-    <t>000</t>
-  </si>
-  <si>
     <t>Project Number</t>
   </si>
   <si>
@@ -168,12 +149,6 @@
     <t>Washer DIN 125 - A 5.3</t>
   </si>
   <si>
-    <t>Washer DIN 125 - A 4.3</t>
-  </si>
-  <si>
-    <t>M5x16 DIN 7991, ISO 10642</t>
-  </si>
-  <si>
     <t>ISO 4762 M4 x 20 - 20N</t>
   </si>
   <si>
@@ -216,33 +191,12 @@
     <t>PET-G</t>
   </si>
   <si>
-    <t>Top motor cover</t>
-  </si>
-  <si>
-    <t>Bottom motor cover</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
     <t>3462N1</t>
   </si>
   <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>CHINA</t>
-  </si>
-  <si>
     <t>Self Tap. Cross recessed Screw 2.6x10mm</t>
   </si>
   <si>
@@ -264,9 +218,6 @@
     <t>92125A214</t>
   </si>
   <si>
-    <t>92125A212</t>
-  </si>
-  <si>
     <t>91292A121</t>
   </si>
   <si>
@@ -279,18 +230,9 @@
     <t>91166A210</t>
   </si>
   <si>
-    <t>ISO 4762 M3 x 16 - 16N</t>
-  </si>
-  <si>
-    <t>ISO 7380 - M3 x 10 - 10N</t>
-  </si>
-  <si>
     <t>316 Stainless Steel</t>
   </si>
   <si>
-    <t>90943A113</t>
-  </si>
-  <si>
     <t>92095A212</t>
   </si>
   <si>
@@ -298,18 +240,6 @@
   </si>
   <si>
     <t>92095A181</t>
-  </si>
-  <si>
-    <t>ISO 7046-1 - M3 x 8 - Z - 8N</t>
-  </si>
-  <si>
-    <t>92010A118</t>
-  </si>
-  <si>
-    <t>ISO 7046-1 - M3 x 10 - Z - 10N</t>
-  </si>
-  <si>
-    <t>For DIN 965: 92010A120</t>
   </si>
   <si>
     <t>Zinc-Plated Steel</t>
@@ -513,6 +443,39 @@
     </r>
   </si>
   <si>
+    <t>Total Weight</t>
+  </si>
+  <si>
+    <t>Total weight</t>
+  </si>
+  <si>
+    <t>All project wieght</t>
+  </si>
+  <si>
+    <t>91166A240</t>
+  </si>
+  <si>
+    <t>CNC machine</t>
+  </si>
+  <si>
+    <t>cnc_laser_v1.0.SLDASM</t>
+  </si>
+  <si>
+    <t>CNC.00.00</t>
+  </si>
+  <si>
+    <t>Spacer for stepper</t>
+  </si>
+  <si>
+    <t>CNC.02.23</t>
+  </si>
+  <si>
+    <t>Carriage Spacer</t>
+  </si>
+  <si>
+    <t>CNC.02.45</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">File: </t>
     </r>
@@ -522,7 +485,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>FilesForPrint/Bottom motor cover.STL</t>
+      <t>FilesForPrint/CarriageSpacer.STL</t>
     </r>
   </si>
   <si>
@@ -535,52 +498,35 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>FilesForPrint/Top motor cover.STL</t>
+      <t>FilesForPrint/SpacerForStepper.STL</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">File: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FilesForPrint/Spacer.STL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">File: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FilesForPrint/WiresHolder.STL</t>
-    </r>
-  </si>
-  <si>
-    <t>Total Weight</t>
-  </si>
-  <si>
-    <t>Total weight</t>
-  </si>
-  <si>
-    <t>All project wieght</t>
-  </si>
-  <si>
-    <t>Cable holder</t>
-  </si>
-  <si>
-    <t>Spacer</t>
-  </si>
-  <si>
-    <t>91166A240</t>
+    <t>ISO 4762 M3 x 12 - 12N</t>
+  </si>
+  <si>
+    <t>ISO 4762 M3 x 8 - 8N</t>
+  </si>
+  <si>
+    <t>ISO 7380 - M5 x 10 - 10N</t>
+  </si>
+  <si>
+    <t>90943A117</t>
+  </si>
+  <si>
+    <t>ISO 4762 M6 x 20 - 20N</t>
+  </si>
+  <si>
+    <t>90128A264</t>
+  </si>
+  <si>
+    <t>ISO 4762 M4 x 6 - 6N</t>
+  </si>
+  <si>
+    <t>90128A208</t>
+  </si>
+  <si>
+    <t>ISO 10642 - M3 x 16 - 16N</t>
   </si>
 </sst>
 </file>
@@ -670,7 +616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,12 +637,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -1234,9 +1174,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1624,9 +1564,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1642,39 +1579,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1777,120 +1681,91 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2072,8 +1947,8 @@
       <xdr:rowOff>57983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>290440</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>143002</xdr:rowOff>
     </xdr:to>
@@ -2464,17 +2339,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S293"/>
+  <dimension ref="A1:S290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="0.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
@@ -2516,13 +2392,13 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="12"/>
@@ -2532,20 +2408,20 @@
     <row r="3" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="173"/>
+      <c r="C3" s="161"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="175" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="175" t="s">
-        <v>19</v>
+      <c r="G3" s="163" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="163" t="s">
+        <v>130</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
@@ -2555,16 +2431,16 @@
     <row r="4" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="173"/>
+      <c r="C4" s="161"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="174" t="s">
+      <c r="F4" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="176" t="s">
+      <c r="G4" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="174" t="s">
+      <c r="H4" s="162" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -2578,19 +2454,19 @@
     <row r="5" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="173"/>
+      <c r="C5" s="161"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="174" t="s">
+      <c r="F5" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="177" t="str">
+      <c r="G5" s="165" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1, FIND("]",CELL("filename"))-(FIND("[",CELL("filename"))+1))</f>
-        <v>CNC_BOM.xlsx</v>
-      </c>
-      <c r="H5" s="174"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
+        <v>CNC.xlsx</v>
+      </c>
+      <c r="H5" s="162"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="17"/>
@@ -2606,12 +2482,12 @@
       </c>
       <c r="G6" s="22">
         <f ca="1">TODAY()</f>
-        <v>44926</v>
+        <v>44940</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="178">
+      <c r="I6" s="166">
         <v>1</v>
       </c>
       <c r="J6" s="23"/>
@@ -2621,77 +2497,77 @@
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="191"/>
+      <c r="F7" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="166" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="185" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="168" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="169" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="170" t="s">
+      <c r="I7" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="155" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="167" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="167" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="171" t="s">
+      <c r="L7" s="152" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="L7" s="164" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="172" t="s">
-        <v>148</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="188" t="s">
-        <v>96</v>
+      <c r="B8" s="169" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="191">
+      <c r="D8" s="188">
         <v>2</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="31" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="145">
+        <v>28</v>
+      </c>
+      <c r="L8" s="133">
         <v>58.89</v>
       </c>
       <c r="M8" s="33">
@@ -2701,75 +2577,75 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="189"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="192"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="146"/>
+        <v>28</v>
+      </c>
+      <c r="L9" s="134"/>
       <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="190"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="193"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="104"/>
       <c r="F10" s="127"/>
       <c r="G10" s="127"/>
       <c r="H10" s="127"/>
       <c r="I10" s="58" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="153" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="149"/>
+        <v>57</v>
+      </c>
+      <c r="K10" s="141" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="137"/>
       <c r="M10" s="60"/>
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="179" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="181" t="s">
+      <c r="B11" s="171" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="183">
+      <c r="D11" s="177">
         <v>1</v>
       </c>
       <c r="E11" s="103"/>
       <c r="F11" s="45"/>
       <c r="G11" s="46" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K11" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="147">
+        <v>48</v>
+      </c>
+      <c r="L11" s="135">
         <v>62.17</v>
       </c>
       <c r="M11" s="48">
@@ -2779,48 +2655,48 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="184"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="178"/>
       <c r="E12" s="104"/>
       <c r="F12" s="49"/>
       <c r="G12" s="50" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
-      <c r="L12" s="148"/>
+      <c r="L12" s="136"/>
       <c r="M12" s="52"/>
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="188" t="s">
-        <v>21</v>
+      <c r="B13" s="169" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="191">
+      <c r="D13" s="188">
         <v>1</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="145">
+        <v>28</v>
+      </c>
+      <c r="L13" s="133">
         <v>37.880000000000003</v>
       </c>
       <c r="M13" s="33">
@@ -2830,48 +2706,48 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="190"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="53"/>
-      <c r="D14" s="193"/>
+      <c r="D14" s="189"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="56" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="149"/>
+      <c r="L14" s="137"/>
       <c r="M14" s="60"/>
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="194" t="s">
-        <v>22</v>
+      <c r="B15" s="181" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="198">
+      <c r="D15" s="185">
         <v>1</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="62"/>
       <c r="G15" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>28</v>
-      </c>
       <c r="K15" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="147">
+        <v>28</v>
+      </c>
+      <c r="L15" s="135">
         <v>120.14</v>
       </c>
       <c r="M15" s="48">
@@ -2881,25 +2757,25 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="195"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="199"/>
+      <c r="D16" s="186"/>
       <c r="E16" s="104"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
       <c r="K16" s="69"/>
-      <c r="L16" s="148"/>
+      <c r="L16" s="136"/>
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="70" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="72">
@@ -2908,21 +2784,21 @@
       <c r="E17" s="72"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I17" s="74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J17" s="74" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K17" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="150">
+        <v>28</v>
+      </c>
+      <c r="L17" s="138">
         <v>4.7</v>
       </c>
       <c r="M17" s="75">
@@ -2933,7 +2809,7 @@
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="76" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="78">
@@ -2942,21 +2818,21 @@
       <c r="E18" s="78"/>
       <c r="F18" s="79"/>
       <c r="G18" s="80" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H18" s="78" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="I18" s="80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J18" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="152">
+        <v>90</v>
+      </c>
+      <c r="K18" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="140">
         <v>4.5</v>
       </c>
       <c r="M18" s="81">
@@ -2967,7 +2843,7 @@
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="70" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="72">
@@ -2976,21 +2852,21 @@
       <c r="E19" s="72"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J19" s="74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="150">
+        <v>48</v>
+      </c>
+      <c r="L19" s="138">
         <v>0.48</v>
       </c>
       <c r="M19" s="75">
@@ -3002,7 +2878,7 @@
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="76" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="78">
@@ -3011,21 +2887,21 @@
       <c r="E20" s="78"/>
       <c r="F20" s="79"/>
       <c r="G20" s="80" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H20" s="78" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="I20" s="80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J20" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="152">
+        <v>95</v>
+      </c>
+      <c r="K20" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="140">
         <v>2.19</v>
       </c>
       <c r="M20" s="81">
@@ -3036,7 +2912,7 @@
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="72">
@@ -3045,21 +2921,21 @@
       <c r="E21" s="72"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I21" s="74" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J21" s="74" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K21" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="150">
+        <v>46</v>
+      </c>
+      <c r="L21" s="138">
         <v>49</v>
       </c>
       <c r="M21" s="75">
@@ -3070,7 +2946,7 @@
     <row r="22" spans="1:17" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
       <c r="B22" s="76" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="78">
@@ -3079,21 +2955,21 @@
       <c r="E22" s="78"/>
       <c r="F22" s="79"/>
       <c r="G22" s="80" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H22" s="78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I22" s="80" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K22" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="152">
+        <v>48</v>
+      </c>
+      <c r="L22" s="140">
         <v>25</v>
       </c>
       <c r="M22" s="81">
@@ -3104,7 +2980,7 @@
     <row r="23" spans="1:17" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
       <c r="B23" s="70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="72">
@@ -3113,21 +2989,21 @@
       <c r="E23" s="72"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>67</v>
-      </c>
       <c r="J23" s="74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="150">
+        <v>48</v>
+      </c>
+      <c r="L23" s="138">
         <v>37</v>
       </c>
       <c r="M23" s="75">
@@ -3137,7 +3013,7 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="78">
@@ -3146,21 +3022,21 @@
       <c r="E24" s="78"/>
       <c r="F24" s="79"/>
       <c r="G24" s="80" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I24" s="80" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="J24" s="80" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="152">
+        <v>96</v>
+      </c>
+      <c r="L24" s="140">
         <v>1.6</v>
       </c>
       <c r="M24" s="81">
@@ -3172,7 +3048,7 @@
     <row r="25" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="87"/>
       <c r="B25" s="70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="72">
@@ -3181,21 +3057,21 @@
       <c r="E25" s="72"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H25" s="72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I25" s="74" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J25" s="74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K25" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="150">
+        <v>48</v>
+      </c>
+      <c r="L25" s="138">
         <v>315</v>
       </c>
       <c r="M25" s="75">
@@ -3209,7 +3085,7 @@
     <row r="26" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="87"/>
       <c r="B26" s="76" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="78">
@@ -3218,21 +3094,21 @@
       <c r="E26" s="78"/>
       <c r="F26" s="79"/>
       <c r="G26" s="80" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="H26" s="78" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J26" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="152">
+        <v>100</v>
+      </c>
+      <c r="K26" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="140">
         <v>0.16</v>
       </c>
       <c r="M26" s="81">
@@ -3246,7 +3122,7 @@
     <row r="27" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
       <c r="B27" s="70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="72">
@@ -3255,21 +3131,21 @@
       <c r="E27" s="72"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I27" s="74" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J27" s="74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K27" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="150">
+        <v>48</v>
+      </c>
+      <c r="L27" s="138">
         <v>1.34</v>
       </c>
       <c r="M27" s="75">
@@ -3282,7 +3158,7 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="78">
@@ -3291,21 +3167,21 @@
       <c r="E28" s="78"/>
       <c r="F28" s="79"/>
       <c r="G28" s="80" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I28" s="80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J28" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="152">
+        <v>104</v>
+      </c>
+      <c r="K28" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="140">
         <v>0.12</v>
       </c>
       <c r="M28" s="81">
@@ -3315,7 +3191,7 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="72">
@@ -3324,21 +3200,21 @@
       <c r="E29" s="72"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="H29" s="72" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="I29" s="74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J29" s="74" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K29" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="150">
+        <v>28</v>
+      </c>
+      <c r="L29" s="138">
         <v>7.93</v>
       </c>
       <c r="M29" s="75">
@@ -3349,7 +3225,7 @@
     <row r="30" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="87"/>
       <c r="B30" s="76" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="78">
@@ -3358,21 +3234,21 @@
       <c r="E30" s="78"/>
       <c r="F30" s="79"/>
       <c r="G30" s="80" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H30" s="78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I30" s="80" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J30" s="80" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="152">
+        <v>48</v>
+      </c>
+      <c r="L30" s="140">
         <v>314</v>
       </c>
       <c r="M30" s="81">
@@ -3385,7 +3261,7 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="72">
@@ -3394,21 +3270,21 @@
       <c r="E31" s="72"/>
       <c r="F31" s="73"/>
       <c r="G31" s="74" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="H31" s="72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J31" s="74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K31" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="150">
+        <v>48</v>
+      </c>
+      <c r="L31" s="138">
         <v>5.1100000000000003</v>
       </c>
       <c r="M31" s="75">
@@ -3419,7 +3295,7 @@
     <row r="32" spans="1:17" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
       <c r="B32" s="76" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C32" s="77"/>
       <c r="D32" s="78">
@@ -3428,21 +3304,21 @@
       <c r="E32" s="78"/>
       <c r="F32" s="79"/>
       <c r="G32" s="80" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H32" s="78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I32" s="80" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J32" s="80" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K32" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="L32" s="152">
+        <v>48</v>
+      </c>
+      <c r="L32" s="140">
         <v>49</v>
       </c>
       <c r="M32" s="81">
@@ -3451,10 +3327,10 @@
       </c>
       <c r="O32" s="92"/>
     </row>
-    <row r="33" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84"/>
       <c r="B33" s="70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="72">
@@ -3463,21 +3339,21 @@
       <c r="E33" s="72"/>
       <c r="F33" s="73"/>
       <c r="G33" s="74" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H33" s="72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I33" s="74" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J33" s="74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K33" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="L33" s="150">
+        <v>48</v>
+      </c>
+      <c r="L33" s="138">
         <v>10</v>
       </c>
       <c r="M33" s="75">
@@ -3488,10 +3364,10 @@
       <c r="O33" s="88"/>
       <c r="Q33" s="89"/>
     </row>
-    <row r="34" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="76" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="78">
@@ -3500,21 +3376,21 @@
       <c r="E34" s="78"/>
       <c r="F34" s="79"/>
       <c r="G34" s="80" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="H34" s="78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I34" s="80" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J34" s="80" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="L34" s="152">
+        <v>48</v>
+      </c>
+      <c r="L34" s="140">
         <v>16</v>
       </c>
       <c r="M34" s="81">
@@ -3525,10 +3401,10 @@
       <c r="O34" s="88"/>
       <c r="Q34" s="89"/>
     </row>
-    <row r="35" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="72">
@@ -3537,21 +3413,21 @@
       <c r="E35" s="72"/>
       <c r="F35" s="73"/>
       <c r="G35" s="74" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H35" s="72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I35" s="74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J35" s="74" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="K35" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="150">
+        <v>28</v>
+      </c>
+      <c r="L35" s="138">
         <v>3.05</v>
       </c>
       <c r="M35" s="75">
@@ -3562,10 +3438,10 @@
       <c r="O35" s="88"/>
       <c r="Q35" s="89"/>
     </row>
-    <row r="36" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="76" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="78">
@@ -3574,21 +3450,21 @@
       <c r="E36" s="78"/>
       <c r="F36" s="79"/>
       <c r="G36" s="80" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="H36" s="78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I36" s="80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J36" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="K36" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="152">
+        <v>113</v>
+      </c>
+      <c r="K36" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="140">
         <v>2.29</v>
       </c>
       <c r="M36" s="81">
@@ -3599,10 +3475,10 @@
       <c r="O36" s="88"/>
       <c r="Q36" s="89"/>
     </row>
-    <row r="37" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
       <c r="B37" s="70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="72">
@@ -3611,21 +3487,21 @@
       <c r="E37" s="72"/>
       <c r="F37" s="73"/>
       <c r="G37" s="74" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="H37" s="72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I37" s="74" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="J37" s="74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K37" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="L37" s="150">
+        <v>118</v>
+      </c>
+      <c r="L37" s="138">
         <v>1</v>
       </c>
       <c r="M37" s="75">
@@ -3636,35 +3512,35 @@
       <c r="O37" s="88"/>
       <c r="Q37" s="89"/>
     </row>
-    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="194" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="196" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="198">
+      <c r="B38" s="181" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="185">
         <v>1</v>
       </c>
       <c r="E38" s="103"/>
       <c r="F38" s="62"/>
       <c r="G38" s="46" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="H38" s="103" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I38" s="46" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J38" s="46" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K38" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="147">
+        <v>48</v>
+      </c>
+      <c r="L38" s="135">
         <v>11.5</v>
       </c>
       <c r="M38" s="48">
@@ -3675,27 +3551,27 @@
       <c r="O38" s="88"/>
       <c r="Q38" s="89"/>
     </row>
-    <row r="39" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="199"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="186"/>
       <c r="E39" s="104"/>
       <c r="F39" s="51"/>
       <c r="G39" s="50" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="H39" s="104"/>
       <c r="I39" s="51"/>
       <c r="J39" s="51"/>
       <c r="K39" s="51"/>
-      <c r="L39" s="148"/>
+      <c r="L39" s="136"/>
       <c r="M39" s="52"/>
       <c r="N39" s="1"/>
       <c r="O39" s="88"/>
       <c r="Q39" s="89"/>
     </row>
-    <row r="40" spans="1:17" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3706,11 +3582,11 @@
       <c r="H40" s="3"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="160" t="s">
-        <v>149</v>
-      </c>
-      <c r="L40" s="163"/>
-      <c r="M40" s="162">
+      <c r="K40" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" s="151"/>
+      <c r="M40" s="150">
         <f>SUM(M8:M39)</f>
         <v>1422.1799999999998</v>
       </c>
@@ -3718,10 +3594,10 @@
       <c r="O40" s="88"/>
       <c r="Q40" s="89"/>
     </row>
-    <row r="41" spans="1:17" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="107" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
@@ -3738,484 +3614,503 @@
       <c r="O41" s="88"/>
       <c r="Q41" s="89"/>
     </row>
-    <row r="42" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="188" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="205"/>
-      <c r="D42" s="200">
+      <c r="B42" s="169" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="179"/>
+      <c r="D42" s="175">
         <v>1</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="126"/>
       <c r="G42" s="31" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K42" s="102" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L42" s="31">
-        <v>93</v>
+        <v>20.9</v>
       </c>
       <c r="M42" s="33">
-        <f t="shared" ref="M42:M48" si="1">L42*D42</f>
-        <v>93</v>
+        <f t="shared" ref="M42:M44" si="1">L42*D42</f>
+        <v>20.9</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="88"/>
       <c r="Q42" s="89"/>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="189"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="201"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="156"/>
+      <c r="R42" s="194"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="170"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="144"/>
       <c r="G43" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H43" s="157"/>
+        <v>136</v>
+      </c>
+      <c r="H43" s="145"/>
       <c r="I43" s="43"/>
       <c r="J43" s="43"/>
-      <c r="K43" s="158"/>
+      <c r="K43" s="146"/>
       <c r="L43" s="43"/>
       <c r="M43" s="44"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="179" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="181"/>
-      <c r="D44" s="183">
-        <v>1</v>
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="171" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="173"/>
+      <c r="D44" s="177">
+        <v>2</v>
       </c>
       <c r="E44" s="103"/>
-      <c r="F44" s="129"/>
+      <c r="F44" s="128"/>
       <c r="G44" s="46" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="H44" s="103" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I44" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J44" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44" s="130" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="K44" s="129" t="s">
+        <v>28</v>
       </c>
       <c r="L44" s="46">
-        <v>87.98</v>
+        <v>5.49</v>
       </c>
       <c r="M44" s="48">
         <f t="shared" si="1"/>
-        <v>87.98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="180"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="184"/>
+        <v>10.98</v>
+      </c>
+      <c r="R44" s="167"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="172"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="178"/>
       <c r="E45" s="104"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="132" t="s">
-        <v>145</v>
+      <c r="F45" s="130"/>
+      <c r="G45" s="131" t="s">
+        <v>135</v>
       </c>
       <c r="H45" s="68"/>
       <c r="I45" s="51"/>
       <c r="J45" s="51"/>
-      <c r="K45" s="133"/>
+      <c r="K45" s="132"/>
       <c r="L45" s="51"/>
       <c r="M45" s="52"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="213" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="211"/>
-      <c r="D46" s="200">
-        <v>2</v>
-      </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="29" t="s">
+    <row r="46" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="L46" s="149"/>
+      <c r="M46" s="150">
+        <f>SUM(M42:M45)</f>
+        <v>31.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="94"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="96"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="108"/>
+      <c r="D48" s="72">
+        <v>1</v>
+      </c>
+      <c r="E48" s="72"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="138">
+        <v>0.23</v>
+      </c>
+      <c r="M48" s="75">
+        <f t="shared" ref="M48:M69" si="2">L48*D48</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="113"/>
+      <c r="D49" s="114">
+        <v>6</v>
+      </c>
+      <c r="E49" s="114"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="K46" s="134" t="s">
-        <v>31</v>
-      </c>
-      <c r="L46" s="31">
-        <v>5.97</v>
-      </c>
-      <c r="M46" s="33">
-        <f t="shared" si="1"/>
-        <v>11.94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="214"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="127" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="57"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="128"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="60"/>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="209" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="207"/>
-      <c r="D48" s="203">
-        <v>1</v>
-      </c>
-      <c r="E48" s="135"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="137" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="K48" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" s="137">
-        <v>1.21</v>
-      </c>
-      <c r="M48" s="48">
-        <f t="shared" si="1"/>
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="210"/>
-      <c r="C49" s="208"/>
-      <c r="D49" s="204"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="141" t="s">
-        <v>147</v>
-      </c>
-      <c r="H49" s="142"/>
-      <c r="I49" s="143"/>
-      <c r="J49" s="143"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="143"/>
-      <c r="M49" s="52"/>
-    </row>
-    <row r="50" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K50" s="160" t="s">
-        <v>149</v>
-      </c>
-      <c r="L50" s="161"/>
-      <c r="M50" s="162">
-        <f>SUM(M42:M49)</f>
-        <v>194.13000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="96"/>
-    </row>
-    <row r="52" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="108"/>
-      <c r="D52" s="72">
-        <v>1</v>
-      </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="I52" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="K52" s="111" t="s">
-        <v>53</v>
-      </c>
-      <c r="L52" s="150">
-        <v>0.23</v>
-      </c>
-      <c r="M52" s="75">
-        <f t="shared" ref="M52:M72" si="2">L52*D52</f>
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="113"/>
-      <c r="D53" s="114">
-        <v>6</v>
-      </c>
-      <c r="E53" s="114"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="116" t="s">
-        <v>49</v>
-      </c>
-      <c r="I53" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="J53" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="K53" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="L53" s="159">
+      <c r="H49" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="L49" s="147">
         <v>0.65</v>
       </c>
-      <c r="M53" s="81">
+      <c r="M49" s="81">
         <f t="shared" si="2"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="108"/>
-      <c r="D54" s="72">
+    <row r="50" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="108"/>
+      <c r="D50" s="72">
         <v>4</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="I54" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="K54" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="L54" s="150">
+      <c r="E50" s="72"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="138">
         <v>1.29</v>
       </c>
-      <c r="M54" s="75">
+      <c r="M50" s="75">
         <f t="shared" si="2"/>
         <v>5.16</v>
       </c>
     </row>
-    <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="113"/>
-      <c r="D55" s="114">
+    <row r="51" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="113"/>
+      <c r="D51" s="114">
         <v>22</v>
       </c>
-      <c r="E55" s="114"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" s="116" t="s">
-        <v>49</v>
-      </c>
-      <c r="I55" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="K55" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="159">
+      <c r="E51" s="114"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="147">
         <v>1.6</v>
       </c>
-      <c r="M55" s="81">
+      <c r="M51" s="81">
         <f t="shared" si="2"/>
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="29">
+    <row r="52" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="99"/>
+      <c r="D52" s="29">
         <v>6</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="I56" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="J56" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="K56" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="L56" s="145">
+      <c r="E52" s="29"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="133">
         <v>3.63</v>
       </c>
-      <c r="M56" s="33">
+      <c r="M52" s="33">
         <f t="shared" si="2"/>
         <v>21.78</v>
       </c>
     </row>
+    <row r="53" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="118"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="137"/>
+      <c r="M53" s="60"/>
+    </row>
+    <row r="54" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="113"/>
+      <c r="D54" s="114">
+        <v>4</v>
+      </c>
+      <c r="E54" s="114"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="147">
+        <v>0.73</v>
+      </c>
+      <c r="M54" s="81">
+        <f t="shared" si="2"/>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="108"/>
+      <c r="D55" s="72">
+        <v>1</v>
+      </c>
+      <c r="E55" s="72"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="138">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="M55" s="75">
+        <f t="shared" si="2"/>
+        <v>3.1619999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="113"/>
+      <c r="D56" s="114">
+        <v>20</v>
+      </c>
+      <c r="E56" s="114"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="147">
+        <v>0.47</v>
+      </c>
+      <c r="M56" s="81">
+        <f t="shared" si="2"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="S56" s="167"/>
+    </row>
     <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="118"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="J57" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="K57" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" s="149"/>
-      <c r="M57" s="60"/>
+      <c r="B57" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="108"/>
+      <c r="D57" s="72">
+        <v>4</v>
+      </c>
+      <c r="E57" s="72"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="K57" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="138">
+        <v>2.65</v>
+      </c>
+      <c r="M57" s="75">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
     </row>
     <row r="58" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="112" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C58" s="113"/>
       <c r="D58" s="114">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E58" s="114"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H58" s="116" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I58" s="115" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J58" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="K58" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="159">
-        <v>0.73</v>
+        <v>127</v>
+      </c>
+      <c r="K58" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="147">
+        <v>0.44</v>
       </c>
       <c r="M58" s="81">
         <f t="shared" si="2"/>
-        <v>2.92</v>
-      </c>
+        <v>7.04</v>
+      </c>
+      <c r="S58" s="167"/>
     </row>
     <row r="59" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="70" t="s">
-        <v>66</v>
-      </c>
+      <c r="B59" s="70"/>
       <c r="C59" s="108"/>
-      <c r="D59" s="72">
-        <v>1</v>
-      </c>
+      <c r="D59" s="72"/>
       <c r="E59" s="72"/>
       <c r="F59" s="109"/>
-      <c r="G59" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="I59" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J59" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="K59" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="L59" s="150">
-        <v>3.1619999999999999</v>
-      </c>
-      <c r="M59" s="75">
-        <f t="shared" si="2"/>
-        <v>3.1619999999999999</v>
-      </c>
+      <c r="G59" s="109"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="138"/>
+      <c r="M59" s="75"/>
     </row>
     <row r="60" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="112" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C60" s="113"/>
       <c r="D60" s="114">
@@ -4224,472 +4119,378 @@
       <c r="E60" s="114"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H60" s="116" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I60" s="115" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J60" s="115" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K60" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="L60" s="159">
-        <v>2.65</v>
+        <v>28</v>
+      </c>
+      <c r="L60" s="147">
+        <v>0.12</v>
       </c>
       <c r="M60" s="81">
         <f t="shared" si="2"/>
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="108"/>
-      <c r="D61" s="72">
+        <v>0.48</v>
+      </c>
+      <c r="S60" s="167"/>
+    </row>
+    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="113"/>
+      <c r="D61" s="114">
+        <v>14</v>
+      </c>
+      <c r="E61" s="114"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="H61" s="116"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="81"/>
+      <c r="S61" s="195"/>
+    </row>
+    <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="108"/>
+      <c r="D62" s="72">
+        <v>14</v>
+      </c>
+      <c r="E62" s="72"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="H62" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" s="138">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M62" s="75">
+        <f t="shared" si="2"/>
+        <v>16.239999999999998</v>
+      </c>
+      <c r="S62" s="167"/>
+    </row>
+    <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="113"/>
+      <c r="D63" s="114">
+        <v>10</v>
+      </c>
+      <c r="E63" s="114"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="K63" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="147">
+        <v>2.09</v>
+      </c>
+      <c r="M63" s="81">
+        <f t="shared" si="2"/>
+        <v>20.9</v>
+      </c>
+      <c r="S63" s="167"/>
+    </row>
+    <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="108"/>
+      <c r="D64" s="72">
         <v>4</v>
       </c>
-      <c r="E61" s="72"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109" t="s">
+      <c r="E64" s="72"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="H61" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="I61" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J61" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="K61" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="L61" s="150">
-        <v>2.65</v>
-      </c>
-      <c r="M61" s="75">
-        <f t="shared" si="2"/>
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="113"/>
-      <c r="D62" s="114">
-        <v>16</v>
-      </c>
-      <c r="E62" s="114"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="I62" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J62" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="K62" s="216" t="s">
-        <v>31</v>
-      </c>
-      <c r="L62" s="159">
-        <v>0.44</v>
-      </c>
-      <c r="M62" s="81">
-        <f t="shared" si="2"/>
-        <v>7.04</v>
-      </c>
-      <c r="S62" s="215"/>
-    </row>
-    <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="108"/>
-      <c r="D63" s="72">
-        <v>4</v>
-      </c>
-      <c r="E63" s="72"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="I63" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J63" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="K63" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="L63" s="150">
-        <v>0.3</v>
-      </c>
-      <c r="M63" s="75">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="113"/>
-      <c r="D64" s="114">
-        <v>4</v>
-      </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="I64" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J64" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="K64" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="L64" s="159">
-        <v>0.12</v>
-      </c>
-      <c r="M64" s="81">
-        <f t="shared" si="2"/>
-        <v>0.48</v>
-      </c>
-      <c r="S64" s="215"/>
-    </row>
-    <row r="65" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="108"/>
-      <c r="D65" s="72">
-        <v>2</v>
-      </c>
-      <c r="E65" s="72"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="H65" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="I65" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="K65" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="L65" s="150">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M65" s="75">
-        <f t="shared" si="2"/>
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="113"/>
-      <c r="D66" s="114">
-        <v>2</v>
-      </c>
-      <c r="E66" s="114"/>
-      <c r="F66" s="115"/>
-      <c r="G66" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J66" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="K66" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="L66" s="159">
-        <v>0.7</v>
-      </c>
-      <c r="M66" s="81">
-        <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="108"/>
-      <c r="D67" s="72">
-        <v>4</v>
-      </c>
-      <c r="E67" s="72"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="I67" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J67" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="K67" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" s="150">
+      <c r="I64" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="K64" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="138">
         <v>2.9</v>
       </c>
-      <c r="M67" s="75">
+      <c r="M64" s="75">
         <f t="shared" si="2"/>
         <v>11.6</v>
       </c>
-    </row>
-    <row r="68" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="116"/>
-      <c r="D68" s="114">
-        <v>3</v>
-      </c>
-      <c r="E68" s="114"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122" t="s">
-        <v>85</v>
-      </c>
-      <c r="H68" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="I68" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J68" s="122" t="s">
-        <v>86</v>
-      </c>
-      <c r="K68" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="L68" s="159">
+      <c r="S64" s="167"/>
+    </row>
+    <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="116"/>
+      <c r="D65" s="114">
+        <v>16</v>
+      </c>
+      <c r="E65" s="114"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="122" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="K65" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="147">
         <v>0.6</v>
       </c>
-      <c r="M68" s="81">
+      <c r="M65" s="81">
         <f t="shared" si="2"/>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="110"/>
-      <c r="D69" s="72">
-        <v>3</v>
-      </c>
-      <c r="E69" s="72"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="H69" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="I69" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J69" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="K69" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="L69" s="150">
-        <v>0.47</v>
-      </c>
-      <c r="M69" s="75">
+        <v>9.6</v>
+      </c>
+      <c r="S65" s="167"/>
+    </row>
+    <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="110"/>
+      <c r="D66" s="72">
+        <v>12</v>
+      </c>
+      <c r="E66" s="72"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="K66" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L66" s="138">
+        <v>6.53</v>
+      </c>
+      <c r="M66" s="75">
         <f t="shared" si="2"/>
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="116"/>
-      <c r="D70" s="114">
+        <v>78.36</v>
+      </c>
+      <c r="S66" s="167"/>
+    </row>
+    <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="116"/>
+      <c r="D67" s="114">
         <v>4</v>
       </c>
-      <c r="E70" s="114"/>
-      <c r="F70" s="122"/>
-      <c r="G70" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="H70" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="I70" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J70" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="K70" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="159">
-        <v>0.53</v>
-      </c>
-      <c r="M70" s="81">
+      <c r="E67" s="114"/>
+      <c r="F67" s="122"/>
+      <c r="G67" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="K67" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" s="147">
+        <v>3.7</v>
+      </c>
+      <c r="M67" s="81">
         <f t="shared" si="2"/>
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="110"/>
-      <c r="D71" s="72">
+        <v>14.8</v>
+      </c>
+      <c r="S67" s="167"/>
+    </row>
+    <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="110"/>
+      <c r="D68" s="72">
         <v>4</v>
       </c>
-      <c r="E71" s="72"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="H71" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J71" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="K71" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="L71" s="150">
+      <c r="E68" s="72"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="K68" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="138">
         <v>1.27</v>
       </c>
-      <c r="M71" s="75">
+      <c r="M68" s="75">
         <f t="shared" si="2"/>
         <v>5.08</v>
       </c>
     </row>
-    <row r="72" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="123"/>
-      <c r="D72" s="93">
+    <row r="69" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="123"/>
+      <c r="D69" s="93">
         <v>4</v>
       </c>
-      <c r="E72" s="93"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="H72" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="J72" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="K72" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="L72" s="151">
+      <c r="E69" s="93"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="139">
         <v>2.86</v>
       </c>
-      <c r="M72" s="81">
+      <c r="M69" s="81">
         <f t="shared" si="2"/>
         <v>11.44</v>
       </c>
     </row>
-    <row r="73" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="F70" s="1"/>
+      <c r="K70" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="L70" s="149"/>
+      <c r="M70" s="150">
+        <f>SUM(M48:M69)</f>
+        <v>267.892</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="K72" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="L72" s="149"/>
+      <c r="M72" s="150">
+        <f>M40+M46+M70</f>
+        <v>1721.952</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="F73" s="1"/>
-      <c r="K73" s="160" t="s">
-        <v>149</v>
-      </c>
-      <c r="L73" s="161"/>
-      <c r="M73" s="162">
-        <f>SUM(M52:M72)</f>
-        <v>139.44200000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="K75" s="160" t="s">
-        <v>150</v>
-      </c>
-      <c r="L75" s="161"/>
-      <c r="M75" s="162">
-        <f>M40+M50+M73</f>
-        <v>1755.752</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
     </row>
@@ -5533,32 +5334,15 @@
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C48:C49"/>
+  <mergeCells count="20">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
@@ -5566,85 +5350,81 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K52" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
-    <hyperlink ref="K53" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
-    <hyperlink ref="K54" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
-    <hyperlink ref="K55" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
-    <hyperlink ref="K57" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
-    <hyperlink ref="K56" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
-    <hyperlink ref="K58" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
-    <hyperlink ref="K59" r:id="rId9" xr:uid="{46A6ACDD-5760-4F58-85A8-0C3C5823AC23}"/>
-    <hyperlink ref="K60" r:id="rId10" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
-    <hyperlink ref="K61" r:id="rId11" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
-    <hyperlink ref="K62" r:id="rId12" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
-    <hyperlink ref="K63" r:id="rId13" xr:uid="{B6DDF454-5D93-4907-AA93-23FA58538DDA}"/>
-    <hyperlink ref="K64" r:id="rId14" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
-    <hyperlink ref="K65" r:id="rId15" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
-    <hyperlink ref="K66" r:id="rId16" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
-    <hyperlink ref="K67" r:id="rId17" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
-    <hyperlink ref="K68" r:id="rId18" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
-    <hyperlink ref="K69" r:id="rId19" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
-    <hyperlink ref="K70" r:id="rId20" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
-    <hyperlink ref="K71" r:id="rId21" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
-    <hyperlink ref="K72" r:id="rId22" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
-    <hyperlink ref="K42" r:id="rId23" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
-    <hyperlink ref="K44" r:id="rId24" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
-    <hyperlink ref="K46" r:id="rId25" xr:uid="{DAA40F40-7434-4808-A4F9-3B639CD993F7}"/>
-    <hyperlink ref="K48" r:id="rId26" xr:uid="{D9FCA77D-4B90-415B-B84D-4641EC4A3E95}"/>
-    <hyperlink ref="K8" r:id="rId27" xr:uid="{7B631EFD-FBB0-414A-ABB9-E4EF1004CB36}"/>
-    <hyperlink ref="K9" r:id="rId28" xr:uid="{E26C9157-F701-4202-8C8A-2A5490BB2432}"/>
-    <hyperlink ref="K10" r:id="rId29" xr:uid="{00C96614-58EA-43CF-95C1-B83D2DBFA964}"/>
-    <hyperlink ref="K11" r:id="rId30" xr:uid="{69041C88-AA34-4FA6-ADF0-D188106617E4}"/>
-    <hyperlink ref="K13" r:id="rId31" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
-    <hyperlink ref="K15" r:id="rId32" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
-    <hyperlink ref="K17" r:id="rId33" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
-    <hyperlink ref="K18" r:id="rId34" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
-    <hyperlink ref="K19" r:id="rId35" xr:uid="{8623CD09-3F1E-4EBC-A650-32779CBF8D38}"/>
-    <hyperlink ref="K20" r:id="rId36" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
-    <hyperlink ref="K21" r:id="rId37" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
-    <hyperlink ref="K22" r:id="rId38" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
-    <hyperlink ref="K23" r:id="rId39" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
-    <hyperlink ref="K24" r:id="rId40" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
-    <hyperlink ref="K25" r:id="rId41" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
-    <hyperlink ref="K26" r:id="rId42" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
-    <hyperlink ref="K27" r:id="rId43" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
-    <hyperlink ref="K28" r:id="rId44" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
-    <hyperlink ref="K29" r:id="rId45" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
-    <hyperlink ref="K30" r:id="rId46" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
-    <hyperlink ref="K31" r:id="rId47" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
-    <hyperlink ref="K32" r:id="rId48" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
-    <hyperlink ref="K33" r:id="rId49" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
-    <hyperlink ref="K34" r:id="rId50" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
-    <hyperlink ref="K37" r:id="rId51" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
-    <hyperlink ref="K38" r:id="rId52" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
-    <hyperlink ref="K35" r:id="rId53" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
-    <hyperlink ref="K36" r:id="rId54" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
+    <hyperlink ref="K48" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
+    <hyperlink ref="K49" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
+    <hyperlink ref="K50" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
+    <hyperlink ref="K51" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
+    <hyperlink ref="K53" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
+    <hyperlink ref="K52" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
+    <hyperlink ref="K54" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
+    <hyperlink ref="K55" r:id="rId9" xr:uid="{46A6ACDD-5760-4F58-85A8-0C3C5823AC23}"/>
+    <hyperlink ref="K56" r:id="rId10" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
+    <hyperlink ref="K57" r:id="rId11" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
+    <hyperlink ref="K58" r:id="rId12" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
+    <hyperlink ref="K60" r:id="rId13" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
+    <hyperlink ref="K62" r:id="rId14" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
+    <hyperlink ref="K63" r:id="rId15" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
+    <hyperlink ref="K64" r:id="rId16" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
+    <hyperlink ref="K65" r:id="rId17" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
+    <hyperlink ref="K66" r:id="rId18" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
+    <hyperlink ref="K67" r:id="rId19" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
+    <hyperlink ref="K68" r:id="rId20" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
+    <hyperlink ref="K69" r:id="rId21" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
+    <hyperlink ref="K42" r:id="rId22" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
+    <hyperlink ref="K44" r:id="rId23" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
+    <hyperlink ref="K8" r:id="rId24" xr:uid="{7B631EFD-FBB0-414A-ABB9-E4EF1004CB36}"/>
+    <hyperlink ref="K9" r:id="rId25" xr:uid="{E26C9157-F701-4202-8C8A-2A5490BB2432}"/>
+    <hyperlink ref="K10" r:id="rId26" xr:uid="{00C96614-58EA-43CF-95C1-B83D2DBFA964}"/>
+    <hyperlink ref="K11" r:id="rId27" xr:uid="{69041C88-AA34-4FA6-ADF0-D188106617E4}"/>
+    <hyperlink ref="K13" r:id="rId28" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
+    <hyperlink ref="K15" r:id="rId29" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
+    <hyperlink ref="K17" r:id="rId30" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
+    <hyperlink ref="K18" r:id="rId31" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
+    <hyperlink ref="K19" r:id="rId32" xr:uid="{8623CD09-3F1E-4EBC-A650-32779CBF8D38}"/>
+    <hyperlink ref="K20" r:id="rId33" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
+    <hyperlink ref="K21" r:id="rId34" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
+    <hyperlink ref="K22" r:id="rId35" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
+    <hyperlink ref="K23" r:id="rId36" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
+    <hyperlink ref="K24" r:id="rId37" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
+    <hyperlink ref="K25" r:id="rId38" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
+    <hyperlink ref="K26" r:id="rId39" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
+    <hyperlink ref="K27" r:id="rId40" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
+    <hyperlink ref="K28" r:id="rId41" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
+    <hyperlink ref="K29" r:id="rId42" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
+    <hyperlink ref="K30" r:id="rId43" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
+    <hyperlink ref="K31" r:id="rId44" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
+    <hyperlink ref="K32" r:id="rId45" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
+    <hyperlink ref="K33" r:id="rId46" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
+    <hyperlink ref="K34" r:id="rId47" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
+    <hyperlink ref="K37" r:id="rId48" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
+    <hyperlink ref="K38" r:id="rId49" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
+    <hyperlink ref="K35" r:id="rId50" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
+    <hyperlink ref="K36" r:id="rId51" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.16" bottom="0.25" header="0.11" footer="7.0000000000000007E-2"/>
-  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId55"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId52"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;R&amp;D  &amp;T</oddFooter>
   </headerFooter>
-  <drawing r:id="rId56"/>
-  <legacyDrawing r:id="rId57"/>
+  <drawing r:id="rId53"/>
+  <legacyDrawing r:id="rId54"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId58" name="AltiumMatBut">
+            <control shapeId="1030" r:id="rId55" name="AltiumMatBut">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMatStart.AltiumMatStart">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -5666,7 +5446,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId59" name="Button 7">
+            <control shapeId="1031" r:id="rId56" name="Button 7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMan1ShowHide1" altText="Show/Hide ">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>

--- a/Drawings/CNC_BOM.xlsx
+++ b/Drawings/CNC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\LaserCNCMachine\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3743860E-75AD-41D0-9C4F-962EC7D48465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83578765-F4EF-4C94-BDA7-2305B64F46FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="150">
   <si>
     <t>File</t>
   </si>
@@ -131,9 +131,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>Corner Bracket 40х40L</t>
-  </si>
-  <si>
     <t>AISI 1035 Steel (SS)</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>M5 NYLOC DIN 985</t>
-  </si>
-  <si>
-    <t>M4 NYLOC DIN 985</t>
   </si>
   <si>
     <t>Washer DIN 125 - A 5.3</t>
@@ -527,6 +521,24 @@
   </si>
   <si>
     <t>ISO 10642 - M3 x 16 - 16N</t>
+  </si>
+  <si>
+    <t>500214</t>
+  </si>
+  <si>
+    <t>5100214</t>
+  </si>
+  <si>
+    <t>T nut 2020 М5</t>
+  </si>
+  <si>
+    <t>написать сюда аналог!</t>
+  </si>
+  <si>
+    <t>Corner Bracket 40х20L</t>
+  </si>
+  <si>
+    <t>добавить аналог</t>
   </si>
 </sst>
 </file>
@@ -1687,85 +1699,85 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2339,11 +2351,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S290"/>
+  <dimension ref="A1:T290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2392,7 +2404,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>15</v>
@@ -2415,13 +2427,13 @@
         <v>6</v>
       </c>
       <c r="G3" s="163" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H3" s="162" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="163" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
@@ -2462,11 +2474,11 @@
       </c>
       <c r="G5" s="165" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1, FIND("]",CELL("filename"))-(FIND("[",CELL("filename"))+1))</f>
-        <v>CNC.xlsx</v>
+        <v>CNC_BOM.xlsx</v>
       </c>
       <c r="H5" s="162"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="17"/>
@@ -2482,7 +2494,7 @@
       </c>
       <c r="G6" s="22">
         <f ca="1">TODAY()</f>
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>5</v>
@@ -2503,10 +2515,10 @@
       <c r="C7" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="190" t="s">
+      <c r="D7" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="191"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="156" t="s">
         <v>4</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>27</v>
       </c>
       <c r="M7" s="160" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>30</v>
@@ -2543,26 +2555,26 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="169" t="s">
-        <v>76</v>
+      <c r="B8" s="180" t="s">
+        <v>74</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="188">
+      <c r="D8" s="183">
         <v>2</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>77</v>
-      </c>
       <c r="I8" s="31" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>28</v>
@@ -2577,9 +2589,9 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="170"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="193"/>
+      <c r="D9" s="184"/>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
@@ -2588,7 +2600,7 @@
         <v>28</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>28</v>
@@ -2598,21 +2610,21 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="187"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="189"/>
+      <c r="D10" s="185"/>
       <c r="E10" s="104"/>
       <c r="F10" s="127"/>
       <c r="G10" s="127"/>
       <c r="H10" s="127"/>
       <c r="I10" s="58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10" s="141" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L10" s="137"/>
       <c r="M10" s="60"/>
@@ -2620,30 +2632,30 @@
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="171" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="177">
+      <c r="D11" s="175">
         <v>1</v>
       </c>
       <c r="E11" s="103"/>
       <c r="F11" s="45"/>
       <c r="G11" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="103" t="s">
-        <v>82</v>
-      </c>
       <c r="I11" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" s="47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L11" s="135">
         <v>62.17</v>
@@ -2657,11 +2669,11 @@
       <c r="A12" s="3"/>
       <c r="B12" s="172"/>
       <c r="C12" s="174"/>
-      <c r="D12" s="178"/>
+      <c r="D12" s="176"/>
       <c r="E12" s="104"/>
       <c r="F12" s="49"/>
       <c r="G12" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -2672,11 +2684,11 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="180" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="188">
+      <c r="D13" s="183">
         <v>1</v>
       </c>
       <c r="E13" s="29"/>
@@ -2685,7 +2697,7 @@
         <v>21</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>28</v>
@@ -2706,13 +2718,13 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="187"/>
+      <c r="B14" s="182"/>
       <c r="C14" s="53"/>
-      <c r="D14" s="189"/>
+      <c r="D14" s="185"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="58"/>
@@ -2723,11 +2735,11 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="186" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="185">
+      <c r="D15" s="190">
         <v>1</v>
       </c>
       <c r="E15" s="103"/>
@@ -2736,7 +2748,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I15" s="46" t="s">
         <v>28</v>
@@ -2757,13 +2769,13 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="182"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="186"/>
+      <c r="D16" s="191"/>
       <c r="E16" s="104"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="51"/>
@@ -2772,10 +2784,10 @@
       <c r="L16" s="136"/>
       <c r="M16" s="52"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="72">
@@ -2784,16 +2796,16 @@
       <c r="E17" s="72"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="74" t="s">
         <v>84</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="74" t="s">
-        <v>86</v>
       </c>
       <c r="K17" s="106" t="s">
         <v>28</v>
@@ -2806,10 +2818,10 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="78">
@@ -2818,16 +2830,16 @@
       <c r="E18" s="78"/>
       <c r="F18" s="79"/>
       <c r="G18" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="80" t="s">
         <v>88</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="80" t="s">
-        <v>90</v>
       </c>
       <c r="K18" s="142" t="s">
         <v>28</v>
@@ -2840,10 +2852,10 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="72">
@@ -2852,19 +2864,19 @@
       <c r="E19" s="72"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="72" t="s">
-        <v>93</v>
-      </c>
       <c r="I19" s="74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L19" s="138">
         <v>0.48</v>
@@ -2875,10 +2887,10 @@
       </c>
       <c r="O19" s="83"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="78">
@@ -2887,16 +2899,16 @@
       <c r="E20" s="78"/>
       <c r="F20" s="79"/>
       <c r="G20" s="80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H20" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="80" t="s">
         <v>93</v>
-      </c>
-      <c r="I20" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="80" t="s">
-        <v>95</v>
       </c>
       <c r="K20" s="142" t="s">
         <v>28</v>
@@ -2909,10 +2921,10 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="72">
@@ -2921,19 +2933,19 @@
       <c r="E21" s="72"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="72" t="s">
-        <v>35</v>
-      </c>
       <c r="I21" s="74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J21" s="74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K21" s="106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L21" s="138">
         <v>49</v>
@@ -2942,11 +2954,12 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="167"/>
+    </row>
+    <row r="22" spans="1:20" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
       <c r="B22" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="78">
@@ -2955,19 +2968,19 @@
       <c r="E22" s="78"/>
       <c r="F22" s="79"/>
       <c r="G22" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H22" s="78" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K22" s="85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L22" s="140">
         <v>25</v>
@@ -2977,10 +2990,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
       <c r="B23" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="72">
@@ -2989,19 +3002,19 @@
       <c r="E23" s="72"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J23" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L23" s="138">
         <v>37</v>
@@ -3011,44 +3024,48 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="78"/>
       <c r="F24" s="79"/>
       <c r="G24" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H24" s="78" t="s">
         <v>24</v>
       </c>
       <c r="I24" s="80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J24" s="80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L24" s="140">
         <v>1.6</v>
       </c>
       <c r="M24" s="81">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="O24" s="83"/>
-    </row>
-    <row r="25" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="167"/>
+      <c r="T24" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="87"/>
       <c r="B25" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="72">
@@ -3057,19 +3074,19 @@
       <c r="E25" s="72"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H25" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K25" s="82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L25" s="138">
         <v>315</v>
@@ -3082,10 +3099,10 @@
       <c r="O25" s="88"/>
       <c r="Q25" s="89"/>
     </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="87"/>
       <c r="B26" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="78">
@@ -3094,16 +3111,16 @@
       <c r="E26" s="78"/>
       <c r="F26" s="79"/>
       <c r="G26" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="80" t="s">
         <v>98</v>
-      </c>
-      <c r="H26" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="80" t="s">
-        <v>100</v>
       </c>
       <c r="K26" s="142" t="s">
         <v>28</v>
@@ -3119,10 +3136,10 @@
       <c r="O26" s="88"/>
       <c r="Q26" s="89"/>
     </row>
-    <row r="27" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
       <c r="B27" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="72">
@@ -3131,19 +3148,19 @@
       <c r="E27" s="72"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I27" s="74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J27" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" s="82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L27" s="138">
         <v>1.34</v>
@@ -3156,9 +3173,9 @@
       <c r="O27" s="88"/>
       <c r="Q27" s="89"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="78">
@@ -3167,16 +3184,16 @@
       <c r="E28" s="78"/>
       <c r="F28" s="79"/>
       <c r="G28" s="80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H28" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="80" t="s">
         <v>102</v>
-      </c>
-      <c r="I28" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="80" t="s">
-        <v>104</v>
       </c>
       <c r="K28" s="142" t="s">
         <v>28</v>
@@ -3189,9 +3206,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="72">
@@ -3200,16 +3217,16 @@
       <c r="E29" s="72"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="74" t="s">
         <v>105</v>
-      </c>
-      <c r="H29" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="74" t="s">
-        <v>107</v>
       </c>
       <c r="K29" s="106" t="s">
         <v>28</v>
@@ -3222,10 +3239,10 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="87"/>
       <c r="B30" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="78">
@@ -3234,19 +3251,19 @@
       <c r="E30" s="78"/>
       <c r="F30" s="79"/>
       <c r="G30" s="80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H30" s="78" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J30" s="80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L30" s="140">
         <v>314</v>
@@ -3259,9 +3276,9 @@
       <c r="O30" s="88"/>
       <c r="Q30" s="89"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="72">
@@ -3270,19 +3287,19 @@
       <c r="E31" s="72"/>
       <c r="F31" s="73"/>
       <c r="G31" s="74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J31" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K31" s="82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L31" s="138">
         <v>5.1100000000000003</v>
@@ -3292,10 +3309,10 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
       <c r="B32" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="77"/>
       <c r="D32" s="78">
@@ -3304,19 +3321,19 @@
       <c r="E32" s="78"/>
       <c r="F32" s="79"/>
       <c r="G32" s="80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H32" s="78" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J32" s="80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K32" s="85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L32" s="140">
         <v>49</v>
@@ -3330,7 +3347,7 @@
     <row r="33" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84"/>
       <c r="B33" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="72">
@@ -3339,19 +3356,19 @@
       <c r="E33" s="72"/>
       <c r="F33" s="73"/>
       <c r="G33" s="74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I33" s="74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J33" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K33" s="82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L33" s="138">
         <v>10</v>
@@ -3367,7 +3384,7 @@
     <row r="34" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="78">
@@ -3376,19 +3393,19 @@
       <c r="E34" s="78"/>
       <c r="F34" s="79"/>
       <c r="G34" s="80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H34" s="78" t="s">
         <v>24</v>
       </c>
       <c r="I34" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J34" s="80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L34" s="140">
         <v>16</v>
@@ -3404,7 +3421,7 @@
     <row r="35" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="72">
@@ -3413,7 +3430,7 @@
       <c r="E35" s="72"/>
       <c r="F35" s="73"/>
       <c r="G35" s="74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H35" s="72" t="s">
         <v>24</v>
@@ -3422,7 +3439,7 @@
         <v>28</v>
       </c>
       <c r="J35" s="74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K35" s="106" t="s">
         <v>28</v>
@@ -3441,7 +3458,7 @@
     <row r="36" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="78">
@@ -3450,7 +3467,7 @@
       <c r="E36" s="78"/>
       <c r="F36" s="79"/>
       <c r="G36" s="80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H36" s="78" t="s">
         <v>24</v>
@@ -3459,7 +3476,7 @@
         <v>28</v>
       </c>
       <c r="J36" s="80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K36" s="142" t="s">
         <v>28</v>
@@ -3478,7 +3495,7 @@
     <row r="37" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
       <c r="B37" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="72">
@@ -3487,19 +3504,19 @@
       <c r="E37" s="72"/>
       <c r="F37" s="73"/>
       <c r="G37" s="74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J37" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K37" s="82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L37" s="138">
         <v>1</v>
@@ -3514,31 +3531,31 @@
     </row>
     <row r="38" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="181" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="183" t="s">
+      <c r="B38" s="186" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="185">
+      <c r="D38" s="190">
         <v>1</v>
       </c>
       <c r="E38" s="103"/>
       <c r="F38" s="62"/>
       <c r="G38" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H38" s="103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I38" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J38" s="46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38" s="47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L38" s="135">
         <v>11.5</v>
@@ -3553,13 +3570,13 @@
     </row>
     <row r="39" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="182"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="186"/>
+      <c r="B39" s="187"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="191"/>
       <c r="E39" s="104"/>
       <c r="F39" s="51"/>
       <c r="G39" s="50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H39" s="104"/>
       <c r="I39" s="51"/>
@@ -3583,12 +3600,12 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="148" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L40" s="151"/>
       <c r="M40" s="150">
         <f>SUM(M8:M39)</f>
-        <v>1422.1799999999998</v>
+        <v>1425.3799999999999</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="88"/>
@@ -3597,7 +3614,7 @@
     <row r="41" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
@@ -3616,26 +3633,26 @@
     </row>
     <row r="42" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="169" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="179"/>
-      <c r="D42" s="175">
+      <c r="B42" s="180" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="194"/>
+      <c r="D42" s="192">
         <v>1</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="126"/>
       <c r="G42" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>28</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K42" s="102" t="s">
         <v>28</v>
@@ -3650,16 +3667,16 @@
       <c r="N42" s="1"/>
       <c r="O42" s="88"/>
       <c r="Q42" s="89"/>
-      <c r="R42" s="194"/>
+      <c r="R42" s="169"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="170"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="176"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="193"/>
       <c r="E43" s="143"/>
       <c r="F43" s="144"/>
       <c r="G43" s="42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H43" s="145"/>
       <c r="I43" s="43"/>
@@ -3670,25 +3687,25 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="171" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" s="173"/>
-      <c r="D44" s="177">
+      <c r="D44" s="175">
         <v>2</v>
       </c>
       <c r="E44" s="103"/>
       <c r="F44" s="128"/>
       <c r="G44" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H44" s="103" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I44" s="46" t="s">
         <v>28</v>
       </c>
       <c r="J44" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K44" s="129" t="s">
         <v>28</v>
@@ -3705,11 +3722,11 @@
     <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="172"/>
       <c r="C45" s="174"/>
-      <c r="D45" s="178"/>
+      <c r="D45" s="176"/>
       <c r="E45" s="104"/>
       <c r="F45" s="130"/>
       <c r="G45" s="131" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H45" s="68"/>
       <c r="I45" s="51"/>
@@ -3720,7 +3737,7 @@
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K46" s="148" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L46" s="149"/>
       <c r="M46" s="150">
@@ -3744,7 +3761,7 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="108"/>
       <c r="D48" s="72">
@@ -3753,19 +3770,19 @@
       <c r="E48" s="72"/>
       <c r="F48" s="109"/>
       <c r="G48" s="109" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H48" s="110" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I48" s="109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J48" s="109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K48" s="111" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L48" s="138">
         <v>0.23</v>
@@ -3775,42 +3792,43 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="113"/>
       <c r="D49" s="114">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E49" s="114"/>
       <c r="F49" s="115"/>
       <c r="G49" s="115" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H49" s="116" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I49" s="115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J49" s="115" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="K49" s="117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L49" s="147">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="M49" s="81">
         <f t="shared" si="2"/>
-        <v>3.9000000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="S49" s="167"/>
+    </row>
+    <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="108"/>
       <c r="D50" s="72">
@@ -3819,64 +3837,66 @@
       <c r="E50" s="72"/>
       <c r="F50" s="109"/>
       <c r="G50" s="109" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H50" s="110" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I50" s="109" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J50" s="109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K50" s="111" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="L50" s="138">
-        <v>1.29</v>
+        <v>5.27</v>
       </c>
       <c r="M50" s="75">
         <f t="shared" si="2"/>
-        <v>5.16</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>21.08</v>
+      </c>
+      <c r="S50" s="167"/>
+    </row>
+    <row r="51" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="113"/>
       <c r="D51" s="114">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E51" s="114"/>
       <c r="F51" s="115"/>
       <c r="G51" s="115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" s="116" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I51" s="115" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="115" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="K51" s="117" t="s">
         <v>28</v>
       </c>
       <c r="L51" s="147">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M51" s="81">
         <f t="shared" si="2"/>
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="S51" s="167"/>
+    </row>
+    <row r="52" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="98" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="99"/>
       <c r="D52" s="29">
@@ -3885,19 +3905,19 @@
       <c r="E52" s="29"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H52" s="101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52" s="100" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J52" s="100" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K52" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L52" s="133">
         <v>3.63</v>
@@ -3907,7 +3927,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="53" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="118"/>
       <c r="C53" s="119"/>
       <c r="D53" s="54"/>
@@ -3919,7 +3939,7 @@
         <v>28</v>
       </c>
       <c r="J53" s="120" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K53" s="121" t="s">
         <v>28</v>
@@ -3927,9 +3947,9 @@
       <c r="L53" s="137"/>
       <c r="M53" s="60"/>
     </row>
-    <row r="54" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="113"/>
       <c r="D54" s="114">
@@ -3938,16 +3958,16 @@
       <c r="E54" s="114"/>
       <c r="F54" s="115"/>
       <c r="G54" s="115" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H54" s="116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I54" s="115" t="s">
         <v>28</v>
       </c>
       <c r="J54" s="115" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K54" s="117" t="s">
         <v>28</v>
@@ -3960,9 +3980,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="108"/>
       <c r="D55" s="72">
@@ -3971,16 +3991,16 @@
       <c r="E55" s="72"/>
       <c r="F55" s="109"/>
       <c r="G55" s="109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H55" s="110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I55" s="109" t="s">
         <v>28</v>
       </c>
       <c r="J55" s="109" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K55" s="111" t="s">
         <v>28</v>
@@ -3993,9 +4013,9 @@
         <v>3.1619999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" s="113"/>
       <c r="D56" s="114">
@@ -4004,16 +4024,16 @@
       <c r="E56" s="114"/>
       <c r="F56" s="115"/>
       <c r="G56" s="115" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H56" s="116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I56" s="115" t="s">
         <v>28</v>
       </c>
       <c r="J56" s="115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K56" s="117" t="s">
         <v>28</v>
@@ -4027,9 +4047,9 @@
       </c>
       <c r="S56" s="167"/>
     </row>
-    <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" s="108"/>
       <c r="D57" s="72">
@@ -4038,16 +4058,16 @@
       <c r="E57" s="72"/>
       <c r="F57" s="109"/>
       <c r="G57" s="109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H57" s="110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I57" s="109" t="s">
         <v>28</v>
       </c>
       <c r="J57" s="109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K57" s="111" t="s">
         <v>28</v>
@@ -4060,9 +4080,9 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="58" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="113"/>
       <c r="D58" s="114">
@@ -4071,16 +4091,16 @@
       <c r="E58" s="114"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H58" s="116" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I58" s="115" t="s">
         <v>28</v>
       </c>
       <c r="J58" s="115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K58" s="168" t="s">
         <v>28</v>
@@ -4094,23 +4114,46 @@
       </c>
       <c r="S58" s="167"/>
     </row>
-    <row r="59" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="70"/>
+    <row r="59" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="70" t="s">
+        <v>53</v>
+      </c>
       <c r="C59" s="108"/>
-      <c r="D59" s="72"/>
+      <c r="D59" s="72">
+        <v>32</v>
+      </c>
       <c r="E59" s="72"/>
       <c r="F59" s="109"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="138"/>
-      <c r="M59" s="75"/>
-    </row>
-    <row r="60" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" s="138">
+        <v>2.08</v>
+      </c>
+      <c r="M59" s="75">
+        <f t="shared" si="2"/>
+        <v>66.56</v>
+      </c>
+      <c r="S59" s="167"/>
+      <c r="T59" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C60" s="113"/>
       <c r="D60" s="114">
@@ -4119,16 +4162,16 @@
       <c r="E60" s="114"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H60" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="115" t="s">
         <v>64</v>
-      </c>
-      <c r="I60" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="115" t="s">
-        <v>66</v>
       </c>
       <c r="K60" s="117" t="s">
         <v>28</v>
@@ -4142,9 +4185,9 @@
       </c>
       <c r="S60" s="167"/>
     </row>
-    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C61" s="113"/>
       <c r="D61" s="114">
@@ -4153,7 +4196,7 @@
       <c r="E61" s="114"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H61" s="116"/>
       <c r="I61" s="115"/>
@@ -4161,11 +4204,11 @@
       <c r="K61" s="117"/>
       <c r="L61" s="147"/>
       <c r="M61" s="81"/>
-      <c r="S61" s="195"/>
-    </row>
-    <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S61" s="170"/>
+    </row>
+    <row r="62" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C62" s="108"/>
       <c r="D62" s="72">
@@ -4174,16 +4217,16 @@
       <c r="E62" s="72"/>
       <c r="F62" s="109"/>
       <c r="G62" s="109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H62" s="110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I62" s="109" t="s">
         <v>28</v>
       </c>
       <c r="J62" s="109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K62" s="111" t="s">
         <v>28</v>
@@ -4197,9 +4240,9 @@
       </c>
       <c r="S62" s="167"/>
     </row>
-    <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C63" s="113"/>
       <c r="D63" s="114">
@@ -4208,16 +4251,16 @@
       <c r="E63" s="114"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H63" s="116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I63" s="115" t="s">
         <v>28</v>
       </c>
       <c r="J63" s="115" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K63" s="117" t="s">
         <v>28</v>
@@ -4231,9 +4274,9 @@
       </c>
       <c r="S63" s="167"/>
     </row>
-    <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C64" s="108"/>
       <c r="D64" s="72">
@@ -4242,16 +4285,16 @@
       <c r="E64" s="72"/>
       <c r="F64" s="109"/>
       <c r="G64" s="109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64" s="110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I64" s="109" t="s">
         <v>28</v>
       </c>
       <c r="J64" s="109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K64" s="111" t="s">
         <v>28</v>
@@ -4267,7 +4310,7 @@
     </row>
     <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65" s="116"/>
       <c r="D65" s="114">
@@ -4276,16 +4319,16 @@
       <c r="E65" s="114"/>
       <c r="F65" s="122"/>
       <c r="G65" s="122" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H65" s="116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I65" s="115" t="s">
         <v>28</v>
       </c>
       <c r="J65" s="122" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K65" s="117" t="s">
         <v>28</v>
@@ -4301,7 +4344,7 @@
     </row>
     <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C66" s="110"/>
       <c r="D66" s="72">
@@ -4310,16 +4353,16 @@
       <c r="E66" s="72"/>
       <c r="F66" s="74"/>
       <c r="G66" s="74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H66" s="110" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I66" s="109" t="s">
         <v>28</v>
       </c>
       <c r="J66" s="74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K66" s="111" t="s">
         <v>28</v>
@@ -4335,7 +4378,7 @@
     </row>
     <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="112" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67" s="116"/>
       <c r="D67" s="114">
@@ -4344,16 +4387,16 @@
       <c r="E67" s="114"/>
       <c r="F67" s="122"/>
       <c r="G67" s="122" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H67" s="116" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I67" s="115" t="s">
         <v>28</v>
       </c>
       <c r="J67" s="122" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K67" s="117" t="s">
         <v>28</v>
@@ -4369,7 +4412,7 @@
     </row>
     <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C68" s="110"/>
       <c r="D68" s="72">
@@ -4378,16 +4421,16 @@
       <c r="E68" s="72"/>
       <c r="F68" s="74"/>
       <c r="G68" s="74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H68" s="72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I68" s="109" t="s">
         <v>28</v>
       </c>
       <c r="J68" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K68" s="111" t="s">
         <v>28</v>
@@ -4402,7 +4445,7 @@
     </row>
     <row r="69" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C69" s="123"/>
       <c r="D69" s="93">
@@ -4411,16 +4454,16 @@
       <c r="E69" s="93"/>
       <c r="F69" s="105"/>
       <c r="G69" s="105" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H69" s="93" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I69" s="124" t="s">
         <v>28</v>
       </c>
       <c r="J69" s="105" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K69" s="125" t="s">
         <v>28</v>
@@ -4438,12 +4481,12 @@
       <c r="C70" s="4"/>
       <c r="F70" s="1"/>
       <c r="K70" s="148" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L70" s="149"/>
       <c r="M70" s="150">
         <f>SUM(M48:M69)</f>
-        <v>267.892</v>
+        <v>355.67200000000003</v>
       </c>
     </row>
     <row r="71" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4454,12 +4497,12 @@
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="K72" s="148" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L72" s="149"/>
       <c r="M72" s="150">
         <f>M40+M46+M70</f>
-        <v>1721.952</v>
+        <v>1812.932</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.2">
@@ -5336,6 +5379,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -5343,19 +5399,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5410,21 +5453,22 @@
     <hyperlink ref="K38" r:id="rId49" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
     <hyperlink ref="K35" r:id="rId50" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
     <hyperlink ref="K36" r:id="rId51" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
+    <hyperlink ref="K59" r:id="rId52" xr:uid="{B270F44D-5DCA-4473-A1B5-4E0C4CABA102}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.16" bottom="0.25" header="0.11" footer="7.0000000000000007E-2"/>
-  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId52"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId53"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;R&amp;D  &amp;T</oddFooter>
   </headerFooter>
-  <drawing r:id="rId53"/>
-  <legacyDrawing r:id="rId54"/>
+  <drawing r:id="rId54"/>
+  <legacyDrawing r:id="rId55"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId55" name="AltiumMatBut">
+            <control shapeId="1030" r:id="rId56" name="AltiumMatBut">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMatStart.AltiumMatStart">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -5446,7 +5490,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId56" name="Button 7">
+            <control shapeId="1031" r:id="rId57" name="Button 7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMan1ShowHide1" altText="Show/Hide ">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>

--- a/Drawings/CNC_BOM.xlsx
+++ b/Drawings/CNC_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\LaserCNCMachine\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83578765-F4EF-4C94-BDA7-2305B64F46FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0CF557-9C32-4375-B54B-8624BEF5D5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'arrangement-mat'!$7:$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$71</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="164">
   <si>
     <t>File</t>
   </si>
@@ -317,16 +317,7 @@
     <t>Nema 17HS4401 Stepper Motor</t>
   </si>
   <si>
-    <t>Cable tie 3 mm width</t>
-  </si>
-  <si>
     <t>Nylon 101</t>
-  </si>
-  <si>
-    <t>7130K31</t>
-  </si>
-  <si>
-    <t>Belt</t>
   </si>
   <si>
     <t>Rubber</t>
@@ -539,6 +530,57 @@
   </si>
   <si>
     <t>добавить аналог</t>
+  </si>
+  <si>
+    <t>Timing Belt 430mm</t>
+  </si>
+  <si>
+    <t>Cable Tie Plastic</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>6650T12</t>
+  </si>
+  <si>
+    <t>Stepper X Cable ( Control Cable 1850mm)</t>
+  </si>
+  <si>
+    <t>Stepper Y Cable ( Control Cable 2900mm)</t>
+  </si>
+  <si>
+    <t>7394K31</t>
+  </si>
+  <si>
+    <t>Power Cable ( Power Supply Cable 3200mm)</t>
+  </si>
+  <si>
+    <t>Data Cable ( Multiple Conductor Cable 1040mm)</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>T1430-153-ND</t>
+  </si>
+  <si>
+    <t>6650T14</t>
+  </si>
+  <si>
+    <t>FLTWC0311-26-9-ND</t>
+  </si>
+  <si>
+    <t>Hook-Up Wire ( Wire 5300mm)</t>
+  </si>
+  <si>
+    <t>3682N1-3682N13</t>
+  </si>
+  <si>
+    <t>7130K12</t>
+  </si>
+  <si>
+    <t>найти инфу</t>
   </si>
 </sst>
 </file>
@@ -653,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1178,6 +1220,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1188,7 +1289,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1703,6 +1804,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1715,10 +1855,31 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,52 +1891,79 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2005,7 +2193,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BOM Report"/>
@@ -2351,11 +2539,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T290"/>
+  <dimension ref="A1:T291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2367,7 +2555,7 @@
     <col min="5" max="5" width="0.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="73.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
@@ -2404,7 +2592,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>15</v>
@@ -2427,13 +2615,13 @@
         <v>6</v>
       </c>
       <c r="G3" s="163" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H3" s="162" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="163" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
@@ -2474,11 +2662,11 @@
       </c>
       <c r="G5" s="165" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1, FIND("]",CELL("filename"))-(FIND("[",CELL("filename"))+1))</f>
-        <v>CNC_BOM.xlsx</v>
+        <v>bom for cnc.xls</v>
       </c>
       <c r="H5" s="162"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="17"/>
@@ -2494,7 +2682,7 @@
       </c>
       <c r="G6" s="22">
         <f ca="1">TODAY()</f>
-        <v>44941</v>
+        <v>44998</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>5</v>
@@ -2515,10 +2703,10 @@
       <c r="C7" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="178"/>
+      <c r="E7" s="198"/>
       <c r="F7" s="156" t="s">
         <v>4</v>
       </c>
@@ -2541,7 +2729,7 @@
         <v>27</v>
       </c>
       <c r="M7" s="160" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>30</v>
@@ -2555,11 +2743,11 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="182" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="183">
+      <c r="D8" s="195">
         <v>2</v>
       </c>
       <c r="E8" s="29"/>
@@ -2589,9 +2777,9 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="181"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="184"/>
+      <c r="D9" s="200"/>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
@@ -2610,9 +2798,9 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="182"/>
+      <c r="B10" s="194"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="185"/>
+      <c r="D10" s="196"/>
       <c r="E10" s="104"/>
       <c r="F10" s="127"/>
       <c r="G10" s="127"/>
@@ -2631,13 +2819,13 @@
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="175">
+      <c r="D11" s="178">
         <v>1</v>
       </c>
       <c r="E11" s="103"/>
@@ -2661,19 +2849,19 @@
         <v>62.17</v>
       </c>
       <c r="M11" s="48">
-        <f t="shared" ref="M11:M38" si="0">L11*D11</f>
+        <f t="shared" ref="M11:M39" si="0">L11*D11</f>
         <v>62.17</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="176"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="104"/>
       <c r="F12" s="49"/>
       <c r="G12" s="50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -2684,11 +2872,11 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="182" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="183">
+      <c r="D13" s="195">
         <v>1</v>
       </c>
       <c r="E13" s="29"/>
@@ -2718,13 +2906,13 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="182"/>
+      <c r="B14" s="194"/>
       <c r="C14" s="53"/>
-      <c r="D14" s="185"/>
+      <c r="D14" s="196"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="58"/>
@@ -2735,11 +2923,11 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="188" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="190">
+      <c r="D15" s="192">
         <v>1</v>
       </c>
       <c r="E15" s="103"/>
@@ -2769,13 +2957,13 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="187"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="191"/>
+      <c r="D16" s="193"/>
       <c r="E16" s="104"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="51"/>
@@ -2933,7 +3121,7 @@
       <c r="E21" s="72"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H21" s="72" t="s">
         <v>34</v>
@@ -3059,7 +3247,7 @@
       <c r="O24" s="83"/>
       <c r="S24" s="167"/>
       <c r="T24" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3069,7 +3257,7 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="72"/>
       <c r="F25" s="73"/>
@@ -3093,529 +3281,544 @@
       </c>
       <c r="M25" s="75">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>630</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="88"/>
       <c r="Q25" s="89"/>
+      <c r="S25" s="169">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="87"/>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78">
-        <v>5</v>
-      </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80" t="s">
+      <c r="C26" s="61"/>
+      <c r="D26" s="174">
+        <v>12</v>
+      </c>
+      <c r="E26" s="174"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="204" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="K26" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="140">
-        <v>0.16</v>
-      </c>
-      <c r="M26" s="81">
+      <c r="I26" s="204" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="204" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="205" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="206">
+        <v>0.18</v>
+      </c>
+      <c r="M26" s="207">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>2.16</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="88"/>
       <c r="Q26" s="89"/>
-    </row>
-    <row r="27" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="87"/>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72">
-        <v>1</v>
-      </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="74" t="s">
+      <c r="C27" s="218"/>
+      <c r="D27" s="29">
+        <v>3</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="214" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="210" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="74" t="s">
+      <c r="J27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="82" t="s">
+      <c r="K27" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="138">
-        <v>1.34</v>
-      </c>
-      <c r="M27" s="75">
+      <c r="L27" s="31">
+        <v>3.98</v>
+      </c>
+      <c r="M27" s="33">
         <f t="shared" si="0"/>
-        <v>1.34</v>
+        <v>11.94</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="88"/>
       <c r="Q27" s="89"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
+      <c r="S27" s="169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="215" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="211" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="58"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="88"/>
+      <c r="Q28" s="89"/>
+      <c r="S28" s="169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78">
+      <c r="C29" s="65"/>
+      <c r="D29" s="93">
         <v>1</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="140">
+      <c r="E29" s="93"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="208" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="139">
         <v>0.12</v>
       </c>
-      <c r="M28" s="81">
+      <c r="M29" s="209">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72">
+      <c r="C30" s="71"/>
+      <c r="D30" s="72">
         <v>1</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="K29" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="138">
+      <c r="E30" s="72"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="138">
         <v>7.93</v>
       </c>
-      <c r="M29" s="75">
+      <c r="M30" s="75">
         <f t="shared" si="0"/>
         <v>7.93</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="76" t="s">
+    <row r="31" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="87"/>
+      <c r="B31" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78">
+      <c r="C31" s="77"/>
+      <c r="D31" s="78">
         <v>1</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="78" t="s">
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="80" t="s">
+      <c r="I31" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="80" t="s">
+      <c r="J31" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="85" t="s">
+      <c r="K31" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="140">
+      <c r="L31" s="140">
         <v>314</v>
       </c>
-      <c r="M30" s="81">
+      <c r="M31" s="81">
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="88"/>
-      <c r="Q30" s="89"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="N31" s="1"/>
+      <c r="O31" s="88"/>
+      <c r="Q31" s="89"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72">
+      <c r="C32" s="71"/>
+      <c r="D32" s="72">
         <v>2</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="72" t="s">
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="74" t="s">
+      <c r="I32" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="74" t="s">
+      <c r="J32" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="82" t="s">
+      <c r="K32" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="138">
+      <c r="L32" s="138">
         <v>5.1100000000000003</v>
       </c>
-      <c r="M31" s="75">
+      <c r="M32" s="75">
         <f t="shared" si="0"/>
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="76" t="s">
+    <row r="33" spans="1:18" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="90"/>
+      <c r="B33" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78">
+      <c r="C33" s="77"/>
+      <c r="D33" s="78">
         <v>1</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" s="78" t="s">
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="80" t="s">
+      <c r="I33" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="80" t="s">
+      <c r="J33" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="85" t="s">
+      <c r="K33" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="L32" s="140">
+      <c r="L33" s="140">
         <v>49</v>
       </c>
-      <c r="M32" s="81">
+      <c r="M33" s="81">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="O32" s="92"/>
-    </row>
-    <row r="33" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="70" t="s">
+      <c r="O33" s="92"/>
+    </row>
+    <row r="34" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="84"/>
+      <c r="B34" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72">
+      <c r="C34" s="71"/>
+      <c r="D34" s="72">
         <v>1</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" s="72" t="s">
+      <c r="E34" s="72"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="74" t="s">
+      <c r="I34" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="J33" s="74" t="s">
+      <c r="J34" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="K33" s="82" t="s">
+      <c r="K34" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="138">
+      <c r="L34" s="138">
         <v>10</v>
       </c>
-      <c r="M33" s="75">
+      <c r="M34" s="75">
         <f t="shared" si="0"/>
         <v>10</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="88"/>
-      <c r="Q33" s="89"/>
-    </row>
-    <row r="34" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78">
-        <v>4</v>
-      </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="K34" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="140">
-        <v>16</v>
-      </c>
-      <c r="M34" s="81">
-        <f t="shared" si="0"/>
-        <v>64</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="88"/>
       <c r="Q34" s="89"/>
     </row>
     <row r="35" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="70" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72">
-        <v>1</v>
-      </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="72" t="s">
+      <c r="C35" s="77"/>
+      <c r="D35" s="78">
+        <v>4</v>
+      </c>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="138">
-        <v>3.05</v>
-      </c>
-      <c r="M35" s="75">
+      <c r="I35" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="140">
+        <v>16</v>
+      </c>
+      <c r="M35" s="81">
         <f t="shared" si="0"/>
-        <v>3.05</v>
+        <v>64</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="88"/>
       <c r="Q35" s="89"/>
     </row>
     <row r="36" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="76" t="s">
+      <c r="A36" s="90"/>
+      <c r="B36" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78">
+      <c r="C36" s="71"/>
+      <c r="D36" s="72">
         <v>1</v>
       </c>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="78" t="s">
+      <c r="E36" s="72"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="140">
-        <v>2.29</v>
-      </c>
-      <c r="M36" s="81">
+      <c r="I36" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="138">
+        <v>3.05</v>
+      </c>
+      <c r="M36" s="75">
         <f t="shared" si="0"/>
-        <v>2.29</v>
+        <v>3.05</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="88"/>
       <c r="Q36" s="89"/>
     </row>
     <row r="37" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87"/>
-      <c r="B37" s="70" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72">
+      <c r="C37" s="77"/>
+      <c r="D37" s="78">
         <v>1</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="72" t="s">
+      <c r="E37" s="78"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="K37" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="L37" s="138">
-        <v>1</v>
-      </c>
-      <c r="M37" s="75">
+      <c r="I37" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="140">
+        <v>2.29</v>
+      </c>
+      <c r="M37" s="81">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.29</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="88"/>
       <c r="Q37" s="89"/>
     </row>
-    <row r="38" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="186" t="s">
+    <row r="38" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="87"/>
+      <c r="B38" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="188" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="190">
+      <c r="C38" s="71"/>
+      <c r="D38" s="72">
         <v>1</v>
       </c>
-      <c r="E38" s="103"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="46" t="s">
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="K38" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="L38" s="135">
-        <v>11.5</v>
-      </c>
-      <c r="M38" s="48">
+      <c r="K38" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="L38" s="138">
+        <v>1</v>
+      </c>
+      <c r="M38" s="75">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="88"/>
       <c r="Q38" s="89"/>
     </row>
-    <row r="39" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="187"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="104"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="52"/>
+      <c r="B39" s="188" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="190" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="192">
+        <v>1</v>
+      </c>
+      <c r="E39" s="103"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="135">
+        <v>11.5</v>
+      </c>
+      <c r="M39" s="48">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
       <c r="N39" s="1"/>
       <c r="O39" s="88"/>
       <c r="Q39" s="89"/>
     </row>
-    <row r="40" spans="1:18" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="L40" s="151"/>
-      <c r="M40" s="150">
-        <f>SUM(M8:M39)</f>
-        <v>1425.3799999999999</v>
-      </c>
+      <c r="B40" s="189"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="104"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="52"/>
       <c r="N40" s="1"/>
       <c r="O40" s="88"/>
       <c r="Q40" s="89"/>
     </row>
-    <row r="41" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="107" t="s">
-        <v>50</v>
-      </c>
+      <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3624,890 +3827,938 @@
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="K41" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L41" s="151"/>
+      <c r="M41" s="150">
+        <f>SUM(M8:M40)</f>
+        <v>1752.3400000000001</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="88"/>
       <c r="Q41" s="89"/>
     </row>
-    <row r="42" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="194"/>
-      <c r="D42" s="192">
-        <v>1</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" s="31">
-        <v>20.9</v>
-      </c>
-      <c r="M42" s="33">
-        <f t="shared" ref="M42:M44" si="1">L42*D42</f>
-        <v>20.9</v>
-      </c>
+      <c r="B42" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="88"/>
       <c r="Q42" s="89"/>
-      <c r="R42" s="169"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="181"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="145"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="44"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="173"/>
-      <c r="D44" s="175">
+    </row>
+    <row r="43" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="182" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="180"/>
+      <c r="D43" s="176">
+        <v>1</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="31">
+        <v>20.9</v>
+      </c>
+      <c r="M43" s="33">
+        <f t="shared" ref="M43:M45" si="1">L43*D43</f>
+        <v>20.9</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="88"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="169"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="183"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="145"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="44"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="184" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="186"/>
+      <c r="D45" s="178">
         <v>2</v>
       </c>
-      <c r="E44" s="103"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="H44" s="103" t="s">
+      <c r="E45" s="103"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="I44" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="46" t="s">
+      <c r="I45" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K44" s="129" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="46">
+      <c r="K45" s="129" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="46">
         <v>5.49</v>
       </c>
-      <c r="M44" s="48">
+      <c r="M45" s="48">
         <f t="shared" si="1"/>
         <v>10.98</v>
       </c>
-      <c r="R44" s="167"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="172"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="131" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45" s="68"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="52"/>
-    </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K46" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="L46" s="149"/>
-      <c r="M46" s="150">
-        <f>SUM(M42:M45)</f>
+      <c r="R45" s="167"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="185"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="131" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="68"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="52"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L47" s="149"/>
+      <c r="M47" s="150">
+        <f>SUM(M43:M46)</f>
         <v>31.88</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="94" t="s">
+    <row r="48" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="96"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="70" t="s">
+      <c r="C48" s="94"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="96"/>
+    </row>
+    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="72">
+      <c r="C49" s="108"/>
+      <c r="D49" s="72">
         <v>1</v>
       </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109" t="s">
+      <c r="E49" s="72"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="110" t="s">
+      <c r="H49" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I48" s="109" t="s">
+      <c r="I49" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="J48" s="109" t="s">
+      <c r="J49" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="K48" s="111" t="s">
+      <c r="K49" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="L48" s="138">
+      <c r="L49" s="138">
         <v>0.23</v>
       </c>
-      <c r="M48" s="75">
-        <f t="shared" ref="M48:M69" si="2">L48*D48</f>
+      <c r="M49" s="75">
+        <f t="shared" ref="M49:M70" si="2">L49*D49</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="112" t="s">
+    <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="114">
+      <c r="C50" s="113"/>
+      <c r="D50" s="114">
         <v>56</v>
       </c>
-      <c r="E49" s="114"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115" t="s">
+      <c r="E50" s="114"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="116" t="s">
+      <c r="H50" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="115" t="s">
+      <c r="I50" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="J49" s="115" t="s">
-        <v>144</v>
-      </c>
-      <c r="K49" s="117" t="s">
+      <c r="J50" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="K50" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="L49" s="147">
+      <c r="L50" s="147">
         <v>0.4</v>
       </c>
-      <c r="M49" s="81">
+      <c r="M50" s="81">
         <f t="shared" si="2"/>
         <v>22.400000000000002</v>
       </c>
-      <c r="S49" s="167"/>
-    </row>
-    <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="70" t="s">
+      <c r="S50" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="108"/>
-      <c r="D50" s="72">
+      <c r="C51" s="108"/>
+      <c r="D51" s="72">
         <v>4</v>
       </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109" t="s">
+      <c r="E51" s="72"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="110" t="s">
+      <c r="H51" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="109" t="s">
+      <c r="I51" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="109" t="s">
+      <c r="J51" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="K50" s="111" t="s">
+      <c r="K51" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="L50" s="138">
+      <c r="L51" s="138">
         <v>5.27</v>
       </c>
-      <c r="M50" s="75">
+      <c r="M51" s="75">
         <f t="shared" si="2"/>
         <v>21.08</v>
       </c>
-      <c r="S50" s="167"/>
-    </row>
-    <row r="51" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="112" t="s">
+      <c r="S51" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114">
+      <c r="C52" s="113"/>
+      <c r="D52" s="114">
         <v>20</v>
       </c>
-      <c r="E51" s="114"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115" t="s">
+      <c r="E52" s="114"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="116" t="s">
+      <c r="H52" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="K51" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="147">
+      <c r="I52" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" s="147">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M51" s="81">
+      <c r="M52" s="81">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S51" s="167"/>
-    </row>
-    <row r="52" spans="2:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="B52" s="98" t="s">
+      <c r="S52" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="29">
+      <c r="C53" s="99"/>
+      <c r="D53" s="29">
         <v>6</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100" t="s">
+      <c r="E53" s="29"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="101" t="s">
+      <c r="H53" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="100" t="s">
+      <c r="I53" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="100" t="s">
+      <c r="J53" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="K52" s="102" t="s">
+      <c r="K53" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="L52" s="133">
+      <c r="L53" s="133">
         <v>3.63</v>
       </c>
-      <c r="M52" s="33">
+      <c r="M53" s="33">
         <f t="shared" si="2"/>
         <v>21.78</v>
       </c>
     </row>
-    <row r="53" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="118"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="120" t="s">
+    <row r="54" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="118"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="K53" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="L53" s="137"/>
-      <c r="M53" s="60"/>
-    </row>
-    <row r="54" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="112" t="s">
+      <c r="K54" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="137"/>
+      <c r="M54" s="60"/>
+    </row>
+    <row r="55" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="113"/>
-      <c r="D54" s="114">
+      <c r="C55" s="113"/>
+      <c r="D55" s="114">
         <v>4</v>
       </c>
-      <c r="E54" s="114"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115" t="s">
+      <c r="E55" s="114"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="H54" s="116" t="s">
+      <c r="H55" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="I54" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="115" t="s">
+      <c r="I55" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="K54" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L54" s="147">
+      <c r="K55" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="147">
         <v>0.73</v>
       </c>
-      <c r="M54" s="81">
+      <c r="M55" s="81">
         <f t="shared" si="2"/>
         <v>2.92</v>
       </c>
     </row>
-    <row r="55" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="70" t="s">
+    <row r="56" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="108"/>
-      <c r="D55" s="72">
+      <c r="C56" s="108"/>
+      <c r="D56" s="72">
         <v>1</v>
       </c>
-      <c r="E55" s="72"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109" t="s">
+      <c r="E56" s="72"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="110" t="s">
+      <c r="H56" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="109" t="s">
+      <c r="I56" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="K55" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55" s="138">
+      <c r="K56" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="138">
         <v>3.1619999999999999</v>
       </c>
-      <c r="M55" s="75">
+      <c r="M56" s="75">
         <f t="shared" si="2"/>
         <v>3.1619999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="112" t="s">
+    <row r="57" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="113"/>
-      <c r="D56" s="114">
+      <c r="C57" s="113"/>
+      <c r="D57" s="114">
         <v>20</v>
       </c>
-      <c r="E56" s="114"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="H56" s="116" t="s">
+      <c r="E57" s="114"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="115" t="s">
+      <c r="I57" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="K56" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="147">
+      <c r="K57" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="147">
         <v>0.47</v>
       </c>
-      <c r="M56" s="81">
+      <c r="M57" s="81">
         <f t="shared" si="2"/>
         <v>9.3999999999999986</v>
       </c>
-      <c r="S56" s="167"/>
-    </row>
-    <row r="57" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="70" t="s">
+      <c r="S57" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="108"/>
-      <c r="D57" s="72">
+      <c r="C58" s="108"/>
+      <c r="D58" s="72">
         <v>4</v>
       </c>
-      <c r="E57" s="72"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109" t="s">
+      <c r="E58" s="72"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="110" t="s">
+      <c r="H58" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="I57" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="109" t="s">
+      <c r="I58" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="K57" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L57" s="138">
+      <c r="K58" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="138">
         <v>2.65</v>
       </c>
-      <c r="M57" s="75">
+      <c r="M58" s="75">
         <f t="shared" si="2"/>
         <v>10.6</v>
       </c>
     </row>
-    <row r="58" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="112" t="s">
+    <row r="59" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114">
+      <c r="C59" s="113"/>
+      <c r="D59" s="114">
         <v>16</v>
       </c>
-      <c r="E58" s="114"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115" t="s">
+      <c r="E59" s="114"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="116" t="s">
+      <c r="H59" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="K58" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" s="147">
+      <c r="I59" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="K59" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="147">
         <v>0.44</v>
       </c>
-      <c r="M58" s="81">
+      <c r="M59" s="81">
         <f t="shared" si="2"/>
         <v>7.04</v>
       </c>
-      <c r="S58" s="167"/>
-    </row>
-    <row r="59" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="70" t="s">
+      <c r="S59" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="108"/>
-      <c r="D59" s="72">
+      <c r="C60" s="108"/>
+      <c r="D60" s="72">
         <v>32</v>
       </c>
-      <c r="E59" s="72"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="H59" s="110" t="s">
+      <c r="E60" s="72"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="109" t="s">
+      <c r="I60" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="J59" s="109" t="s">
+      <c r="J60" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="K59" s="111" t="s">
+      <c r="K60" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="L59" s="138">
+      <c r="L60" s="138">
         <v>2.08</v>
       </c>
-      <c r="M59" s="75">
+      <c r="M60" s="75">
         <f t="shared" si="2"/>
         <v>66.56</v>
       </c>
-      <c r="S59" s="167"/>
-      <c r="T59" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="113"/>
-      <c r="D60" s="114">
-        <v>4</v>
-      </c>
-      <c r="E60" s="114"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="I60" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="K60" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L60" s="147">
-        <v>0.12</v>
-      </c>
-      <c r="M60" s="81">
-        <f t="shared" si="2"/>
-        <v>0.48</v>
-      </c>
       <c r="S60" s="167"/>
-    </row>
-    <row r="61" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T60" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="112" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="113"/>
       <c r="D61" s="114">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E61" s="114"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="H61" s="116"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="147"/>
-      <c r="M61" s="81"/>
-      <c r="S61" s="170"/>
-    </row>
-    <row r="62" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="147">
+        <v>0.12</v>
+      </c>
+      <c r="M61" s="207">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="S61" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="108"/>
-      <c r="D62" s="72">
+      <c r="C62" s="222"/>
+      <c r="D62" s="78">
         <v>14</v>
       </c>
-      <c r="E62" s="72"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="109" t="s">
-        <v>135</v>
-      </c>
-      <c r="H62" s="110" t="s">
+      <c r="E62" s="78"/>
+      <c r="F62" s="223"/>
+      <c r="G62" s="223" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" s="224"/>
+      <c r="I62" s="223"/>
+      <c r="J62" s="223"/>
+      <c r="K62" s="168"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="81"/>
+      <c r="S62" s="170"/>
+      <c r="T62" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="108"/>
+      <c r="D63" s="72">
+        <v>14</v>
+      </c>
+      <c r="E63" s="72"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="H63" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="109" t="s">
+      <c r="I63" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="K62" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L62" s="138">
+      <c r="K63" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="138">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M62" s="75">
+      <c r="M63" s="75">
         <f t="shared" si="2"/>
         <v>16.239999999999998</v>
       </c>
-      <c r="S62" s="167"/>
-    </row>
-    <row r="63" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="112" t="s">
+      <c r="S63" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="114">
-        <v>10</v>
-      </c>
-      <c r="E63" s="114"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="H63" s="116" t="s">
+      <c r="C64" s="113"/>
+      <c r="D64" s="114">
+        <v>8</v>
+      </c>
+      <c r="E64" s="114"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="H64" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="I63" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="115" t="s">
-        <v>138</v>
-      </c>
-      <c r="K63" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L63" s="147">
+      <c r="I64" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="K64" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="147">
         <v>2.09</v>
       </c>
-      <c r="M63" s="81">
+      <c r="M64" s="81">
         <f t="shared" si="2"/>
-        <v>20.9</v>
-      </c>
-      <c r="S63" s="167"/>
-    </row>
-    <row r="64" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="70" t="s">
+        <v>16.72</v>
+      </c>
+      <c r="S64" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="108"/>
-      <c r="D64" s="72">
+      <c r="C65" s="108"/>
+      <c r="D65" s="72">
         <v>4</v>
       </c>
-      <c r="E64" s="72"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="109" t="s">
+      <c r="E65" s="72"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="110" t="s">
+      <c r="H65" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="I64" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="109" t="s">
+      <c r="I65" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="K64" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" s="138">
+      <c r="K65" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="138">
         <v>2.9</v>
       </c>
-      <c r="M64" s="75">
+      <c r="M65" s="75">
         <f t="shared" si="2"/>
         <v>11.6</v>
       </c>
-      <c r="S64" s="167"/>
-    </row>
-    <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="112" t="s">
+      <c r="S65" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="116"/>
-      <c r="D65" s="114">
+      <c r="C66" s="116"/>
+      <c r="D66" s="114">
         <v>16</v>
       </c>
-      <c r="E65" s="114"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122" t="s">
+      <c r="E66" s="114"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="H65" s="116" t="s">
+      <c r="H66" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="I65" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="122" t="s">
+      <c r="I66" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="K65" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L65" s="147">
+      <c r="K66" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L66" s="147">
         <v>0.6</v>
       </c>
-      <c r="M65" s="81">
+      <c r="M66" s="81">
         <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
-      <c r="S65" s="167"/>
-    </row>
-    <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="70" t="s">
+      <c r="S66" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="110"/>
-      <c r="D66" s="72">
+      <c r="C67" s="110"/>
+      <c r="D67" s="72">
         <v>12</v>
       </c>
-      <c r="E66" s="72"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="H66" s="110" t="s">
+      <c r="E67" s="72"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="I66" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="K66" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L66" s="138">
+      <c r="I67" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="K67" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" s="138">
         <v>6.53</v>
       </c>
-      <c r="M66" s="75">
+      <c r="M67" s="75">
         <f t="shared" si="2"/>
         <v>78.36</v>
       </c>
-      <c r="S66" s="167"/>
-    </row>
-    <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="112" t="s">
+      <c r="S67" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="116"/>
-      <c r="D67" s="114">
+      <c r="C68" s="116"/>
+      <c r="D68" s="114">
         <v>4</v>
       </c>
-      <c r="E67" s="114"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="122" t="s">
-        <v>141</v>
-      </c>
-      <c r="H67" s="116" t="s">
+      <c r="E68" s="114"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="I67" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J67" s="122" t="s">
-        <v>142</v>
-      </c>
-      <c r="K67" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L67" s="147">
+      <c r="I68" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="K68" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="147">
         <v>3.7</v>
       </c>
-      <c r="M67" s="81">
+      <c r="M68" s="81">
         <f t="shared" si="2"/>
         <v>14.8</v>
       </c>
-      <c r="S67" s="167"/>
-    </row>
-    <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="70" t="s">
+      <c r="S68" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="110"/>
-      <c r="D68" s="72">
+      <c r="C69" s="110"/>
+      <c r="D69" s="72">
         <v>4</v>
       </c>
-      <c r="E68" s="72"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74" t="s">
+      <c r="E69" s="72"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="H68" s="72" t="s">
+      <c r="H69" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="I68" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="74" t="s">
+      <c r="I69" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="K68" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" s="138">
+      <c r="K69" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="138">
         <v>1.27</v>
       </c>
-      <c r="M68" s="75">
+      <c r="M69" s="75">
         <f t="shared" si="2"/>
         <v>5.08</v>
       </c>
     </row>
-    <row r="69" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="64" t="s">
+    <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="123"/>
-      <c r="D69" s="93">
+      <c r="C70" s="123"/>
+      <c r="D70" s="93">
         <v>4</v>
       </c>
-      <c r="E69" s="93"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105" t="s">
+      <c r="E70" s="93"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="H69" s="93" t="s">
+      <c r="H70" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="I69" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="105" t="s">
+      <c r="I70" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="K69" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="L69" s="139">
+      <c r="K70" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" s="139">
         <v>2.86</v>
       </c>
-      <c r="M69" s="81">
+      <c r="M70" s="81">
         <f t="shared" si="2"/>
         <v>11.44</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="F70" s="1"/>
-      <c r="K70" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="L70" s="149"/>
-      <c r="M70" s="150">
-        <f>SUM(M48:M69)</f>
-        <v>355.67200000000003</v>
       </c>
     </row>
     <row r="71" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
+      <c r="F71" s="1"/>
+      <c r="K71" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="L71" s="149"/>
+      <c r="M71" s="150">
+        <f>SUM(M49:M70)</f>
+        <v>351.49200000000002</v>
+      </c>
     </row>
     <row r="72" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="K72" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="L72" s="149"/>
-      <c r="M72" s="150">
-        <f>M40+M46+M70</f>
-        <v>1812.932</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
+      <c r="K73" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="L73" s="149"/>
+      <c r="M73" s="150">
+        <f>M41+M47+M71</f>
+        <v>2135.7120000000004</v>
+      </c>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
@@ -4521,83 +4772,271 @@
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
+    <row r="77" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="94" t="s">
+        <v>149</v>
+      </c>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="108"/>
+      <c r="D78" s="72">
+        <v>1</v>
+      </c>
+      <c r="E78" s="72"/>
+      <c r="F78" s="109"/>
+      <c r="G78" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="K78" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" s="138">
+        <v>50</v>
+      </c>
+      <c r="M78" s="75">
+        <f t="shared" ref="M78" si="3">L78*D78</f>
+        <v>50</v>
+      </c>
+      <c r="S78" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="108"/>
+      <c r="D79" s="72">
+        <v>1</v>
+      </c>
+      <c r="E79" s="72"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="K79" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" s="138">
+        <v>50</v>
+      </c>
+      <c r="M79" s="75">
+        <f t="shared" ref="M79" si="4">L79*D79</f>
+        <v>50</v>
+      </c>
+      <c r="S79" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="175"/>
+      <c r="D80" s="172">
+        <v>1</v>
+      </c>
+      <c r="E80" s="172"/>
+      <c r="F80" s="201"/>
+      <c r="G80" s="201" t="s">
+        <v>154</v>
+      </c>
+      <c r="H80" s="172" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" s="201" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="201" t="s">
+        <v>153</v>
+      </c>
+      <c r="K80" s="213" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="202">
+        <v>50</v>
+      </c>
+      <c r="M80" s="203">
+        <f t="shared" ref="M80" si="5">L80*D80</f>
+        <v>50</v>
+      </c>
+      <c r="S80" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B81" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="99"/>
+      <c r="D81" s="29">
+        <v>1</v>
+      </c>
+      <c r="E81" s="29"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="J81" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="K81" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="L81" s="31">
+        <v>50</v>
+      </c>
+      <c r="M81" s="33">
+        <f t="shared" ref="M81" si="6">L81*D81</f>
+        <v>50</v>
+      </c>
+      <c r="S81" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="118"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="120"/>
+      <c r="G82" s="120" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="K82" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" s="58"/>
+      <c r="M82" s="60">
+        <f t="shared" ref="M82:M83" si="7">L82*D82</f>
+        <v>0</v>
+      </c>
+      <c r="S82" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="108"/>
+      <c r="D83" s="72">
+        <v>1</v>
+      </c>
+      <c r="E83" s="72"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="H83" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="J83" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="K83" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="L83" s="74">
+        <v>50</v>
+      </c>
+      <c r="M83" s="75">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="S83" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
     </row>
@@ -5377,21 +5816,12 @@
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
     </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -5399,32 +5829,45 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K48" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
-    <hyperlink ref="K49" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
-    <hyperlink ref="K50" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
-    <hyperlink ref="K51" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
-    <hyperlink ref="K53" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
-    <hyperlink ref="K52" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
-    <hyperlink ref="K54" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
-    <hyperlink ref="K55" r:id="rId9" xr:uid="{46A6ACDD-5760-4F58-85A8-0C3C5823AC23}"/>
-    <hyperlink ref="K56" r:id="rId10" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
-    <hyperlink ref="K57" r:id="rId11" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
-    <hyperlink ref="K58" r:id="rId12" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
-    <hyperlink ref="K60" r:id="rId13" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
-    <hyperlink ref="K62" r:id="rId14" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
-    <hyperlink ref="K63" r:id="rId15" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
-    <hyperlink ref="K64" r:id="rId16" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
-    <hyperlink ref="K65" r:id="rId17" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
-    <hyperlink ref="K66" r:id="rId18" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
-    <hyperlink ref="K67" r:id="rId19" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
-    <hyperlink ref="K68" r:id="rId20" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
-    <hyperlink ref="K69" r:id="rId21" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
-    <hyperlink ref="K42" r:id="rId22" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
-    <hyperlink ref="K44" r:id="rId23" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
+    <hyperlink ref="K49" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
+    <hyperlink ref="K50" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
+    <hyperlink ref="K51" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
+    <hyperlink ref="K52" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
+    <hyperlink ref="K54" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
+    <hyperlink ref="K53" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
+    <hyperlink ref="K55" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
+    <hyperlink ref="K56" r:id="rId9" xr:uid="{46A6ACDD-5760-4F58-85A8-0C3C5823AC23}"/>
+    <hyperlink ref="K57" r:id="rId10" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
+    <hyperlink ref="K58" r:id="rId11" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
+    <hyperlink ref="K59" r:id="rId12" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
+    <hyperlink ref="K61" r:id="rId13" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
+    <hyperlink ref="K63" r:id="rId14" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
+    <hyperlink ref="K64" r:id="rId15" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
+    <hyperlink ref="K65" r:id="rId16" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
+    <hyperlink ref="K66" r:id="rId17" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
+    <hyperlink ref="K67" r:id="rId18" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
+    <hyperlink ref="K68" r:id="rId19" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
+    <hyperlink ref="K69" r:id="rId20" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
+    <hyperlink ref="K70" r:id="rId21" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
+    <hyperlink ref="K43" r:id="rId22" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
+    <hyperlink ref="K45" r:id="rId23" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
     <hyperlink ref="K8" r:id="rId24" xr:uid="{7B631EFD-FBB0-414A-ABB9-E4EF1004CB36}"/>
     <hyperlink ref="K9" r:id="rId25" xr:uid="{E26C9157-F701-4202-8C8A-2A5490BB2432}"/>
     <hyperlink ref="K10" r:id="rId26" xr:uid="{00C96614-58EA-43CF-95C1-B83D2DBFA964}"/>
@@ -5442,33 +5885,40 @@
     <hyperlink ref="K25" r:id="rId38" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
     <hyperlink ref="K26" r:id="rId39" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
     <hyperlink ref="K27" r:id="rId40" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
-    <hyperlink ref="K28" r:id="rId41" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
-    <hyperlink ref="K29" r:id="rId42" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
-    <hyperlink ref="K30" r:id="rId43" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
-    <hyperlink ref="K31" r:id="rId44" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
-    <hyperlink ref="K32" r:id="rId45" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
-    <hyperlink ref="K33" r:id="rId46" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
-    <hyperlink ref="K34" r:id="rId47" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
-    <hyperlink ref="K37" r:id="rId48" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
-    <hyperlink ref="K38" r:id="rId49" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
-    <hyperlink ref="K35" r:id="rId50" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
-    <hyperlink ref="K36" r:id="rId51" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
-    <hyperlink ref="K59" r:id="rId52" xr:uid="{B270F44D-5DCA-4473-A1B5-4E0C4CABA102}"/>
+    <hyperlink ref="K29" r:id="rId41" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
+    <hyperlink ref="K30" r:id="rId42" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
+    <hyperlink ref="K31" r:id="rId43" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
+    <hyperlink ref="K32" r:id="rId44" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
+    <hyperlink ref="K33" r:id="rId45" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
+    <hyperlink ref="K34" r:id="rId46" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
+    <hyperlink ref="K35" r:id="rId47" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
+    <hyperlink ref="K38" r:id="rId48" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
+    <hyperlink ref="K39" r:id="rId49" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
+    <hyperlink ref="K36" r:id="rId50" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
+    <hyperlink ref="K37" r:id="rId51" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
+    <hyperlink ref="K60" r:id="rId52" xr:uid="{B270F44D-5DCA-4473-A1B5-4E0C4CABA102}"/>
+    <hyperlink ref="K78" r:id="rId53" xr:uid="{6378F978-E6E0-4D99-BBC2-0965287F858B}"/>
+    <hyperlink ref="K79" r:id="rId54" xr:uid="{843877E7-70BA-44E4-AE96-525FCD8022C5}"/>
+    <hyperlink ref="K80" r:id="rId55" xr:uid="{33C0E0FA-9E87-4BED-BA68-5C3503F7C6FD}"/>
+    <hyperlink ref="K81" r:id="rId56" xr:uid="{D6016C3F-255A-400C-AD59-5D277E5DFF38}"/>
+    <hyperlink ref="K82" r:id="rId57" xr:uid="{24D23601-704A-49AD-8C06-8EC8857B8841}"/>
+    <hyperlink ref="K83" r:id="rId58" xr:uid="{E2598E4E-BD4E-49AA-B4A5-C6E3BC5B2280}"/>
+    <hyperlink ref="K28" r:id="rId59" xr:uid="{0029815D-CA13-4ED4-B203-76A4C7ADDBEE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.16" bottom="0.25" header="0.11" footer="7.0000000000000007E-2"/>
-  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId53"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId60"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;R&amp;D  &amp;T</oddFooter>
   </headerFooter>
-  <drawing r:id="rId54"/>
-  <legacyDrawing r:id="rId55"/>
+  <drawing r:id="rId61"/>
+  <legacyDrawing r:id="rId62"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId56" name="AltiumMatBut">
+            <control shapeId="1030" r:id="rId63" name="AltiumMatBut">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMatStart.AltiumMatStart">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -5490,7 +5940,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId57" name="Button 7">
+            <control shapeId="1031" r:id="rId64" name="Button 7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMan1ShowHide1" altText="Show/Hide ">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>

--- a/Drawings/CNC_BOM.xlsx
+++ b/Drawings/CNC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\LaserCNCMachine\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0CF557-9C32-4375-B54B-8624BEF5D5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3587DF6A-08C1-40B1-816B-FF54FE59F9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'arrangement-mat'!$7:$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="161">
   <si>
     <t>File</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Part Number</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Vladimir Tyrkin</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Washer DIN 125 - A 5.3</t>
   </si>
   <si>
-    <t>ISO 4762 M4 x 20 - 20N</t>
-  </si>
-  <si>
     <t>M5x20 DIN 7991, ISO 10642</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>Limit Switch</t>
   </si>
   <si>
-    <t>DIN EN ISO 7045 - M3 x 10 - Z - 10N</t>
-  </si>
-  <si>
     <t>3D printed parts</t>
   </si>
   <si>
@@ -239,51 +230,9 @@
     <t>Zinc-Plated Steel</t>
   </si>
   <si>
-    <t>92005A120</t>
-  </si>
-  <si>
-    <t>ISO 7046-1 - M5 x 20 - Z - 20N</t>
-  </si>
-  <si>
-    <t>For DIN 965: 91420A328</t>
-  </si>
-  <si>
-    <t>Linear Motion Shaft</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>52100 Alloy Steel</t>
-  </si>
-  <si>
-    <t>5033N132</t>
-  </si>
-  <si>
-    <t>4920N11</t>
-  </si>
-  <si>
-    <t>Lead Screw</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>AISI 1020</t>
-  </si>
-  <si>
     <t>Polycarbonate (PC)</t>
   </si>
   <si>
-    <t>ThreadedRodMotor</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>94595A215</t>
-  </si>
-  <si>
     <t>031</t>
   </si>
   <si>
@@ -344,9 +293,6 @@
     <t>2GT 20Teeth Pulley</t>
   </si>
   <si>
-    <t>ER11 collet</t>
-  </si>
-  <si>
     <t>Pulley 20T W10 B5 With Teeth</t>
   </si>
   <si>
@@ -375,25 +321,6 @@
   </si>
   <si>
     <t>Brass</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> must be pair to item 2</t>
-    </r>
   </si>
   <si>
     <r>
@@ -523,15 +450,9 @@
     <t>T nut 2020 М5</t>
   </si>
   <si>
-    <t>написать сюда аналог!</t>
-  </si>
-  <si>
     <t>Corner Bracket 40х20L</t>
   </si>
   <si>
-    <t>добавить аналог</t>
-  </si>
-  <si>
     <t>Timing Belt 430mm</t>
   </si>
   <si>
@@ -580,7 +501,61 @@
     <t>7130K12</t>
   </si>
   <si>
-    <t>найти инфу</t>
+    <t>91502A103</t>
+  </si>
+  <si>
+    <t>Head screw ISO 7380 M5 x 8</t>
+  </si>
+  <si>
+    <t>Head screw ISO 7380 M3 x 16</t>
+  </si>
+  <si>
+    <t>Threaded Rod</t>
+  </si>
+  <si>
+    <t>CNC.02.25</t>
+  </si>
+  <si>
+    <t>Alloy Steel</t>
+  </si>
+  <si>
+    <t>94595A235</t>
+  </si>
+  <si>
+    <t>6153K15</t>
+  </si>
+  <si>
+    <t>Stainless Steel Ball Bearing 625-2Z (ISO 15 RBB - 025 - 8,DE,NC,8_68)</t>
+  </si>
+  <si>
+    <t>Flexible shaft coupling 5x5</t>
+  </si>
+  <si>
+    <t>Structural Aluminum Profile 2040</t>
+  </si>
+  <si>
+    <t>CNC.01.01</t>
+  </si>
+  <si>
+    <t>6063-T5</t>
+  </si>
+  <si>
+    <t>5537T111-5537T107</t>
+  </si>
+  <si>
+    <t>224SHX</t>
+  </si>
+  <si>
+    <t>Structural Aluminum Profile 2020</t>
+  </si>
+  <si>
+    <t>CNC.01.11</t>
+  </si>
+  <si>
+    <t>222SHX</t>
+  </si>
+  <si>
+    <t>5537T514-5537T751</t>
   </si>
 </sst>
 </file>
@@ -1797,13 +1772,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1817,81 +1788,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,6 +1861,87 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2539,11 +2516,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T291"/>
+  <dimension ref="A1:S293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2567,7 +2544,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2582,7 +2559,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -2592,20 +2569,20 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="16"/>
       <c r="C3" s="161"/>
@@ -2615,20 +2592,20 @@
         <v>6</v>
       </c>
       <c r="G3" s="163" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H3" s="162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="163" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="16"/>
       <c r="C4" s="161"/>
@@ -2638,20 +2615,20 @@
         <v>7</v>
       </c>
       <c r="G4" s="164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="162" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
       <c r="C5" s="161"/>
@@ -2665,13 +2642,13 @@
         <v>bom for cnc.xls</v>
       </c>
       <c r="H5" s="162"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -2695,18 +2672,18 @@
       <c r="L6" s="23"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="154" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="197" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="198"/>
+      <c r="E7" s="205"/>
       <c r="F7" s="156" t="s">
         <v>4</v>
       </c>
@@ -2714,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="155" t="s">
         <v>11</v>
@@ -2723,178 +2700,189 @@
         <v>12</v>
       </c>
       <c r="K7" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="152" t="s">
-        <v>27</v>
-      </c>
       <c r="M7" s="160" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="N7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="27" t="s">
-        <v>31</v>
-      </c>
       <c r="Q7" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="182" t="s">
-        <v>74</v>
+      <c r="B8" s="207" t="s">
+        <v>153</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="195">
-        <v>2</v>
+      <c r="D8" s="210">
+        <v>3</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="31" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="133">
-        <v>58.89</v>
+        <v>346</v>
       </c>
       <c r="M8" s="33">
         <f>L8*D8</f>
-        <v>117.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+        <v>1038</v>
+      </c>
+      <c r="S8" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="183"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="200"/>
+      <c r="D9" s="211"/>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L9" s="134"/>
       <c r="M9" s="41"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="194"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="196"/>
+      <c r="D10" s="212"/>
       <c r="E10" s="104"/>
       <c r="F10" s="127"/>
       <c r="G10" s="127"/>
       <c r="H10" s="127"/>
-      <c r="I10" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="141" t="s">
-        <v>46</v>
-      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="141"/>
       <c r="L10" s="137"/>
       <c r="M10" s="60"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="S10" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="184" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="178">
-        <v>1</v>
+      <c r="B11" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="200"/>
+      <c r="D11" s="202">
+        <v>2</v>
       </c>
       <c r="E11" s="103"/>
       <c r="F11" s="45"/>
       <c r="G11" s="46" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>46</v>
+        <v>160</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="L11" s="135">
-        <v>62.17</v>
+        <v>169</v>
       </c>
       <c r="M11" s="48">
-        <f t="shared" ref="M11:M39" si="0">L11*D11</f>
-        <v>62.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M11:M40" si="0">L11*D11</f>
+        <v>338</v>
+      </c>
+      <c r="S11" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="179"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="203"/>
       <c r="E12" s="104"/>
       <c r="F12" s="49"/>
-      <c r="G12" s="50" t="s">
-        <v>116</v>
-      </c>
+      <c r="G12" s="50"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>42</v>
+      </c>
       <c r="L12" s="136"/>
       <c r="M12" s="52"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="S12" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="182" t="s">
-        <v>18</v>
+      <c r="B13" s="207" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="195">
+      <c r="D13" s="210">
         <v>1</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="133">
         <v>37.880000000000003</v>
@@ -2904,15 +2892,15 @@
         <v>37.880000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="194"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="53"/>
-      <c r="D14" s="196"/>
+      <c r="D14" s="212"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="56" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="58"/>
@@ -2921,31 +2909,31 @@
       <c r="L14" s="137"/>
       <c r="M14" s="60"/>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="188" t="s">
-        <v>19</v>
+      <c r="B15" s="213" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="192">
+      <c r="D15" s="217">
         <v>1</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="62"/>
       <c r="G15" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="103" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L15" s="135">
         <v>120.14</v>
@@ -2955,15 +2943,15 @@
         <v>120.14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="189"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="193"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="104"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="51"/>
@@ -2972,44 +2960,47 @@
       <c r="L16" s="136"/>
       <c r="M16" s="52"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="70" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="I17" s="74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="74" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="K17" s="106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="138">
-        <v>4.7</v>
+        <v>2.16</v>
       </c>
       <c r="M17" s="75">
         <f t="shared" si="0"/>
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8.64</v>
+      </c>
+      <c r="S17" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="76" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="78">
@@ -3018,19 +3009,19 @@
       <c r="E18" s="78"/>
       <c r="F18" s="79"/>
       <c r="G18" s="80" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H18" s="78" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I18" s="80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="80" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="K18" s="142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L18" s="140">
         <v>4.5</v>
@@ -3040,10 +3031,10 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="70" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="72">
@@ -3052,19 +3043,19 @@
       <c r="E19" s="72"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J19" s="74" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L19" s="138">
         <v>0.48</v>
@@ -3075,10 +3066,10 @@
       </c>
       <c r="O19" s="83"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="78">
@@ -3087,19 +3078,19 @@
       <c r="E20" s="78"/>
       <c r="F20" s="79"/>
       <c r="G20" s="80" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H20" s="78" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I20" s="80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="80" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K20" s="142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L20" s="140">
         <v>2.19</v>
@@ -3109,45 +3100,47 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21" s="74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21" s="106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L21" s="138">
         <v>49</v>
       </c>
       <c r="M21" s="75">
         <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="S21" s="167"/>
-    </row>
-    <row r="22" spans="1:20" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="S21" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
       <c r="B22" s="76" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="78">
@@ -3156,19 +3149,19 @@
       <c r="E22" s="78"/>
       <c r="F22" s="79"/>
       <c r="G22" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22" s="78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K22" s="85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L22" s="140">
         <v>25</v>
@@ -3178,10 +3171,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
       <c r="B23" s="70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="72">
@@ -3190,19 +3183,19 @@
       <c r="E23" s="72"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H23" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" s="74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J23" s="74" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L23" s="138">
         <v>37</v>
@@ -3212,9 +3205,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="78">
@@ -3223,19 +3216,19 @@
       <c r="E24" s="78"/>
       <c r="F24" s="79"/>
       <c r="G24" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="80" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J24" s="80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="L24" s="140">
         <v>1.6</v>
@@ -3245,605 +3238,616 @@
         <v>6.4</v>
       </c>
       <c r="O24" s="83"/>
-      <c r="S24" s="167"/>
-      <c r="T24" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
-      <c r="B25" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72">
+      <c r="S24" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="140"/>
+      <c r="M25" s="81"/>
+      <c r="O25" s="224"/>
+      <c r="S25" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="87"/>
+      <c r="B26" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72">
         <v>2</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="138">
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="138">
         <v>315</v>
       </c>
-      <c r="M25" s="75">
+      <c r="M26" s="75">
         <f t="shared" si="0"/>
         <v>630</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="88"/>
-      <c r="Q25" s="89"/>
-      <c r="S25" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="173" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="174">
-        <v>12</v>
-      </c>
-      <c r="E26" s="174"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="204" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="174" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" s="204" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="204" t="s">
-        <v>162</v>
-      </c>
-      <c r="K26" s="205" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="206">
-        <v>0.18</v>
-      </c>
-      <c r="M26" s="207">
-        <f t="shared" si="0"/>
-        <v>2.16</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="88"/>
       <c r="Q26" s="89"/>
-      <c r="S26" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="S26" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
-      <c r="B27" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="218"/>
-      <c r="D27" s="29">
-        <v>3</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="214" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="210" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="212" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="31">
-        <v>3.98</v>
-      </c>
-      <c r="M27" s="33">
+      <c r="B27" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="172">
+        <v>12</v>
+      </c>
+      <c r="E27" s="172"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="172" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="177" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="177" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="178" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="179">
+        <v>0.18</v>
+      </c>
+      <c r="M27" s="180">
         <f t="shared" si="0"/>
-        <v>11.94</v>
+        <v>2.16</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="88"/>
       <c r="Q27" s="89"/>
-      <c r="S27" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="87"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="215" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="211" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="K28" s="141" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="60"/>
+      <c r="B28" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="191"/>
+      <c r="D28" s="29">
+        <v>3</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="187" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="183" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="185" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="31">
+        <v>3.98</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="0"/>
+        <v>11.94</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="88"/>
       <c r="Q28" s="89"/>
-      <c r="S28" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="93">
-        <v>1</v>
-      </c>
-      <c r="E29" s="93"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="105" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="208" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="139">
+      <c r="S28" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="188" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="184" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="58"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="88"/>
+      <c r="Q29" s="89"/>
+      <c r="S29" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="93">
+        <v>1</v>
+      </c>
+      <c r="E30" s="93"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="181" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="139">
         <v>0.12</v>
       </c>
-      <c r="M29" s="209">
+      <c r="M30" s="182">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72">
-        <v>1</v>
-      </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="K30" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="138">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72">
+        <v>1</v>
+      </c>
+      <c r="E31" s="72"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="138">
         <v>7.93</v>
       </c>
-      <c r="M30" s="75">
+      <c r="M31" s="75">
         <f t="shared" si="0"/>
         <v>7.93</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78">
-        <v>1</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="140">
+    <row r="32" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="87"/>
+      <c r="B32" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78">
+        <v>1</v>
+      </c>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="140">
         <v>314</v>
       </c>
-      <c r="M31" s="81">
+      <c r="M32" s="81">
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="88"/>
-      <c r="Q31" s="89"/>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72">
+      <c r="N32" s="1"/>
+      <c r="O32" s="88"/>
+      <c r="Q32" s="89"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72">
         <v>2</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="138">
+      <c r="E33" s="72"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="138">
         <v>5.1100000000000003</v>
       </c>
-      <c r="M32" s="75">
+      <c r="M33" s="75">
         <f t="shared" si="0"/>
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
-      <c r="B33" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78">
-        <v>1</v>
-      </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="140">
-        <v>49</v>
-      </c>
-      <c r="M33" s="81">
+    <row r="34" spans="1:19" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="90"/>
+      <c r="B34" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78">
+        <v>1</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="140">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="M34" s="81">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="O33" s="92"/>
-    </row>
-    <row r="34" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72">
-        <v>1</v>
-      </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="K34" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="138">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="O34" s="92"/>
+      <c r="S34" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="84"/>
+      <c r="B35" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72">
+        <v>1</v>
+      </c>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="138">
         <v>10</v>
       </c>
-      <c r="M34" s="75">
+      <c r="M35" s="75">
         <f t="shared" si="0"/>
         <v>10</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="88"/>
-      <c r="Q34" s="89"/>
-    </row>
-    <row r="35" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78">
-        <v>4</v>
-      </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="K35" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" s="140">
-        <v>16</v>
-      </c>
-      <c r="M35" s="81">
-        <f t="shared" si="0"/>
-        <v>64</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="88"/>
       <c r="Q35" s="89"/>
-    </row>
-    <row r="36" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72">
-        <v>1</v>
-      </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="138">
-        <v>3.05</v>
-      </c>
-      <c r="M36" s="75">
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78">
+        <v>4</v>
+      </c>
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="140">
+        <v>16</v>
+      </c>
+      <c r="M36" s="81">
         <f t="shared" si="0"/>
-        <v>3.05</v>
+        <v>64</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="88"/>
       <c r="Q36" s="89"/>
-    </row>
-    <row r="37" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78">
-        <v>1</v>
-      </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="K37" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="140">
-        <v>2.29</v>
-      </c>
-      <c r="M37" s="81">
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="90"/>
+      <c r="B37" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72">
+        <v>1</v>
+      </c>
+      <c r="E37" s="72"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="138">
+        <v>3.05</v>
+      </c>
+      <c r="M37" s="75">
         <f t="shared" si="0"/>
-        <v>2.29</v>
+        <v>3.05</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="88"/>
       <c r="Q37" s="89"/>
-    </row>
-    <row r="38" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72">
-        <v>1</v>
-      </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="J38" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="K38" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="L38" s="138">
-        <v>1</v>
-      </c>
-      <c r="M38" s="75">
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78">
+        <v>1</v>
+      </c>
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="K38" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="140">
+        <v>2.29</v>
+      </c>
+      <c r="M38" s="81">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.29</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="88"/>
       <c r="Q38" s="89"/>
-    </row>
-    <row r="39" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="188" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="190" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="192">
-        <v>1</v>
-      </c>
-      <c r="E39" s="103"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="J39" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="L39" s="135">
-        <v>11.5</v>
-      </c>
-      <c r="M39" s="48">
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="87"/>
+      <c r="B39" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72">
+        <v>1</v>
+      </c>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="J39" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" s="138">
+        <v>1</v>
+      </c>
+      <c r="M39" s="75">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="88"/>
       <c r="Q39" s="89"/>
-    </row>
-    <row r="40" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="189"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="193"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="52"/>
+      <c r="B40" s="213" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="215" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="217">
+        <v>1</v>
+      </c>
+      <c r="E40" s="103"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="135">
+        <v>11.5</v>
+      </c>
+      <c r="M40" s="48">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="88"/>
       <c r="Q40" s="89"/>
-    </row>
-    <row r="41" spans="1:18" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="L41" s="151"/>
-      <c r="M41" s="150">
-        <f>SUM(M8:M40)</f>
-        <v>1752.3400000000001</v>
-      </c>
+      <c r="B41" s="214"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="218"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="104"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="52"/>
       <c r="N41" s="1"/>
       <c r="O41" s="88"/>
       <c r="Q41" s="89"/>
-    </row>
-    <row r="42" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="107" t="s">
-        <v>50</v>
-      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3852,706 +3856,701 @@
       <c r="H42" s="3"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="K42" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" s="151"/>
+      <c r="M42" s="150">
+        <f>SUM(M8:M41)</f>
+        <v>3012.69</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="88"/>
       <c r="Q42" s="89"/>
-    </row>
-    <row r="43" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="182" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="180"/>
-      <c r="D43" s="176">
-        <v>1</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="31">
-        <v>20.9</v>
-      </c>
-      <c r="M43" s="33">
-        <f t="shared" ref="M43:M45" si="1">L43*D43</f>
-        <v>20.9</v>
-      </c>
+      <c r="B43" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="88"/>
       <c r="Q43" s="89"/>
-      <c r="R43" s="169"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="183"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="H44" s="145"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="44"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="184" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="186"/>
-      <c r="D45" s="178">
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="207" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="221"/>
+      <c r="D44" s="219">
+        <v>1</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="31">
+        <v>20.9</v>
+      </c>
+      <c r="M44" s="33">
+        <f t="shared" ref="M44:M46" si="1">L44*D44</f>
+        <v>20.9</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="88"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="168"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="208"/>
+      <c r="C45" s="222"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="145"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="44"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="198" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="200"/>
+      <c r="D46" s="202">
         <v>2</v>
       </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="129" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="46">
+      <c r="E46" s="103"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="46">
         <v>5.49</v>
       </c>
-      <c r="M45" s="48">
+      <c r="M46" s="48">
         <f t="shared" si="1"/>
         <v>10.98</v>
       </c>
-      <c r="R45" s="167"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="185"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="179"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="131" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="68"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="52"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K47" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="L47" s="149"/>
-      <c r="M47" s="150">
-        <f>SUM(M43:M46)</f>
+      <c r="R46" s="167"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="199"/>
+      <c r="C47" s="201"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="68"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="52"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" s="149"/>
+      <c r="M48" s="150">
+        <f>SUM(M44:M47)</f>
         <v>31.88</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="94" t="s">
+    <row r="49" spans="2:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="96"/>
-    </row>
-    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="70" t="s">
+      <c r="C49" s="94"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="96"/>
+    </row>
+    <row r="50" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="108"/>
+      <c r="D50" s="72">
+        <v>1</v>
+      </c>
+      <c r="E50" s="72"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="138">
+        <v>0.23</v>
+      </c>
+      <c r="M50" s="75">
+        <f t="shared" ref="M50:M72" si="2">L50*D50</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="113"/>
+      <c r="D51" s="114">
+        <v>56</v>
+      </c>
+      <c r="E51" s="114"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="108"/>
-      <c r="D49" s="72">
-        <v>1</v>
-      </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="L49" s="138">
-        <v>0.23</v>
-      </c>
-      <c r="M49" s="75">
-        <f t="shared" ref="M49:M70" si="2">L49*D49</f>
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="113"/>
-      <c r="D50" s="114">
-        <v>56</v>
-      </c>
-      <c r="E50" s="114"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="J50" s="115" t="s">
-        <v>141</v>
-      </c>
-      <c r="K50" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="L50" s="147">
+      <c r="H51" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="K51" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" s="147">
         <v>0.4</v>
       </c>
-      <c r="M50" s="81">
+      <c r="M51" s="81">
         <f t="shared" si="2"/>
         <v>22.400000000000002</v>
       </c>
-      <c r="S50" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="108"/>
-      <c r="D51" s="72">
+      <c r="S51" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="108"/>
+      <c r="D52" s="72">
         <v>4</v>
       </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="J51" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="K51" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="L51" s="138">
+      <c r="E52" s="72"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" s="138">
         <v>5.27</v>
       </c>
-      <c r="M51" s="75">
+      <c r="M52" s="75">
         <f t="shared" si="2"/>
         <v>21.08</v>
       </c>
-      <c r="S51" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="113"/>
-      <c r="D52" s="114">
+      <c r="S52" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="113"/>
+      <c r="D53" s="114">
         <v>20</v>
       </c>
-      <c r="E52" s="114"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="115" t="s">
-        <v>142</v>
-      </c>
-      <c r="K52" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L52" s="147">
+      <c r="E53" s="114"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="147">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M52" s="81">
+      <c r="M53" s="81">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S52" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="29">
+      <c r="S53" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B54" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="99"/>
+      <c r="D54" s="29">
         <v>6</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="J53" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="K53" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="L53" s="133">
+      <c r="E54" s="29"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" s="133">
         <v>3.63</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M54" s="33">
         <f t="shared" si="2"/>
         <v>21.78</v>
       </c>
     </row>
-    <row r="54" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="118"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="120" t="s">
+    <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="118"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="137"/>
+      <c r="M55" s="60"/>
+    </row>
+    <row r="56" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="113"/>
+      <c r="D56" s="114">
+        <v>4</v>
+      </c>
+      <c r="E56" s="114"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="K54" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="L54" s="137"/>
-      <c r="M54" s="60"/>
-    </row>
-    <row r="55" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="113"/>
-      <c r="D55" s="114">
-        <v>4</v>
-      </c>
-      <c r="E55" s="114"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="I55" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55" s="147">
+      <c r="H56" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" s="147">
         <v>0.73</v>
       </c>
-      <c r="M55" s="81">
+      <c r="M56" s="81">
         <f t="shared" si="2"/>
         <v>2.92</v>
       </c>
     </row>
-    <row r="56" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="108"/>
-      <c r="D56" s="72">
-        <v>1</v>
-      </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="H56" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="K56" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="138">
+    <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="108"/>
+      <c r="D57" s="72">
+        <v>1</v>
+      </c>
+      <c r="E57" s="72"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="138">
         <v>3.1619999999999999</v>
       </c>
-      <c r="M56" s="75">
+      <c r="M57" s="75">
         <f t="shared" si="2"/>
         <v>3.1619999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="113"/>
-      <c r="D57" s="114">
+    <row r="58" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="113"/>
+      <c r="D58" s="114">
         <v>20</v>
       </c>
-      <c r="E57" s="114"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115" t="s">
-        <v>140</v>
-      </c>
-      <c r="H57" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="I57" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="K57" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L57" s="147">
+      <c r="E58" s="114"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" s="147">
         <v>0.47</v>
       </c>
-      <c r="M57" s="81">
+      <c r="M58" s="180">
         <f t="shared" si="2"/>
         <v>9.3999999999999986</v>
       </c>
-      <c r="S57" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="108"/>
-      <c r="D58" s="72">
-        <v>4</v>
-      </c>
-      <c r="E58" s="72"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="I58" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="K58" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" s="138">
-        <v>2.65</v>
-      </c>
-      <c r="M58" s="75">
+      <c r="S58" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="99"/>
+      <c r="D59" s="29">
+        <v>24</v>
+      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="H59" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" s="31">
+        <v>2</v>
+      </c>
+      <c r="M59" s="33">
         <f t="shared" si="2"/>
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="114">
-        <v>16</v>
-      </c>
-      <c r="E59" s="114"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="I59" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="K59" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" s="147">
-        <v>0.44</v>
-      </c>
-      <c r="M59" s="81">
-        <f t="shared" si="2"/>
-        <v>7.04</v>
+        <v>48</v>
       </c>
       <c r="S59" s="167">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="108"/>
-      <c r="D60" s="72">
-        <v>32</v>
-      </c>
-      <c r="E60" s="72"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109" t="s">
-        <v>143</v>
-      </c>
-      <c r="H60" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="I60" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="J60" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="K60" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="L60" s="138">
-        <v>2.08</v>
-      </c>
-      <c r="M60" s="75">
-        <f t="shared" si="2"/>
-        <v>66.56</v>
-      </c>
-      <c r="S60" s="167"/>
-      <c r="T60" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="118"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" s="58"/>
+      <c r="M60" s="60"/>
+      <c r="S60" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="112" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C61" s="113"/>
       <c r="D61" s="114">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E61" s="114"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H61" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" s="147">
+        <v>0.44</v>
+      </c>
+      <c r="M61" s="182">
+        <f t="shared" si="2"/>
+        <v>7.04</v>
+      </c>
+      <c r="S61" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="108"/>
+      <c r="D62" s="72">
+        <v>32</v>
+      </c>
+      <c r="E62" s="72"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="I61" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="K61" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L61" s="147">
+      <c r="I62" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" s="138">
+        <v>2.08</v>
+      </c>
+      <c r="M62" s="75">
+        <f t="shared" si="2"/>
+        <v>66.56</v>
+      </c>
+      <c r="S62" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="113"/>
+      <c r="D63" s="114">
+        <v>4</v>
+      </c>
+      <c r="E63" s="114"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="147">
         <v>0.12</v>
       </c>
-      <c r="M61" s="207">
+      <c r="M63" s="180">
         <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
-      <c r="S61" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="222"/>
-      <c r="D62" s="78">
+      <c r="S63" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="195"/>
+      <c r="D64" s="78">
         <v>14</v>
       </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="223"/>
-      <c r="G62" s="223" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" s="224"/>
-      <c r="I62" s="223"/>
-      <c r="J62" s="223"/>
-      <c r="K62" s="168"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="81"/>
-      <c r="S62" s="170"/>
-      <c r="T62" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="108"/>
-      <c r="D63" s="72">
-        <v>14</v>
-      </c>
-      <c r="E63" s="72"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="H63" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="I63" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="K63" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L63" s="138">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M63" s="75">
-        <f t="shared" si="2"/>
-        <v>16.239999999999998</v>
-      </c>
-      <c r="S63" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="113"/>
-      <c r="D64" s="114">
-        <v>8</v>
-      </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="I64" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="115" t="s">
-        <v>135</v>
+      <c r="E64" s="78"/>
+      <c r="F64" s="196"/>
+      <c r="G64" s="196" t="s">
+        <v>114</v>
+      </c>
+      <c r="H64" s="197" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="196" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="196" t="s">
+        <v>142</v>
       </c>
       <c r="K64" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" s="147">
-        <v>2.09</v>
+        <v>27</v>
+      </c>
+      <c r="L64" s="140">
+        <v>0.8</v>
       </c>
       <c r="M64" s="81">
         <f t="shared" si="2"/>
-        <v>16.72</v>
-      </c>
-      <c r="S64" s="167">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="S64" s="223">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C65" s="108"/>
       <c r="D65" s="72">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E65" s="72"/>
       <c r="F65" s="109"/>
       <c r="G65" s="109" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="H65" s="110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I65" s="109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J65" s="109" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K65" s="111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L65" s="138">
-        <v>2.9</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M65" s="75">
         <f t="shared" si="2"/>
-        <v>11.6</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="S65" s="167">
         <v>1</v>
@@ -4559,35 +4558,35 @@
     </row>
     <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="116"/>
+        <v>50</v>
+      </c>
+      <c r="C66" s="113"/>
       <c r="D66" s="114">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E66" s="114"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122" t="s">
-        <v>67</v>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115" t="s">
+        <v>115</v>
       </c>
       <c r="H66" s="116" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I66" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="122" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="J66" s="115" t="s">
+        <v>116</v>
       </c>
       <c r="K66" s="117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L66" s="147">
-        <v>0.6</v>
+        <v>2.09</v>
       </c>
       <c r="M66" s="81">
         <f t="shared" si="2"/>
-        <v>9.6</v>
+        <v>16.72</v>
       </c>
       <c r="S66" s="167">
         <v>1</v>
@@ -4595,35 +4594,35 @@
     </row>
     <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="110"/>
+        <v>50</v>
+      </c>
+      <c r="C67" s="108"/>
       <c r="D67" s="72">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E67" s="72"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74" t="s">
-        <v>136</v>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109" t="s">
+        <v>34</v>
       </c>
       <c r="H67" s="110" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="I67" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J67" s="74" t="s">
-        <v>137</v>
+        <v>27</v>
+      </c>
+      <c r="J67" s="109" t="s">
+        <v>63</v>
       </c>
       <c r="K67" s="111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L67" s="138">
-        <v>6.53</v>
+        <v>2.9</v>
       </c>
       <c r="M67" s="75">
         <f t="shared" si="2"/>
-        <v>78.36</v>
+        <v>11.6</v>
       </c>
       <c r="S67" s="167">
         <v>1</v>
@@ -4631,35 +4630,35 @@
     </row>
     <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="112" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C68" s="116"/>
       <c r="D68" s="114">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E68" s="114"/>
       <c r="F68" s="122"/>
       <c r="G68" s="122" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="H68" s="116" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="I68" s="115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J68" s="122" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="K68" s="117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L68" s="147">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="M68" s="81">
         <f t="shared" si="2"/>
-        <v>14.8</v>
+        <v>9.6</v>
       </c>
       <c r="S68" s="167">
         <v>1</v>
@@ -4667,334 +4666,404 @@
     </row>
     <row r="69" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C69" s="110"/>
       <c r="D69" s="72">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E69" s="72"/>
       <c r="F69" s="74"/>
       <c r="G69" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" s="72" t="s">
-        <v>69</v>
+        <v>117</v>
+      </c>
+      <c r="H69" s="110" t="s">
+        <v>66</v>
       </c>
       <c r="I69" s="109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J69" s="74" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="K69" s="111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L69" s="138">
-        <v>1.27</v>
+        <v>6.53</v>
       </c>
       <c r="M69" s="75">
         <f t="shared" si="2"/>
-        <v>5.08</v>
+        <v>78.36</v>
+      </c>
+      <c r="S69" s="167">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="123"/>
-      <c r="D70" s="93">
+      <c r="B70" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="116"/>
+      <c r="D70" s="114">
         <v>4</v>
       </c>
-      <c r="E70" s="93"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="H70" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="I70" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="K70" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="L70" s="139">
-        <v>2.86</v>
+      <c r="E70" s="114"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="K70" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" s="147">
+        <v>3.7</v>
       </c>
       <c r="M70" s="81">
         <f t="shared" si="2"/>
-        <v>11.44</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="F71" s="1"/>
-      <c r="K71" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="L71" s="149"/>
-      <c r="M71" s="150">
-        <f>SUM(M49:M70)</f>
-        <v>351.49200000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+        <v>14.8</v>
+      </c>
+      <c r="S70" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="110"/>
+      <c r="D71" s="72">
+        <v>4</v>
+      </c>
+      <c r="E71" s="72"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="J71" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="K71" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" s="138">
+        <v>1</v>
+      </c>
+      <c r="M71" s="75">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S71" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="123"/>
+      <c r="D72" s="93">
+        <v>1</v>
+      </c>
+      <c r="E72" s="93"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="K72" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" s="139">
+        <v>5.6</v>
+      </c>
+      <c r="M72" s="81">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="S72" s="167">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
+      <c r="F73" s="1"/>
       <c r="K73" s="148" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="L73" s="149"/>
       <c r="M73" s="150">
-        <f>M41+M47+M71</f>
-        <v>2135.7120000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+        <f>SUM(M50:M72)</f>
+        <v>393.17200000000008</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
+      <c r="K75" s="148" t="s">
+        <v>102</v>
+      </c>
+      <c r="L75" s="149"/>
+      <c r="M75" s="150">
+        <f>M42+M48+M73</f>
+        <v>3437.7420000000002</v>
+      </c>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="94" t="s">
-        <v>149</v>
-      </c>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="108"/>
-      <c r="D78" s="72">
-        <v>1</v>
-      </c>
-      <c r="E78" s="72"/>
-      <c r="F78" s="109"/>
-      <c r="G78" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="H78" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I78" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J78" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="K78" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L78" s="138">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="M78" s="75">
-        <f t="shared" ref="M78" si="3">L78*D78</f>
+      <c r="C80" s="108"/>
+      <c r="D80" s="72">
+        <v>1</v>
+      </c>
+      <c r="E80" s="72"/>
+      <c r="F80" s="109"/>
+      <c r="G80" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="K80" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" s="138">
         <v>50</v>
       </c>
-      <c r="S78" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="108"/>
-      <c r="D79" s="72">
-        <v>1</v>
-      </c>
-      <c r="E79" s="72"/>
-      <c r="F79" s="109"/>
-      <c r="G79" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="H79" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I79" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="K79" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="L79" s="138">
+      <c r="M80" s="75">
+        <f t="shared" ref="M80" si="3">L80*D80</f>
         <v>50</v>
       </c>
-      <c r="M79" s="75">
-        <f t="shared" ref="M79" si="4">L79*D79</f>
+      <c r="S80" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="S79" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="171" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="175"/>
-      <c r="D80" s="172">
-        <v>1</v>
-      </c>
-      <c r="E80" s="172"/>
-      <c r="F80" s="201"/>
-      <c r="G80" s="201" t="s">
-        <v>154</v>
-      </c>
-      <c r="H80" s="172" t="s">
-        <v>24</v>
-      </c>
-      <c r="I80" s="201" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="201" t="s">
-        <v>153</v>
-      </c>
-      <c r="K80" s="213" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="202">
+      <c r="C81" s="108"/>
+      <c r="D81" s="72">
+        <v>1</v>
+      </c>
+      <c r="E81" s="72"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="K81" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L81" s="138">
         <v>50</v>
       </c>
-      <c r="M80" s="203">
-        <f t="shared" ref="M80" si="5">L80*D80</f>
+      <c r="M81" s="75">
+        <f t="shared" ref="M81" si="4">L81*D81</f>
         <v>50</v>
       </c>
-      <c r="S80" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B81" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="99"/>
-      <c r="D81" s="29">
-        <v>1</v>
-      </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="100"/>
-      <c r="G81" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="H81" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I81" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="J81" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="K81" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="L81" s="31">
+      <c r="S81" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="M81" s="33">
-        <f t="shared" ref="M81" si="6">L81*D81</f>
+      <c r="C82" s="173"/>
+      <c r="D82" s="170">
+        <v>1</v>
+      </c>
+      <c r="E82" s="170"/>
+      <c r="F82" s="174"/>
+      <c r="G82" s="174" t="s">
+        <v>133</v>
+      </c>
+      <c r="H82" s="170" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="174" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="K82" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" s="175">
         <v>50</v>
       </c>
-      <c r="S81" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="118"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="120"/>
-      <c r="G82" s="120" t="s">
-        <v>155</v>
-      </c>
-      <c r="H82" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="I82" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="J82" s="120" t="s">
-        <v>158</v>
-      </c>
-      <c r="K82" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="L82" s="58"/>
-      <c r="M82" s="60">
-        <f t="shared" ref="M82:M83" si="7">L82*D82</f>
+      <c r="M82" s="176">
+        <f t="shared" ref="M82" si="5">L82*D82</f>
+        <v>50</v>
+      </c>
+      <c r="S82" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B83" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="99"/>
+      <c r="D83" s="29">
+        <v>1</v>
+      </c>
+      <c r="E83" s="29"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="J83" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="K83" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="L83" s="31">
+        <v>50</v>
+      </c>
+      <c r="M83" s="33">
+        <f t="shared" ref="M83" si="6">L83*D83</f>
+        <v>50</v>
+      </c>
+      <c r="S83" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="118"/>
+      <c r="C84" s="119"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="120"/>
+      <c r="G84" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="H84" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="K84" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="L84" s="58"/>
+      <c r="M84" s="60">
+        <f t="shared" ref="M84:M85" si="7">L84*D84</f>
         <v>0</v>
       </c>
-      <c r="S82" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="108"/>
-      <c r="D83" s="72">
-        <v>1</v>
-      </c>
-      <c r="E83" s="72"/>
-      <c r="F83" s="109"/>
-      <c r="G83" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="H83" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="J83" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="K83" s="111" t="s">
-        <v>156</v>
-      </c>
-      <c r="L83" s="74">
+      <c r="S84" s="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="M83" s="75">
+      <c r="C85" s="108"/>
+      <c r="D85" s="72">
+        <v>1</v>
+      </c>
+      <c r="E85" s="72"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="J85" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="K85" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="L85" s="74">
+        <v>50</v>
+      </c>
+      <c r="M85" s="75">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="S83" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="S85" s="167">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
@@ -5820,8 +5889,29 @@
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
     </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -5829,96 +5919,86 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K49" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
-    <hyperlink ref="K50" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
-    <hyperlink ref="K51" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
-    <hyperlink ref="K52" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
-    <hyperlink ref="K54" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
-    <hyperlink ref="K53" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
-    <hyperlink ref="K55" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
-    <hyperlink ref="K56" r:id="rId9" xr:uid="{46A6ACDD-5760-4F58-85A8-0C3C5823AC23}"/>
-    <hyperlink ref="K57" r:id="rId10" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
-    <hyperlink ref="K58" r:id="rId11" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
-    <hyperlink ref="K59" r:id="rId12" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
-    <hyperlink ref="K61" r:id="rId13" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
-    <hyperlink ref="K63" r:id="rId14" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
-    <hyperlink ref="K64" r:id="rId15" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
-    <hyperlink ref="K65" r:id="rId16" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
-    <hyperlink ref="K66" r:id="rId17" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
-    <hyperlink ref="K67" r:id="rId18" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
-    <hyperlink ref="K68" r:id="rId19" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
-    <hyperlink ref="K69" r:id="rId20" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
-    <hyperlink ref="K70" r:id="rId21" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
-    <hyperlink ref="K43" r:id="rId22" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
-    <hyperlink ref="K45" r:id="rId23" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
+    <hyperlink ref="K50" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
+    <hyperlink ref="K51" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
+    <hyperlink ref="K52" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
+    <hyperlink ref="K53" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
+    <hyperlink ref="K55" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
+    <hyperlink ref="K54" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
+    <hyperlink ref="K56" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
+    <hyperlink ref="K57" r:id="rId9" xr:uid="{46A6ACDD-5760-4F58-85A8-0C3C5823AC23}"/>
+    <hyperlink ref="K58" r:id="rId10" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
+    <hyperlink ref="K59" r:id="rId11" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
+    <hyperlink ref="K61" r:id="rId12" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
+    <hyperlink ref="K63" r:id="rId13" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
+    <hyperlink ref="K65" r:id="rId14" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
+    <hyperlink ref="K66" r:id="rId15" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
+    <hyperlink ref="K67" r:id="rId16" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
+    <hyperlink ref="K68" r:id="rId17" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
+    <hyperlink ref="K69" r:id="rId18" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
+    <hyperlink ref="K70" r:id="rId19" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
+    <hyperlink ref="K71" r:id="rId20" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
+    <hyperlink ref="K72" r:id="rId21" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
+    <hyperlink ref="K44" r:id="rId22" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
+    <hyperlink ref="K46" r:id="rId23" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
     <hyperlink ref="K8" r:id="rId24" xr:uid="{7B631EFD-FBB0-414A-ABB9-E4EF1004CB36}"/>
     <hyperlink ref="K9" r:id="rId25" xr:uid="{E26C9157-F701-4202-8C8A-2A5490BB2432}"/>
-    <hyperlink ref="K10" r:id="rId26" xr:uid="{00C96614-58EA-43CF-95C1-B83D2DBFA964}"/>
-    <hyperlink ref="K11" r:id="rId27" xr:uid="{69041C88-AA34-4FA6-ADF0-D188106617E4}"/>
-    <hyperlink ref="K13" r:id="rId28" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
-    <hyperlink ref="K15" r:id="rId29" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
-    <hyperlink ref="K17" r:id="rId30" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
-    <hyperlink ref="K18" r:id="rId31" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
-    <hyperlink ref="K19" r:id="rId32" xr:uid="{8623CD09-3F1E-4EBC-A650-32779CBF8D38}"/>
-    <hyperlink ref="K20" r:id="rId33" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
-    <hyperlink ref="K21" r:id="rId34" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
-    <hyperlink ref="K22" r:id="rId35" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
-    <hyperlink ref="K23" r:id="rId36" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
-    <hyperlink ref="K24" r:id="rId37" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
-    <hyperlink ref="K25" r:id="rId38" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
-    <hyperlink ref="K26" r:id="rId39" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
-    <hyperlink ref="K27" r:id="rId40" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
-    <hyperlink ref="K29" r:id="rId41" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
-    <hyperlink ref="K30" r:id="rId42" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
-    <hyperlink ref="K31" r:id="rId43" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
-    <hyperlink ref="K32" r:id="rId44" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
-    <hyperlink ref="K33" r:id="rId45" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
-    <hyperlink ref="K34" r:id="rId46" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
-    <hyperlink ref="K35" r:id="rId47" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
-    <hyperlink ref="K38" r:id="rId48" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
-    <hyperlink ref="K39" r:id="rId49" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
-    <hyperlink ref="K36" r:id="rId50" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
-    <hyperlink ref="K37" r:id="rId51" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
-    <hyperlink ref="K60" r:id="rId52" xr:uid="{B270F44D-5DCA-4473-A1B5-4E0C4CABA102}"/>
-    <hyperlink ref="K78" r:id="rId53" xr:uid="{6378F978-E6E0-4D99-BBC2-0965287F858B}"/>
-    <hyperlink ref="K79" r:id="rId54" xr:uid="{843877E7-70BA-44E4-AE96-525FCD8022C5}"/>
-    <hyperlink ref="K80" r:id="rId55" xr:uid="{33C0E0FA-9E87-4BED-BA68-5C3503F7C6FD}"/>
-    <hyperlink ref="K81" r:id="rId56" xr:uid="{D6016C3F-255A-400C-AD59-5D277E5DFF38}"/>
-    <hyperlink ref="K82" r:id="rId57" xr:uid="{24D23601-704A-49AD-8C06-8EC8857B8841}"/>
-    <hyperlink ref="K83" r:id="rId58" xr:uid="{E2598E4E-BD4E-49AA-B4A5-C6E3BC5B2280}"/>
-    <hyperlink ref="K28" r:id="rId59" xr:uid="{0029815D-CA13-4ED4-B203-76A4C7ADDBEE}"/>
+    <hyperlink ref="K13" r:id="rId26" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
+    <hyperlink ref="K15" r:id="rId27" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
+    <hyperlink ref="K17" r:id="rId28" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
+    <hyperlink ref="K18" r:id="rId29" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
+    <hyperlink ref="K19" r:id="rId30" xr:uid="{8623CD09-3F1E-4EBC-A650-32779CBF8D38}"/>
+    <hyperlink ref="K20" r:id="rId31" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
+    <hyperlink ref="K21" r:id="rId32" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
+    <hyperlink ref="K22" r:id="rId33" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
+    <hyperlink ref="K23" r:id="rId34" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
+    <hyperlink ref="K24" r:id="rId35" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
+    <hyperlink ref="K26" r:id="rId36" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
+    <hyperlink ref="K27" r:id="rId37" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
+    <hyperlink ref="K28" r:id="rId38" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
+    <hyperlink ref="K30" r:id="rId39" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
+    <hyperlink ref="K31" r:id="rId40" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
+    <hyperlink ref="K32" r:id="rId41" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
+    <hyperlink ref="K33" r:id="rId42" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
+    <hyperlink ref="K34" r:id="rId43" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
+    <hyperlink ref="K35" r:id="rId44" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
+    <hyperlink ref="K36" r:id="rId45" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
+    <hyperlink ref="K39" r:id="rId46" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
+    <hyperlink ref="K40" r:id="rId47" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
+    <hyperlink ref="K37" r:id="rId48" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
+    <hyperlink ref="K38" r:id="rId49" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
+    <hyperlink ref="K62" r:id="rId50" xr:uid="{B270F44D-5DCA-4473-A1B5-4E0C4CABA102}"/>
+    <hyperlink ref="K80" r:id="rId51" xr:uid="{6378F978-E6E0-4D99-BBC2-0965287F858B}"/>
+    <hyperlink ref="K81" r:id="rId52" xr:uid="{843877E7-70BA-44E4-AE96-525FCD8022C5}"/>
+    <hyperlink ref="K82" r:id="rId53" xr:uid="{33C0E0FA-9E87-4BED-BA68-5C3503F7C6FD}"/>
+    <hyperlink ref="K83" r:id="rId54" xr:uid="{D6016C3F-255A-400C-AD59-5D277E5DFF38}"/>
+    <hyperlink ref="K84" r:id="rId55" xr:uid="{24D23601-704A-49AD-8C06-8EC8857B8841}"/>
+    <hyperlink ref="K85" r:id="rId56" xr:uid="{E2598E4E-BD4E-49AA-B4A5-C6E3BC5B2280}"/>
+    <hyperlink ref="K29" r:id="rId57" xr:uid="{0029815D-CA13-4ED4-B203-76A4C7ADDBEE}"/>
+    <hyperlink ref="K64" r:id="rId58" xr:uid="{8911087A-9DC1-421B-AA5D-F6CBE6E8A61D}"/>
+    <hyperlink ref="K60" r:id="rId59" xr:uid="{51A1AB4F-AD59-4C5E-81D7-E513117A837A}"/>
+    <hyperlink ref="K25" r:id="rId60" xr:uid="{99031EAA-9060-4C2A-AB60-9487EB9903ED}"/>
+    <hyperlink ref="K11" r:id="rId61" xr:uid="{723F9773-2E4B-47EB-9D74-49EF89E5DEB9}"/>
+    <hyperlink ref="K12" r:id="rId62" xr:uid="{AA3A3EFD-47BC-4616-87E2-13B2B92C9A86}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.16" bottom="0.25" header="0.11" footer="7.0000000000000007E-2"/>
-  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId60"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId63"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;R&amp;D  &amp;T</oddFooter>
   </headerFooter>
-  <drawing r:id="rId61"/>
-  <legacyDrawing r:id="rId62"/>
+  <drawing r:id="rId64"/>
+  <legacyDrawing r:id="rId65"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId63" name="AltiumMatBut">
+            <control shapeId="1030" r:id="rId66" name="AltiumMatBut">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMatStart.AltiumMatStart">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -5940,7 +6020,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId64" name="Button 7">
+            <control shapeId="1031" r:id="rId67" name="Button 7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMan1ShowHide1" altText="Show/Hide ">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>

--- a/Drawings/CNC_BOM.xlsx
+++ b/Drawings/CNC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\LaserCNCMachine\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3587DF6A-08C1-40B1-816B-FF54FE59F9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AAAA9F-A9C0-405A-9D72-C30730811373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'arrangement-mat'!$7:$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$75</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="169">
   <si>
     <t>File</t>
   </si>
@@ -80,30 +80,15 @@
     <t>Project Number</t>
   </si>
   <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dwg. </t>
   </si>
   <si>
-    <t>Stepper Base</t>
-  </si>
-  <si>
-    <t>Vertical Plate</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
     <t>Multimaterial</t>
   </si>
   <si>
-    <t>8574K281</t>
-  </si>
-  <si>
     <t>Manufacturer Link</t>
   </si>
   <si>
@@ -140,15 +125,6 @@
     <t>Washer DIN 125 - A 5.3</t>
   </si>
   <si>
-    <t>M5x20 DIN 7991, ISO 10642</t>
-  </si>
-  <si>
-    <t>SK8 SC8UU LINEAR RAIL ORIGINAL</t>
-  </si>
-  <si>
-    <t>Pillow Block</t>
-  </si>
-  <si>
     <t>AISI 304</t>
   </si>
   <si>
@@ -164,9 +140,6 @@
     <t>Aliexpress</t>
   </si>
   <si>
-    <t>081</t>
-  </si>
-  <si>
     <t>Limit Switch</t>
   </si>
   <si>
@@ -182,9 +155,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Self Tap. Cross recessed Screw 2.6x10mm</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -194,15 +164,6 @@
     <t>Low Profile Hex Screw M5x30</t>
   </si>
   <si>
-    <t>Rounded Head Thread-Forming Screw M3x20mm</t>
-  </si>
-  <si>
-    <t>99461A947</t>
-  </si>
-  <si>
-    <t>92125A214</t>
-  </si>
-  <si>
     <t>91292A121</t>
   </si>
   <si>
@@ -230,9 +191,6 @@
     <t>Zinc-Plated Steel</t>
   </si>
   <si>
-    <t>Polycarbonate (PC)</t>
-  </si>
-  <si>
     <t>031</t>
   </si>
   <si>
@@ -254,12 +212,6 @@
     <t>6063-T6</t>
   </si>
   <si>
-    <t>SensorMount</t>
-  </si>
-  <si>
-    <t>4630T135</t>
-  </si>
-  <si>
     <t>DIGIKEY</t>
   </si>
   <si>
@@ -272,12 +224,6 @@
     <t>Rubber</t>
   </si>
   <si>
-    <t>Heat shrink tube</t>
-  </si>
-  <si>
-    <t>7496K85</t>
-  </si>
-  <si>
     <t>Power cable 9Amp max.</t>
   </si>
   <si>
@@ -287,12 +233,6 @@
     <t>9700T61</t>
   </si>
   <si>
-    <t>DC 775 Motor</t>
-  </si>
-  <si>
-    <t>2GT 20Teeth Pulley</t>
-  </si>
-  <si>
     <t>Pulley 20T W10 B5 With Teeth</t>
   </si>
   <si>
@@ -308,9 +248,6 @@
     <t>Cable Bottom End Sensor (290mm)</t>
   </si>
   <si>
-    <t>3 CIRCUIT RECEPTACLE MOLEX</t>
-  </si>
-  <si>
     <t>MOUSER</t>
   </si>
   <si>
@@ -321,19 +258,6 @@
   </si>
   <si>
     <t>Brass</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Files:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drawings/parts for cnc.DWG   &amp;   Drawings/parts for cnc.CDR</t>
-    </r>
   </si>
   <si>
     <r>
@@ -556,6 +480,96 @@
   </si>
   <si>
     <t>5537T514-5537T751</t>
+  </si>
+  <si>
+    <t>Head screw ISO 7380 M5 x 6</t>
+  </si>
+  <si>
+    <t>Head screw ISO 7380 M5 x 35</t>
+  </si>
+  <si>
+    <t>GX16-4P cable female</t>
+  </si>
+  <si>
+    <t>Pulley GT2-12</t>
+  </si>
+  <si>
+    <t>Corner Bracket 20х20L</t>
+  </si>
+  <si>
+    <t>5537T935</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Anodized 6063 Aluminum</t>
+  </si>
+  <si>
+    <t>Head screw ISO 7380 M5 x 50</t>
+  </si>
+  <si>
+    <t>Corner For Sensor</t>
+  </si>
+  <si>
+    <t>CNC.01.31</t>
+  </si>
+  <si>
+    <t>6060 Alloy</t>
+  </si>
+  <si>
+    <t>5585N13-5585N117</t>
+  </si>
+  <si>
+    <t>LASER 5500mW</t>
+  </si>
+  <si>
+    <t>Rotary Shaft</t>
+  </si>
+  <si>
+    <t>CNC.02.11</t>
+  </si>
+  <si>
+    <t>AISI 1020</t>
+  </si>
+  <si>
+    <t>8920K18-8920K183</t>
+  </si>
+  <si>
+    <t>Frame Base Y</t>
+  </si>
+  <si>
+    <t>CNC.01.21</t>
+  </si>
+  <si>
+    <t>4630T124</t>
+  </si>
+  <si>
+    <t>Frame Base Mount Bracket Y With Hole</t>
+  </si>
+  <si>
+    <t>Frame Base Mount Bracket Y Without Hole</t>
+  </si>
+  <si>
+    <t>CNC.01.22-1</t>
+  </si>
+  <si>
+    <t>9146T14-9146T142</t>
+  </si>
+  <si>
+    <t>CNC.01.22-2</t>
+  </si>
+  <si>
+    <t>Square nut M5</t>
+  </si>
+  <si>
+    <t>A209</t>
+  </si>
+  <si>
+    <t>5537t161</t>
+  </si>
+  <si>
+    <t>Connector D-SUB 9 Male</t>
   </si>
 </sst>
 </file>
@@ -832,21 +846,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1252,6 +1251,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1264,7 +1274,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1339,7 +1349,7 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,19 +1358,19 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,28 +1394,28 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1417,7 +1427,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,95 +1439,74 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1561,22 +1550,22 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1585,26 +1574,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1622,7 +1611,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,16 +1635,16 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1667,73 +1656,73 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,7 +1734,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1772,16 +1761,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1793,10 +1779,10 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1805,144 +1791,218 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2516,11 +2576,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S293"/>
+  <dimension ref="A1:S295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2532,7 +2592,7 @@
     <col min="5" max="5" width="0.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="73.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
@@ -2541,7 +2601,9 @@
     <col min="14" max="14" width="6.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="1" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="5.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2569,7 +2631,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>14</v>
@@ -2585,20 +2647,20 @@
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="161"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="162" t="s">
+      <c r="F3" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="162" t="s">
+      <c r="G3" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="163" t="s">
-        <v>106</v>
+      <c r="I3" s="156" t="s">
+        <v>84</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
@@ -2608,16 +2670,16 @@
     <row r="4" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="161"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="162" t="s">
+      <c r="F4" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="G4" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="155" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -2631,19 +2693,19 @@
     <row r="5" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="161"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="162" t="s">
+      <c r="F5" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="165" t="str">
+      <c r="G5" s="158" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1, FIND("]",CELL("filename"))-(FIND("[",CELL("filename"))+1))</f>
         <v>bom for cnc.xls</v>
       </c>
-      <c r="H5" s="162"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="219"/>
+      <c r="J5" s="219"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="17"/>
@@ -2659,12 +2721,12 @@
       </c>
       <c r="G6" s="22">
         <f ca="1">TODAY()</f>
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="166">
+      <c r="I6" s="159">
         <v>1</v>
       </c>
       <c r="J6" s="23"/>
@@ -2674,1206 +2736,1248 @@
     </row>
     <row r="7" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="153" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="204" t="s">
+      <c r="B7" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="205"/>
-      <c r="F7" s="156" t="s">
+      <c r="E7" s="218"/>
+      <c r="F7" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="157" t="s">
+      <c r="G7" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="158" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="155" t="s">
+      <c r="H7" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="155" t="s">
+      <c r="J7" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="159" t="s">
+      <c r="K7" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="145" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="160" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>30</v>
-      </c>
       <c r="Q7" s="26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="207" t="s">
-        <v>153</v>
+      <c r="B8" s="202" t="s">
+        <v>131</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="210">
+      <c r="D8" s="215">
         <v>3</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="31" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="133">
+        <v>22</v>
+      </c>
+      <c r="L8" s="126">
         <v>346</v>
       </c>
       <c r="M8" s="33">
         <f>L8*D8</f>
         <v>1038</v>
       </c>
-      <c r="S8" s="167">
+      <c r="S8" s="160">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="208"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="211"/>
+      <c r="D9" s="220"/>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="134"/>
+        <v>34</v>
+      </c>
+      <c r="L9" s="127"/>
       <c r="M9" s="41"/>
-      <c r="S9" s="167">
+      <c r="S9" s="160">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="209"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="60"/>
-      <c r="S10" s="167">
+      <c r="D10" s="216"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="57"/>
+      <c r="S10" s="160">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="198" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="200"/>
-      <c r="D11" s="202">
+      <c r="B11" s="204" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="206"/>
+      <c r="D11" s="198">
         <v>2</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="45"/>
       <c r="G11" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>154</v>
+        <v>135</v>
+      </c>
+      <c r="H11" s="96" t="s">
+        <v>132</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="135">
+        <v>22</v>
+      </c>
+      <c r="L11" s="128">
         <v>169</v>
       </c>
       <c r="M11" s="48">
-        <f t="shared" ref="M11:M40" si="0">L11*D11</f>
+        <f t="shared" ref="M11:M41" si="0">L11*D11</f>
         <v>338</v>
       </c>
-      <c r="S11" s="167">
+      <c r="S11" s="160">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="104"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="49"/>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J12" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="129"/>
+      <c r="M12" s="52"/>
+      <c r="S12" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65">
+        <v>1</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="136"/>
-      <c r="M12" s="52"/>
-      <c r="S12" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="207" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="210">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="133">
-        <v>37.880000000000003</v>
-      </c>
-      <c r="M13" s="33">
+      <c r="K13" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="131">
+        <v>43.77</v>
+      </c>
+      <c r="M13" s="68">
         <f t="shared" si="0"/>
-        <v>37.880000000000003</v>
+        <v>43.77</v>
+      </c>
+      <c r="S13" s="160">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="209"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="60"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="235"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="239"/>
+      <c r="L14" s="233"/>
+      <c r="M14" s="240"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="213" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="217">
-        <v>1</v>
-      </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="135">
-        <v>120.14</v>
-      </c>
-      <c r="M15" s="48">
+      <c r="B15" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71">
+        <v>1</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="73">
+        <v>7.97</v>
+      </c>
+      <c r="M15" s="74">
         <f t="shared" si="0"/>
-        <v>120.14</v>
+        <v>7.97</v>
+      </c>
+      <c r="S15" s="160">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="214"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71">
+        <v>1</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="73">
+        <v>7.9</v>
+      </c>
+      <c r="M16" s="74">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="S16" s="160">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72">
+      <c r="B17" s="192" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="194">
         <v>4</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="138">
+      <c r="E17" s="194"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="225" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="194" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="225" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="225" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="236" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="227">
         <v>2.16</v>
       </c>
-      <c r="M17" s="75">
+      <c r="M17" s="228">
         <f t="shared" si="0"/>
         <v>8.64</v>
       </c>
-      <c r="S17" s="167">
+      <c r="S17" s="160">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78">
-        <v>1</v>
-      </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="140">
+      <c r="B18" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71">
+        <v>1</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="133">
         <v>4.5</v>
       </c>
-      <c r="M18" s="81">
+      <c r="M18" s="74">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72">
-        <v>1</v>
-      </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="138">
+      <c r="B19" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65">
+        <v>1</v>
+      </c>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="131">
         <v>0.48</v>
       </c>
-      <c r="M19" s="75">
+      <c r="M19" s="68">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="O19" s="83"/>
+      <c r="O19" s="76"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78">
-        <v>2</v>
-      </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="140">
-        <v>2.19</v>
-      </c>
-      <c r="M20" s="81">
+      <c r="B20" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71">
+        <v>4</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="133">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="M20" s="74">
         <f t="shared" si="0"/>
-        <v>4.38</v>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="S20" s="160">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72">
+      <c r="B21" s="161" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="162">
         <v>4</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="138">
+      <c r="E21" s="162"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="222" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="162" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="222" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="222" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="223" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="167">
         <v>49</v>
       </c>
-      <c r="M21" s="75">
+      <c r="M21" s="168">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="S21" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78">
+      <c r="S21" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
+      <c r="B22" s="190" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="229"/>
+      <c r="D22" s="96">
+        <v>8</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="46">
+        <v>10.14</v>
+      </c>
+      <c r="M22" s="48">
+        <f t="shared" si="0"/>
+        <v>81.12</v>
+      </c>
+      <c r="S22" s="231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="S23" s="231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
+      <c r="B24" s="192" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="194">
+        <v>1</v>
+      </c>
+      <c r="E24" s="194"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="225" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="225" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="225" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="226" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="227">
+        <v>400</v>
+      </c>
+      <c r="M24" s="228">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="S24" s="231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71">
         <v>4</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="140">
-        <v>25</v>
-      </c>
-      <c r="M22" s="81">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72">
-        <v>2</v>
-      </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="138">
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="M23" s="75">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78">
-        <v>4</v>
-      </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="140">
+      <c r="H25" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="133">
         <v>1.6</v>
       </c>
-      <c r="M24" s="81">
+      <c r="M25" s="74">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="O24" s="83"/>
-      <c r="S24" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="140"/>
-      <c r="M25" s="81"/>
-      <c r="O25" s="224"/>
-      <c r="S25" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72">
+      <c r="O25" s="76"/>
+      <c r="S25" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="133"/>
+      <c r="M26" s="74"/>
+      <c r="S26" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65">
         <v>2</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="138">
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="131">
         <v>315</v>
       </c>
-      <c r="M26" s="75">
+      <c r="M27" s="68">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="88"/>
-      <c r="Q26" s="89"/>
-      <c r="S26" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="171" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="172">
+      <c r="N27" s="1"/>
+      <c r="O27" s="81"/>
+      <c r="Q27" s="82"/>
+      <c r="S27" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
+      <c r="B28" s="163" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="164">
         <v>12</v>
       </c>
-      <c r="E27" s="172"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="177" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="172" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="177" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="178" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="179">
+      <c r="E28" s="164"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="164" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="169" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="171">
         <v>0.18</v>
       </c>
-      <c r="M27" s="180">
+      <c r="M28" s="172">
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="88"/>
-      <c r="Q27" s="89"/>
-      <c r="S27" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="191"/>
-      <c r="D28" s="29">
+      <c r="N28" s="1"/>
+      <c r="O28" s="81"/>
+      <c r="Q28" s="82"/>
+      <c r="S28" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="80"/>
+      <c r="B29" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="183"/>
+      <c r="D29" s="29">
         <v>3</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="187" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="183" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="31">
+      <c r="E29" s="29"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="179" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="175" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="177" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="31">
         <v>3.98</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M29" s="33">
         <f t="shared" si="0"/>
         <v>11.94</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="88"/>
-      <c r="Q28" s="89"/>
-      <c r="S28" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="188" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="184" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="K29" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="60"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="88"/>
-      <c r="Q29" s="89"/>
-      <c r="S29" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="93">
-        <v>1</v>
-      </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30" s="181" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="139">
-        <v>0.12</v>
-      </c>
-      <c r="M30" s="182">
+      <c r="O29" s="81"/>
+      <c r="Q29" s="82"/>
+      <c r="S29" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="80"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="180" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="176" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="56"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="81"/>
+      <c r="Q30" s="82"/>
+      <c r="S30" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="86">
+        <v>1</v>
+      </c>
+      <c r="E31" s="86"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="173" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="132">
+        <v>61.66</v>
+      </c>
+      <c r="M31" s="174">
         <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72">
-        <v>1</v>
-      </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="K31" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="138">
+        <v>61.66</v>
+      </c>
+      <c r="S31" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65">
+        <v>1</v>
+      </c>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="131">
         <v>7.93</v>
       </c>
-      <c r="M31" s="75">
+      <c r="M32" s="68">
         <f t="shared" si="0"/>
         <v>7.93</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78">
-        <v>1</v>
-      </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="140">
-        <v>314</v>
-      </c>
-      <c r="M32" s="81">
+    <row r="33" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
+      <c r="B33" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71">
+        <v>3</v>
+      </c>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="133">
+        <v>10</v>
+      </c>
+      <c r="M33" s="74">
         <f t="shared" si="0"/>
-        <v>314</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="88"/>
-      <c r="Q32" s="89"/>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72">
-        <v>2</v>
-      </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="138">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="M33" s="75">
+        <v>30</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="81"/>
+      <c r="Q33" s="82"/>
+      <c r="S33" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65">
+        <v>3</v>
+      </c>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="131">
+        <v>1.23</v>
+      </c>
+      <c r="M34" s="68">
         <f t="shared" si="0"/>
-        <v>10.220000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
-      <c r="B34" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78">
-        <v>1</v>
-      </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="H34" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="140">
+        <v>3.69</v>
+      </c>
+      <c r="S34" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="83"/>
+      <c r="B35" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71">
+        <v>1</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="133">
         <v>16.059999999999999</v>
       </c>
-      <c r="M34" s="81">
+      <c r="M35" s="74">
         <f t="shared" si="0"/>
         <v>16.059999999999999</v>
       </c>
-      <c r="O34" s="92"/>
-      <c r="S34" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72">
-        <v>1</v>
-      </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="138">
+      <c r="O35" s="85"/>
+      <c r="S35" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="77"/>
+      <c r="B36" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65">
+        <v>1</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="131">
         <v>10</v>
       </c>
-      <c r="M35" s="75">
+      <c r="M36" s="68">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="88"/>
-      <c r="Q35" s="89"/>
-      <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78">
+      <c r="N36" s="1"/>
+      <c r="O36" s="81"/>
+      <c r="Q36" s="82"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71">
         <v>4</v>
       </c>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="140">
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="133">
         <v>16</v>
       </c>
-      <c r="M36" s="81">
+      <c r="M37" s="74">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="88"/>
-      <c r="Q36" s="89"/>
-      <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72">
-        <v>1</v>
-      </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="K37" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="138">
+      <c r="N37" s="1"/>
+      <c r="O37" s="81"/>
+      <c r="Q37" s="82"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="83"/>
+      <c r="B38" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65">
+        <v>1</v>
+      </c>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="131">
         <v>3.05</v>
       </c>
-      <c r="M37" s="75">
+      <c r="M38" s="68">
         <f t="shared" si="0"/>
         <v>3.05</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="88"/>
-      <c r="Q37" s="89"/>
-      <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78">
-        <v>1</v>
-      </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="K38" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="140">
+      <c r="N38" s="1"/>
+      <c r="O38" s="81"/>
+      <c r="Q38" s="82"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71">
+        <v>1</v>
+      </c>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="133">
         <v>2.29</v>
       </c>
-      <c r="M38" s="81">
+      <c r="M39" s="74">
         <f t="shared" si="0"/>
         <v>2.29</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="88"/>
-      <c r="Q38" s="89"/>
-      <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87"/>
-      <c r="B39" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72">
-        <v>1</v>
-      </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="J39" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="L39" s="138">
-        <v>1</v>
-      </c>
-      <c r="M39" s="75">
+      <c r="N39" s="1"/>
+      <c r="O39" s="81"/>
+      <c r="Q39" s="82"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="80"/>
+      <c r="B40" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65">
+        <v>1</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="131">
+        <v>5</v>
+      </c>
+      <c r="M40" s="68">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="88"/>
-      <c r="Q39" s="89"/>
-      <c r="S39" s="1"/>
-    </row>
-    <row r="40" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="213" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="215" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="217">
-        <v>1</v>
-      </c>
-      <c r="E40" s="103"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L40" s="135">
+        <v>5</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="81"/>
+      <c r="Q40" s="82"/>
+      <c r="S40" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="208" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="210" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="212">
+        <v>1</v>
+      </c>
+      <c r="E41" s="96"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="128">
         <v>11.5</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M41" s="48">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="88"/>
-      <c r="Q40" s="89"/>
-      <c r="S40" s="1"/>
-    </row>
-    <row r="41" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="214"/>
-      <c r="C41" s="216"/>
-      <c r="D41" s="218"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="104"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="52"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="88"/>
-      <c r="Q41" s="89"/>
+      <c r="O41" s="81"/>
+      <c r="Q41" s="82"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="148" t="s">
-        <v>101</v>
-      </c>
-      <c r="L42" s="151"/>
-      <c r="M42" s="150">
-        <f>SUM(M8:M41)</f>
-        <v>3012.69</v>
-      </c>
+      <c r="B42" s="209"/>
+      <c r="C42" s="211"/>
+      <c r="D42" s="213"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="97"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="52"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="88"/>
-      <c r="Q42" s="89"/>
+      <c r="O42" s="81"/>
+      <c r="Q42" s="82"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="107" t="s">
-        <v>47</v>
-      </c>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3882,1196 +3986,1265 @@
       <c r="H43" s="3"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="K43" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43" s="144"/>
+      <c r="M43" s="143">
+        <f>SUM(M8:M42)</f>
+        <v>3002.02</v>
+      </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="88"/>
-      <c r="Q43" s="89"/>
+      <c r="O43" s="81"/>
+      <c r="Q43" s="82"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="207" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="221"/>
-      <c r="D44" s="219">
-        <v>1</v>
-      </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="K44" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="31">
+      <c r="B44" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="81"/>
+      <c r="Q44" s="82"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="200"/>
+      <c r="D45" s="196">
+        <v>1</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="31">
         <v>20.9</v>
       </c>
-      <c r="M44" s="33">
-        <f t="shared" ref="M44:M46" si="1">L44*D44</f>
+      <c r="M45" s="33">
+        <f t="shared" ref="M45:M47" si="1">L45*D45</f>
         <v>20.9</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="88"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="168"/>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="208"/>
-      <c r="C45" s="222"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="145"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="44"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="198" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="200"/>
-      <c r="D46" s="202">
+      <c r="N45" s="1"/>
+      <c r="O45" s="81"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="241"/>
+      <c r="S45" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="203"/>
+      <c r="C46" s="201"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="138"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="44"/>
+      <c r="S46" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="204" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="206"/>
+      <c r="D47" s="198">
         <v>2</v>
       </c>
-      <c r="E46" s="103"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K46" s="129" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="46">
+      <c r="E47" s="96"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="46">
         <v>5.49</v>
       </c>
-      <c r="M46" s="48">
+      <c r="M47" s="48">
         <f t="shared" si="1"/>
         <v>10.98</v>
       </c>
-      <c r="R46" s="167"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="199"/>
-      <c r="C47" s="201"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="131" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="68"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
-    </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K48" s="148" t="s">
-        <v>101</v>
-      </c>
-      <c r="L48" s="149"/>
-      <c r="M48" s="150">
-        <f>SUM(M44:M47)</f>
+      <c r="R47" s="241"/>
+      <c r="S47" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="205"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="62"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="52"/>
+      <c r="S48" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="L49" s="142"/>
+      <c r="M49" s="143">
+        <f>SUM(M45:M48)</f>
         <v>31.88</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="94" t="s">
+    <row r="50" spans="2:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="96"/>
-    </row>
-    <row r="50" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="108"/>
-      <c r="D50" s="72">
-        <v>1</v>
-      </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="J50" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" s="138">
-        <v>0.23</v>
-      </c>
-      <c r="M50" s="75">
-        <f t="shared" ref="M50:M72" si="2">L50*D50</f>
-        <v>0.23</v>
-      </c>
+      <c r="C50" s="87"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="89"/>
     </row>
     <row r="51" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114">
+      <c r="B51" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="101"/>
+      <c r="D51" s="65">
+        <v>4</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="131">
+        <v>8.84</v>
+      </c>
+      <c r="M51" s="68">
+        <f t="shared" ref="M51:M74" si="2">L51*D51</f>
+        <v>35.36</v>
+      </c>
+      <c r="S51" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="106"/>
+      <c r="D52" s="107">
         <v>56</v>
       </c>
-      <c r="E51" s="114"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="J51" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="K51" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="L51" s="147">
+      <c r="E52" s="107"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="140">
         <v>0.4</v>
       </c>
-      <c r="M51" s="81">
+      <c r="M52" s="172">
         <f t="shared" si="2"/>
         <v>22.400000000000002</v>
       </c>
-      <c r="S51" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="108"/>
-      <c r="D52" s="72">
+      <c r="S52" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="92"/>
+      <c r="D53" s="29">
+        <v>6</v>
+      </c>
+      <c r="E53" s="29"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="K53" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="31">
+        <v>1.84</v>
+      </c>
+      <c r="M53" s="33">
+        <f t="shared" si="2"/>
+        <v>11.040000000000001</v>
+      </c>
+      <c r="S53" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="I54" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="113" t="s">
+        <v>167</v>
+      </c>
+      <c r="K54" s="234" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="56"/>
+      <c r="M54" s="57"/>
+      <c r="S54" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="106"/>
+      <c r="D55" s="107">
+        <v>20</v>
+      </c>
+      <c r="E55" s="107"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="K55" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="140">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M55" s="174">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="S55" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="29">
         <v>4</v>
       </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="109" t="s">
+      <c r="E56" s="29"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="J52" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="L52" s="138">
+      <c r="H56" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="K56" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="126">
         <v>5.27</v>
       </c>
-      <c r="M52" s="75">
+      <c r="M56" s="33">
         <f t="shared" si="2"/>
         <v>21.08</v>
       </c>
-      <c r="S52" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="113"/>
-      <c r="D53" s="114">
+      <c r="S56" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="111"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="130"/>
+      <c r="M57" s="57"/>
+      <c r="S57" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="106"/>
+      <c r="D58" s="107">
+        <v>8</v>
+      </c>
+      <c r="E58" s="107"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="J58" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="140">
+        <v>5.08</v>
+      </c>
+      <c r="M58" s="74">
+        <f t="shared" si="2"/>
+        <v>40.64</v>
+      </c>
+      <c r="S58" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="101"/>
+      <c r="D59" s="65">
+        <v>6</v>
+      </c>
+      <c r="E59" s="65"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="131">
+        <v>2</v>
+      </c>
+      <c r="M59" s="68">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="S59" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="106"/>
+      <c r="D60" s="107">
         <v>20</v>
       </c>
-      <c r="E53" s="114"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="K53" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="147">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M53" s="81">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="S53" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B54" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="29">
-        <v>6</v>
-      </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" s="101" t="s">
+      <c r="E60" s="107"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I54" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="J54" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" s="133">
-        <v>3.63</v>
-      </c>
-      <c r="M54" s="33">
-        <f t="shared" si="2"/>
-        <v>21.78</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="118"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" s="137"/>
-      <c r="M55" s="60"/>
-    </row>
-    <row r="56" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="113"/>
-      <c r="D56" s="114">
-        <v>4</v>
-      </c>
-      <c r="E56" s="114"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L56" s="147">
-        <v>0.73</v>
-      </c>
-      <c r="M56" s="81">
-        <f t="shared" si="2"/>
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="108"/>
-      <c r="D57" s="72">
-        <v>1</v>
-      </c>
-      <c r="E57" s="72"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L57" s="138">
-        <v>3.1619999999999999</v>
-      </c>
-      <c r="M57" s="75">
-        <f t="shared" si="2"/>
-        <v>3.1619999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114">
-        <v>20</v>
-      </c>
-      <c r="E58" s="114"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="K58" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L58" s="147">
+      <c r="I60" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="140">
         <v>0.47</v>
       </c>
-      <c r="M58" s="180">
+      <c r="M60" s="172">
         <f t="shared" si="2"/>
         <v>9.3999999999999986</v>
       </c>
-      <c r="S58" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="99"/>
-      <c r="D59" s="29">
+      <c r="S60" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="92"/>
+      <c r="D61" s="29">
         <v>24</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="H59" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="K59" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="L59" s="31">
+      <c r="E61" s="29"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="31">
         <v>2</v>
       </c>
-      <c r="M59" s="33">
+      <c r="M61" s="33">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="S59" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="118"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="55" t="s">
+      <c r="S61" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="111"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="56"/>
+      <c r="M62" s="57"/>
+      <c r="S62" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="J60" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="L60" s="58"/>
-      <c r="M60" s="60"/>
-      <c r="S60" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="113"/>
-      <c r="D61" s="114">
+      <c r="C63" s="106"/>
+      <c r="D63" s="107">
         <v>16</v>
       </c>
-      <c r="E61" s="114"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="I61" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="K61" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="L61" s="147">
+      <c r="E63" s="107"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="K63" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="140">
         <v>0.44</v>
       </c>
-      <c r="M61" s="182">
+      <c r="M63" s="174">
         <f t="shared" si="2"/>
         <v>7.04</v>
       </c>
-      <c r="S61" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="108"/>
-      <c r="D62" s="72">
+      <c r="S63" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="101"/>
+      <c r="D64" s="65">
         <v>32</v>
       </c>
-      <c r="E62" s="72"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="H62" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="J62" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="L62" s="138">
+      <c r="E64" s="65"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="131">
         <v>2.08</v>
       </c>
-      <c r="M62" s="75">
+      <c r="M64" s="68">
         <f t="shared" si="2"/>
         <v>66.56</v>
       </c>
-      <c r="S62" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="114">
+      <c r="S64" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="106"/>
+      <c r="D65" s="107">
         <v>4</v>
       </c>
-      <c r="E63" s="114"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115" t="s">
-        <v>60</v>
-      </c>
-      <c r="H63" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="I63" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="K63" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L63" s="147">
+      <c r="E65" s="107"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="140">
         <v>0.12</v>
       </c>
-      <c r="M63" s="180">
+      <c r="M65" s="172">
         <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
-      <c r="S63" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="195"/>
-      <c r="D64" s="78">
+      <c r="S65" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="187"/>
+      <c r="D66" s="71">
         <v>14</v>
       </c>
-      <c r="E64" s="78"/>
-      <c r="F64" s="196"/>
-      <c r="G64" s="196" t="s">
-        <v>114</v>
-      </c>
-      <c r="H64" s="197" t="s">
-        <v>59</v>
-      </c>
-      <c r="I64" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="J64" s="196" t="s">
-        <v>142</v>
-      </c>
-      <c r="K64" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L64" s="140">
+      <c r="E66" s="71"/>
+      <c r="F66" s="188"/>
+      <c r="G66" s="188" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="189" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" s="188" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="K66" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="133">
         <v>0.8</v>
       </c>
-      <c r="M64" s="81">
+      <c r="M66" s="74">
         <f t="shared" si="2"/>
         <v>11.200000000000001</v>
       </c>
-      <c r="S64" s="223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="108"/>
-      <c r="D65" s="72">
+      <c r="S66" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="101"/>
+      <c r="D67" s="65">
         <v>14</v>
       </c>
-      <c r="E65" s="72"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="H65" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="J65" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L65" s="138">
+      <c r="E67" s="65"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="131">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M65" s="75">
+      <c r="M67" s="68">
         <f t="shared" si="2"/>
         <v>16.239999999999998</v>
       </c>
-      <c r="S65" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="113"/>
-      <c r="D66" s="114">
+      <c r="S67" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="106"/>
+      <c r="D68" s="107">
         <v>8</v>
       </c>
-      <c r="E66" s="114"/>
-      <c r="F66" s="115"/>
-      <c r="G66" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="H66" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="I66" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" s="115" t="s">
-        <v>116</v>
-      </c>
-      <c r="K66" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L66" s="147">
+      <c r="E68" s="107"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="K68" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="140">
         <v>2.09</v>
       </c>
-      <c r="M66" s="81">
+      <c r="M68" s="74">
         <f t="shared" si="2"/>
         <v>16.72</v>
       </c>
-      <c r="S66" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="70" t="s">
+      <c r="S68" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="101"/>
+      <c r="D69" s="65">
+        <v>4</v>
+      </c>
+      <c r="E69" s="65"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="108"/>
-      <c r="D67" s="72">
-        <v>4</v>
-      </c>
-      <c r="E67" s="72"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="I67" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="J67" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="K67" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" s="138">
+      <c r="K69" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="131">
         <v>2.9</v>
       </c>
-      <c r="M67" s="75">
+      <c r="M69" s="68">
         <f t="shared" si="2"/>
         <v>11.6</v>
       </c>
-      <c r="S67" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="116"/>
-      <c r="D68" s="114">
+      <c r="S69" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="109"/>
+      <c r="D70" s="107">
         <v>16</v>
       </c>
-      <c r="E68" s="114"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="I68" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J68" s="122" t="s">
-        <v>65</v>
-      </c>
-      <c r="K68" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L68" s="147">
+      <c r="E70" s="107"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="140">
         <v>0.6</v>
       </c>
-      <c r="M68" s="81">
+      <c r="M70" s="74">
         <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
-      <c r="S68" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="110"/>
-      <c r="D69" s="72">
+      <c r="S70" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="103"/>
+      <c r="D71" s="65">
         <v>12</v>
       </c>
-      <c r="E69" s="72"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="H69" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="I69" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="K69" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L69" s="138">
+      <c r="E71" s="65"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="I71" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="K71" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="131">
         <v>6.53</v>
       </c>
-      <c r="M69" s="75">
+      <c r="M71" s="68">
         <f t="shared" si="2"/>
         <v>78.36</v>
       </c>
-      <c r="S69" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="116"/>
-      <c r="D70" s="114">
+      <c r="S71" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="109"/>
+      <c r="D72" s="107">
         <v>4</v>
       </c>
-      <c r="E70" s="114"/>
-      <c r="F70" s="122"/>
-      <c r="G70" s="122" t="s">
-        <v>119</v>
-      </c>
-      <c r="H70" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="I70" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" s="122" t="s">
-        <v>120</v>
-      </c>
-      <c r="K70" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L70" s="147">
+      <c r="E72" s="107"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="I72" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="140">
         <v>3.7</v>
       </c>
-      <c r="M70" s="81">
+      <c r="M72" s="74">
         <f t="shared" si="2"/>
         <v>14.8</v>
       </c>
-      <c r="S70" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="110"/>
-      <c r="D71" s="72">
+      <c r="S72" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="103"/>
+      <c r="D73" s="65">
         <v>4</v>
       </c>
-      <c r="E71" s="72"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="H71" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="I71" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="J71" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K71" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="L71" s="138">
-        <v>1</v>
-      </c>
-      <c r="M71" s="75">
+      <c r="E73" s="65"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="H73" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" s="131">
+        <v>1</v>
+      </c>
+      <c r="M73" s="68">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="S71" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="123"/>
-      <c r="D72" s="93">
-        <v>1</v>
-      </c>
-      <c r="E72" s="93"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="H72" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="K72" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="L72" s="139">
+      <c r="S73" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="116"/>
+      <c r="D74" s="86">
+        <v>1</v>
+      </c>
+      <c r="E74" s="86"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="H74" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="K74" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="132">
         <v>5.6</v>
       </c>
-      <c r="M72" s="81">
+      <c r="M74" s="74">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
-      <c r="S72" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="F73" s="1"/>
-      <c r="K73" s="148" t="s">
-        <v>101</v>
-      </c>
-      <c r="L73" s="149"/>
-      <c r="M73" s="150">
-        <f>SUM(M50:M72)</f>
-        <v>393.17200000000008</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="S74" s="160">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="K75" s="148" t="s">
-        <v>102</v>
-      </c>
-      <c r="L75" s="149"/>
-      <c r="M75" s="150">
-        <f>M42+M48+M73</f>
-        <v>3437.7420000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="F75" s="1"/>
+      <c r="K75" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="L75" s="142"/>
+      <c r="M75" s="143">
+        <f>SUM(M51:M74)</f>
+        <v>464.12000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
+      <c r="K77" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="L77" s="142"/>
+      <c r="M77" s="143">
+        <f>M43+M49+M75</f>
+        <v>3498.02</v>
+      </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="94" t="s">
-        <v>128</v>
-      </c>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="70" t="s">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="101"/>
+      <c r="D82" s="65">
+        <v>1</v>
+      </c>
+      <c r="E82" s="65"/>
+      <c r="F82" s="102"/>
+      <c r="G82" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H82" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="K82" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="131">
         <v>50</v>
       </c>
-      <c r="C80" s="108"/>
-      <c r="D80" s="72">
-        <v>1</v>
-      </c>
-      <c r="E80" s="72"/>
-      <c r="F80" s="109"/>
-      <c r="G80" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="H80" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="K80" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L80" s="138">
+      <c r="M82" s="68">
+        <f t="shared" ref="M82" si="3">L82*D82</f>
         <v>50</v>
       </c>
-      <c r="M80" s="75">
-        <f t="shared" ref="M80" si="3">L80*D80</f>
+      <c r="S82" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="101"/>
+      <c r="D83" s="65">
+        <v>1</v>
+      </c>
+      <c r="E83" s="65"/>
+      <c r="F83" s="102"/>
+      <c r="G83" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="H83" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="K83" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="131">
         <v>50</v>
       </c>
-      <c r="S80" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="70" t="s">
+      <c r="M83" s="68">
+        <f t="shared" ref="M83" si="4">L83*D83</f>
         <v>50</v>
       </c>
-      <c r="C81" s="108"/>
-      <c r="D81" s="72">
-        <v>1</v>
-      </c>
-      <c r="E81" s="72"/>
-      <c r="F81" s="109"/>
-      <c r="G81" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="H81" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="J81" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="K81" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L81" s="138">
+      <c r="S83" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="161" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="165"/>
+      <c r="D84" s="162">
+        <v>1</v>
+      </c>
+      <c r="E84" s="162"/>
+      <c r="F84" s="166"/>
+      <c r="G84" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="K84" s="178" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="167">
         <v>50</v>
       </c>
-      <c r="M81" s="75">
-        <f t="shared" ref="M81" si="4">L81*D81</f>
+      <c r="M84" s="168">
+        <f t="shared" ref="M84" si="5">L84*D84</f>
         <v>50</v>
       </c>
-      <c r="S81" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="169" t="s">
+      <c r="S84" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B85" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="92"/>
+      <c r="D85" s="29">
+        <v>1</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="J85" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="K85" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="L85" s="31">
         <v>50</v>
       </c>
-      <c r="C82" s="173"/>
-      <c r="D82" s="170">
-        <v>1</v>
-      </c>
-      <c r="E82" s="170"/>
-      <c r="F82" s="174"/>
-      <c r="G82" s="174" t="s">
-        <v>133</v>
-      </c>
-      <c r="H82" s="170" t="s">
-        <v>23</v>
-      </c>
-      <c r="I82" s="174" t="s">
-        <v>27</v>
-      </c>
-      <c r="J82" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="K82" s="186" t="s">
-        <v>27</v>
-      </c>
-      <c r="L82" s="175">
+      <c r="M85" s="33">
+        <f t="shared" ref="M85" si="6">L85*D85</f>
         <v>50</v>
       </c>
-      <c r="M82" s="176">
-        <f t="shared" ref="M82" si="5">L82*D82</f>
+      <c r="S85" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="111"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="113"/>
+      <c r="G86" s="113"/>
+      <c r="H86" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="K86" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="56"/>
+      <c r="M86" s="57">
+        <f t="shared" ref="M86:M87" si="7">L86*D86</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="101"/>
+      <c r="D87" s="65">
+        <v>1</v>
+      </c>
+      <c r="E87" s="65"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="H87" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="J87" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="K87" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="L87" s="67">
         <v>50</v>
       </c>
-      <c r="S82" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B83" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="99"/>
-      <c r="D83" s="29">
-        <v>1</v>
-      </c>
-      <c r="E83" s="29"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="J83" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="K83" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="L83" s="31">
-        <v>50</v>
-      </c>
-      <c r="M83" s="33">
-        <f t="shared" ref="M83" si="6">L83*D83</f>
-        <v>50</v>
-      </c>
-      <c r="S83" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="118"/>
-      <c r="C84" s="119"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="120"/>
-      <c r="G84" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="H84" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="J84" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="K84" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="L84" s="58"/>
-      <c r="M84" s="60">
-        <f t="shared" ref="M84:M85" si="7">L84*D84</f>
-        <v>0</v>
-      </c>
-      <c r="S84" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="108"/>
-      <c r="D85" s="72">
-        <v>1</v>
-      </c>
-      <c r="E85" s="72"/>
-      <c r="F85" s="109"/>
-      <c r="G85" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I85" s="109" t="s">
-        <v>135</v>
-      </c>
-      <c r="J85" s="109" t="s">
-        <v>138</v>
-      </c>
-      <c r="K85" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="L85" s="74">
-        <v>50</v>
-      </c>
-      <c r="M85" s="75">
+      <c r="M87" s="68">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="S85" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="S87" s="160">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
@@ -5897,21 +6070,16 @@
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
     </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B294" s="4"/>
+      <c r="C294" s="4"/>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
+  <mergeCells count="16">
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -5919,86 +6087,98 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K50" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
-    <hyperlink ref="K51" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
-    <hyperlink ref="K52" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
-    <hyperlink ref="K53" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
-    <hyperlink ref="K55" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
-    <hyperlink ref="K54" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
-    <hyperlink ref="K56" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
-    <hyperlink ref="K57" r:id="rId9" xr:uid="{46A6ACDD-5760-4F58-85A8-0C3C5823AC23}"/>
-    <hyperlink ref="K58" r:id="rId10" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
-    <hyperlink ref="K59" r:id="rId11" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
-    <hyperlink ref="K61" r:id="rId12" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
-    <hyperlink ref="K63" r:id="rId13" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
-    <hyperlink ref="K65" r:id="rId14" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
-    <hyperlink ref="K66" r:id="rId15" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
-    <hyperlink ref="K67" r:id="rId16" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
-    <hyperlink ref="K68" r:id="rId17" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
-    <hyperlink ref="K69" r:id="rId18" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
-    <hyperlink ref="K70" r:id="rId19" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
-    <hyperlink ref="K71" r:id="rId20" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
-    <hyperlink ref="K72" r:id="rId21" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
-    <hyperlink ref="K44" r:id="rId22" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
-    <hyperlink ref="K46" r:id="rId23" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
-    <hyperlink ref="K8" r:id="rId24" xr:uid="{7B631EFD-FBB0-414A-ABB9-E4EF1004CB36}"/>
-    <hyperlink ref="K9" r:id="rId25" xr:uid="{E26C9157-F701-4202-8C8A-2A5490BB2432}"/>
-    <hyperlink ref="K13" r:id="rId26" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
-    <hyperlink ref="K15" r:id="rId27" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
-    <hyperlink ref="K17" r:id="rId28" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
-    <hyperlink ref="K18" r:id="rId29" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
-    <hyperlink ref="K19" r:id="rId30" xr:uid="{8623CD09-3F1E-4EBC-A650-32779CBF8D38}"/>
-    <hyperlink ref="K20" r:id="rId31" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
-    <hyperlink ref="K21" r:id="rId32" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
-    <hyperlink ref="K22" r:id="rId33" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
-    <hyperlink ref="K23" r:id="rId34" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
-    <hyperlink ref="K24" r:id="rId35" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
-    <hyperlink ref="K26" r:id="rId36" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
-    <hyperlink ref="K27" r:id="rId37" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
-    <hyperlink ref="K28" r:id="rId38" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
-    <hyperlink ref="K30" r:id="rId39" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
-    <hyperlink ref="K31" r:id="rId40" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
-    <hyperlink ref="K32" r:id="rId41" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
-    <hyperlink ref="K33" r:id="rId42" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
-    <hyperlink ref="K34" r:id="rId43" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
-    <hyperlink ref="K35" r:id="rId44" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
-    <hyperlink ref="K36" r:id="rId45" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
-    <hyperlink ref="K39" r:id="rId46" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
-    <hyperlink ref="K40" r:id="rId47" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
-    <hyperlink ref="K37" r:id="rId48" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
-    <hyperlink ref="K38" r:id="rId49" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
-    <hyperlink ref="K62" r:id="rId50" xr:uid="{B270F44D-5DCA-4473-A1B5-4E0C4CABA102}"/>
-    <hyperlink ref="K80" r:id="rId51" xr:uid="{6378F978-E6E0-4D99-BBC2-0965287F858B}"/>
-    <hyperlink ref="K81" r:id="rId52" xr:uid="{843877E7-70BA-44E4-AE96-525FCD8022C5}"/>
-    <hyperlink ref="K82" r:id="rId53" xr:uid="{33C0E0FA-9E87-4BED-BA68-5C3503F7C6FD}"/>
-    <hyperlink ref="K83" r:id="rId54" xr:uid="{D6016C3F-255A-400C-AD59-5D277E5DFF38}"/>
-    <hyperlink ref="K84" r:id="rId55" xr:uid="{24D23601-704A-49AD-8C06-8EC8857B8841}"/>
-    <hyperlink ref="K85" r:id="rId56" xr:uid="{E2598E4E-BD4E-49AA-B4A5-C6E3BC5B2280}"/>
-    <hyperlink ref="K29" r:id="rId57" xr:uid="{0029815D-CA13-4ED4-B203-76A4C7ADDBEE}"/>
-    <hyperlink ref="K64" r:id="rId58" xr:uid="{8911087A-9DC1-421B-AA5D-F6CBE6E8A61D}"/>
-    <hyperlink ref="K60" r:id="rId59" xr:uid="{51A1AB4F-AD59-4C5E-81D7-E513117A837A}"/>
-    <hyperlink ref="K25" r:id="rId60" xr:uid="{99031EAA-9060-4C2A-AB60-9487EB9903ED}"/>
-    <hyperlink ref="K11" r:id="rId61" xr:uid="{723F9773-2E4B-47EB-9D74-49EF89E5DEB9}"/>
-    <hyperlink ref="K12" r:id="rId62" xr:uid="{AA3A3EFD-47BC-4616-87E2-13B2B92C9A86}"/>
+    <hyperlink ref="K51" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
+    <hyperlink ref="K52" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
+    <hyperlink ref="K53" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
+    <hyperlink ref="K55" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
+    <hyperlink ref="K57" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
+    <hyperlink ref="K56" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
+    <hyperlink ref="K58" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
+    <hyperlink ref="K60" r:id="rId9" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
+    <hyperlink ref="K61" r:id="rId10" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
+    <hyperlink ref="K63" r:id="rId11" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
+    <hyperlink ref="K65" r:id="rId12" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
+    <hyperlink ref="K67" r:id="rId13" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
+    <hyperlink ref="K68" r:id="rId14" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
+    <hyperlink ref="K69" r:id="rId15" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
+    <hyperlink ref="K70" r:id="rId16" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
+    <hyperlink ref="K71" r:id="rId17" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
+    <hyperlink ref="K72" r:id="rId18" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
+    <hyperlink ref="K73" r:id="rId19" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
+    <hyperlink ref="K74" r:id="rId20" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
+    <hyperlink ref="K45" r:id="rId21" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
+    <hyperlink ref="K47" r:id="rId22" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
+    <hyperlink ref="K8" r:id="rId23" xr:uid="{7B631EFD-FBB0-414A-ABB9-E4EF1004CB36}"/>
+    <hyperlink ref="K9" r:id="rId24" xr:uid="{E26C9157-F701-4202-8C8A-2A5490BB2432}"/>
+    <hyperlink ref="K13" r:id="rId25" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
+    <hyperlink ref="K15" r:id="rId26" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
+    <hyperlink ref="K17" r:id="rId27" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
+    <hyperlink ref="K18" r:id="rId28" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
+    <hyperlink ref="K19" r:id="rId29" xr:uid="{8623CD09-3F1E-4EBC-A650-32779CBF8D38}"/>
+    <hyperlink ref="K20" r:id="rId30" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
+    <hyperlink ref="K21" r:id="rId31" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
+    <hyperlink ref="K22" r:id="rId32" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
+    <hyperlink ref="K24" r:id="rId33" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
+    <hyperlink ref="K25" r:id="rId34" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
+    <hyperlink ref="K27" r:id="rId35" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
+    <hyperlink ref="K28" r:id="rId36" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
+    <hyperlink ref="K29" r:id="rId37" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
+    <hyperlink ref="K31" r:id="rId38" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
+    <hyperlink ref="K32" r:id="rId39" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
+    <hyperlink ref="K33" r:id="rId40" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
+    <hyperlink ref="K34" r:id="rId41" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
+    <hyperlink ref="K35" r:id="rId42" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
+    <hyperlink ref="K36" r:id="rId43" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
+    <hyperlink ref="K37" r:id="rId44" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
+    <hyperlink ref="K40" r:id="rId45" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
+    <hyperlink ref="K41" r:id="rId46" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
+    <hyperlink ref="K38" r:id="rId47" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
+    <hyperlink ref="K39" r:id="rId48" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
+    <hyperlink ref="K64" r:id="rId49" xr:uid="{B270F44D-5DCA-4473-A1B5-4E0C4CABA102}"/>
+    <hyperlink ref="K82" r:id="rId50" xr:uid="{6378F978-E6E0-4D99-BBC2-0965287F858B}"/>
+    <hyperlink ref="K83" r:id="rId51" xr:uid="{843877E7-70BA-44E4-AE96-525FCD8022C5}"/>
+    <hyperlink ref="K84" r:id="rId52" xr:uid="{33C0E0FA-9E87-4BED-BA68-5C3503F7C6FD}"/>
+    <hyperlink ref="K85" r:id="rId53" xr:uid="{D6016C3F-255A-400C-AD59-5D277E5DFF38}"/>
+    <hyperlink ref="K86" r:id="rId54" xr:uid="{24D23601-704A-49AD-8C06-8EC8857B8841}"/>
+    <hyperlink ref="K87" r:id="rId55" xr:uid="{E2598E4E-BD4E-49AA-B4A5-C6E3BC5B2280}"/>
+    <hyperlink ref="K30" r:id="rId56" xr:uid="{0029815D-CA13-4ED4-B203-76A4C7ADDBEE}"/>
+    <hyperlink ref="K66" r:id="rId57" xr:uid="{8911087A-9DC1-421B-AA5D-F6CBE6E8A61D}"/>
+    <hyperlink ref="K62" r:id="rId58" xr:uid="{51A1AB4F-AD59-4C5E-81D7-E513117A837A}"/>
+    <hyperlink ref="K26" r:id="rId59" xr:uid="{99031EAA-9060-4C2A-AB60-9487EB9903ED}"/>
+    <hyperlink ref="K11" r:id="rId60" xr:uid="{723F9773-2E4B-47EB-9D74-49EF89E5DEB9}"/>
+    <hyperlink ref="K12" r:id="rId61" xr:uid="{AA3A3EFD-47BC-4616-87E2-13B2B92C9A86}"/>
+    <hyperlink ref="K59" r:id="rId62" xr:uid="{0EE8C112-4372-4088-80EA-A654F59999EC}"/>
+    <hyperlink ref="K23" r:id="rId63" xr:uid="{C2E179CF-2609-489C-A5BD-1C854E96D9AD}"/>
+    <hyperlink ref="K16" r:id="rId64" xr:uid="{F783CDFF-8758-4D06-A5B1-E9CA605A23DA}"/>
+    <hyperlink ref="K54" r:id="rId65" xr:uid="{A25C09F9-E26F-479C-90F3-FA2B27127EFF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.16" bottom="0.25" header="0.11" footer="7.0000000000000007E-2"/>
-  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId63"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId66"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;R&amp;D  &amp;T</oddFooter>
   </headerFooter>
-  <drawing r:id="rId64"/>
-  <legacyDrawing r:id="rId65"/>
+  <drawing r:id="rId67"/>
+  <legacyDrawing r:id="rId68"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId66" name="AltiumMatBut">
+            <control shapeId="1030" r:id="rId69" name="AltiumMatBut">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMatStart.AltiumMatStart">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -6020,7 +6200,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId67" name="Button 7">
+            <control shapeId="1031" r:id="rId70" name="Button 7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMan1ShowHide1" altText="Show/Hide ">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>

--- a/Drawings/CNC_BOM.xlsx
+++ b/Drawings/CNC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\LaserCNCMachine\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AAAA9F-A9C0-405A-9D72-C30730811373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516C67D-BAD7-4ADE-AC20-39F78E12B228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'arrangement-mat'!$7:$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$91</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="214">
   <si>
     <t>File</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Item No.</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>AISI 1035 Steel (SS)</t>
   </si>
   <si>
@@ -191,27 +188,12 @@
     <t>Zinc-Plated Steel</t>
   </si>
   <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>TensionerBasePlate</t>
-  </si>
-  <si>
     <t>6061 Alloy</t>
   </si>
   <si>
     <t>9146T14-9146T141</t>
   </si>
   <si>
-    <t>Standoff threaded round spacer</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>6063-T6</t>
-  </si>
-  <si>
     <t>DIGIKEY</t>
   </si>
   <si>
@@ -224,59 +206,10 @@
     <t>Rubber</t>
   </si>
   <si>
-    <t>Power cable 9Amp max.</t>
-  </si>
-  <si>
-    <t>Wire</t>
-  </si>
-  <si>
-    <t>9700T61</t>
-  </si>
-  <si>
-    <t>Pulley 20T W10 B5 With Teeth</t>
-  </si>
-  <si>
-    <t>LM8UU Lineare bearing</t>
-  </si>
-  <si>
-    <t>9697T1</t>
-  </si>
-  <si>
-    <t>Cable Top End Sensor (230mm)</t>
-  </si>
-  <si>
-    <t>Cable Bottom End Sensor (290mm)</t>
-  </si>
-  <si>
     <t>MOUSER</t>
   </si>
   <si>
     <t>Mouser</t>
-  </si>
-  <si>
-    <t>Movement Nut</t>
-  </si>
-  <si>
-    <t>Brass</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> must be pair to item 1</t>
-    </r>
   </si>
   <si>
     <t>Total Weight</t>
@@ -571,6 +504,192 @@
   <si>
     <t>Connector D-SUB 9 Male</t>
   </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>CNC.01.02-1</t>
+  </si>
+  <si>
+    <t>CNC.01.02-2</t>
+  </si>
+  <si>
+    <t>CNC.01.02-3</t>
+  </si>
+  <si>
+    <t>Polycarbonate Sheet</t>
+  </si>
+  <si>
+    <t>8574K281</t>
+  </si>
+  <si>
+    <t>Adjustment Equipment Part</t>
+  </si>
+  <si>
+    <t>CNC.02.42</t>
+  </si>
+  <si>
+    <t>Stepper Side Part</t>
+  </si>
+  <si>
+    <t>CNC.02.41</t>
+  </si>
+  <si>
+    <t>Equipment Adapter</t>
+  </si>
+  <si>
+    <t>CNC.02.44</t>
+  </si>
+  <si>
+    <t>Right Side Base</t>
+  </si>
+  <si>
+    <t>CNC.02.21</t>
+  </si>
+  <si>
+    <t>Left Side Base</t>
+  </si>
+  <si>
+    <t>CNC.02.31</t>
+  </si>
+  <si>
+    <t>Wheel Spacer 1</t>
+  </si>
+  <si>
+    <t>CNC.02.22</t>
+  </si>
+  <si>
+    <t>6061-T6 (SS)</t>
+  </si>
+  <si>
+    <t>4634T36</t>
+  </si>
+  <si>
+    <t>Corner Bracket For Cable Chain</t>
+  </si>
+  <si>
+    <t>CNC.02.24</t>
+  </si>
+  <si>
+    <t>5585N19-5585N137</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6060 Aluminum</t>
+  </si>
+  <si>
+    <t>Wheel Spacer 2</t>
+  </si>
+  <si>
+    <t>CNC.02.43</t>
+  </si>
+  <si>
+    <t>Frame Base X</t>
+  </si>
+  <si>
+    <t>CNC.02.51</t>
+  </si>
+  <si>
+    <t>Frame Base Mount Bracket X</t>
+  </si>
+  <si>
+    <t>CNC.02.52</t>
+  </si>
+  <si>
+    <t>9146T15-9146T151</t>
+  </si>
+  <si>
+    <t>Equipment Cable Carrier</t>
+  </si>
+  <si>
+    <t>CNC.02.60</t>
+  </si>
+  <si>
+    <t>Nylon</t>
+  </si>
+  <si>
+    <t>Cable Carrier</t>
+  </si>
+  <si>
+    <t>CNC.03.00</t>
+  </si>
+  <si>
+    <t>Cable label X</t>
+  </si>
+  <si>
+    <t>CNC.04.05-1</t>
+  </si>
+  <si>
+    <t>Acrylic</t>
+  </si>
+  <si>
+    <t>CNC.04.05-2</t>
+  </si>
+  <si>
+    <t>Cable label Y</t>
+  </si>
+  <si>
+    <t>Cable label PWR</t>
+  </si>
+  <si>
+    <t>CNC.04.05-4</t>
+  </si>
+  <si>
+    <t>Cable label DATA</t>
+  </si>
+  <si>
+    <t>CNC.04.05-5</t>
+  </si>
+  <si>
+    <t>T-slot Table Plate</t>
+  </si>
+  <si>
+    <t>CNC.05.01-1</t>
+  </si>
+  <si>
+    <t>6105 Alloy</t>
+  </si>
+  <si>
+    <t>TL1</t>
+  </si>
+  <si>
+    <t>CNC.05.01-2</t>
+  </si>
+  <si>
+    <t>CNC.05.01-3</t>
+  </si>
+  <si>
+    <t>Corner Braket Long</t>
+  </si>
+  <si>
+    <t>CNC.05.05</t>
+  </si>
+  <si>
+    <t>5585N18-5585N134</t>
+  </si>
+  <si>
+    <t>Connector PG11</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Cable Holder</t>
+  </si>
+  <si>
+    <t>ATU031K-ND</t>
+  </si>
+  <si>
+    <t>Heat-Shrink Tubing 1 (Length 110mm)</t>
+  </si>
+  <si>
+    <t>Heat-Shrink Tubing 2 (Length 25mm)</t>
+  </si>
+  <si>
+    <t>SCT-NO.2-E5-0-12MMND</t>
+  </si>
 </sst>
 </file>
 
@@ -579,7 +698,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -651,15 +770,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,13 +790,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -966,21 +1073,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1253,28 +1345,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1358,19 +1438,19 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,25 +1477,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1427,7 +1507,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,13 +1522,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1475,7 +1555,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1493,13 +1573,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1550,22 +1627,22 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1635,16 +1712,13 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1656,28 +1730,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1686,16 +1760,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1707,10 +1784,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1722,7 +1796,7 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,7 +1808,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1758,9 +1832,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1779,10 +1850,10 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1791,52 +1862,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1848,7 +1919,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1857,88 +1928,13 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1959,56 +1955,88 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2576,11 +2604,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S295"/>
+  <dimension ref="A1:S311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S41" sqref="S41"/>
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2631,7 +2659,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>14</v>
@@ -2647,20 +2675,20 @@
     <row r="3" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="156" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="155" t="s">
+      <c r="G3" s="154" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="156" t="s">
-        <v>84</v>
+      <c r="I3" s="154" t="s">
+        <v>67</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
@@ -2670,16 +2698,16 @@
     <row r="4" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="154"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="153" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -2693,19 +2721,19 @@
     <row r="5" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="158" t="str">
+      <c r="G5" s="156" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1, FIND("]",CELL("filename"))-(FIND("[",CELL("filename"))+1))</f>
-        <v>bom for cnc.xls</v>
-      </c>
-      <c r="H5" s="155"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
+        <v>CNC_BOM.xlsx</v>
+      </c>
+      <c r="H5" s="153"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="17"/>
@@ -2721,12 +2749,12 @@
       </c>
       <c r="G6" s="22">
         <f ca="1">TODAY()</f>
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="159">
+      <c r="I6" s="157">
         <v>1</v>
       </c>
       <c r="J6" s="23"/>
@@ -2736,39 +2764,39 @@
     </row>
     <row r="7" spans="1:19" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="217" t="s">
+      <c r="D7" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="149" t="s">
+      <c r="E7" s="213"/>
+      <c r="F7" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="150" t="s">
+      <c r="G7" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="151" t="s">
+      <c r="H7" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="148" t="s">
+      <c r="J7" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="152" t="s">
+      <c r="K7" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="145" t="s">
+      <c r="L7" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="153" t="s">
-        <v>78</v>
+      <c r="M7" s="151" t="s">
+        <v>61</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>24</v>
@@ -2782,311 +2810,332 @@
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="202" t="s">
-        <v>131</v>
+      <c r="B8" s="215" t="s">
+        <v>114</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="215">
+      <c r="D8" s="217">
         <v>3</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="126">
+      <c r="L8" s="124">
         <v>346</v>
       </c>
       <c r="M8" s="33">
         <f>L8*D8</f>
         <v>1038</v>
       </c>
-      <c r="S8" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S8" s="205"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="203"/>
+      <c r="B9" s="216"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="220"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="127"/>
+        <v>33</v>
+      </c>
+      <c r="L9" s="125"/>
       <c r="M9" s="41"/>
-      <c r="S9" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="205"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="214"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="57"/>
-      <c r="S10" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="206" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="208"/>
+      <c r="D10" s="210">
+        <v>2</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="126">
+        <v>169</v>
+      </c>
+      <c r="M10" s="48">
+        <f t="shared" ref="M10:M49" si="0">L10*D10</f>
+        <v>338</v>
+      </c>
+      <c r="S10" s="205"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="204" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="206"/>
-      <c r="D11" s="198">
-        <v>2</v>
-      </c>
+      <c r="B11" s="207"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="211"/>
       <c r="E11" s="96"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="128">
-        <v>169</v>
-      </c>
-      <c r="M11" s="48">
-        <f t="shared" ref="M11:M41" si="0">L11*D11</f>
-        <v>338</v>
-      </c>
-      <c r="S11" s="160">
-        <v>1</v>
-      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="127"/>
+      <c r="M11" s="52"/>
+      <c r="S11" s="205"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="205"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="129"/>
-      <c r="M12" s="52"/>
-      <c r="S12" s="160">
+      <c r="B12" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65">
         <v>1</v>
       </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="129">
+        <v>43.77</v>
+      </c>
+      <c r="M12" s="68">
+        <f t="shared" si="0"/>
+        <v>43.77</v>
+      </c>
+      <c r="S12" s="205"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65">
+      <c r="B13" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71">
         <v>1</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="131">
-        <v>43.77</v>
-      </c>
-      <c r="M13" s="68">
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="73">
+        <v>7.97</v>
+      </c>
+      <c r="M13" s="74">
         <f t="shared" si="0"/>
-        <v>43.77</v>
-      </c>
-      <c r="S13" s="160">
-        <v>1</v>
-      </c>
+        <v>7.97</v>
+      </c>
+      <c r="S13" s="205"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="235"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="238"/>
-      <c r="I14" s="237"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="233"/>
-      <c r="M14" s="240"/>
+      <c r="B14" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71">
+        <v>1</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="73">
+        <v>7.9</v>
+      </c>
+      <c r="M14" s="74">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="S14" s="205"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71">
-        <v>1</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="73">
-        <v>7.97</v>
-      </c>
-      <c r="M15" s="74">
+      <c r="B15" s="189" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="190">
+        <v>4</v>
+      </c>
+      <c r="E15" s="190"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="197" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="190" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="197" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="197" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="204" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="199">
+        <v>2.16</v>
+      </c>
+      <c r="M15" s="200">
         <f t="shared" si="0"/>
-        <v>7.97</v>
-      </c>
-      <c r="S15" s="160">
-        <v>1</v>
-      </c>
+        <v>8.64</v>
+      </c>
+      <c r="S15" s="205"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="69" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C16" s="70"/>
       <c r="D16" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="71"/>
-      <c r="F16" s="189"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="73" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H16" s="71" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="I16" s="73" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="K16" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="73">
-        <v>7.9</v>
+        <v>157</v>
+      </c>
+      <c r="K16" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="131">
+        <v>32.67</v>
       </c>
       <c r="M16" s="74">
         <f t="shared" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="S16" s="160">
-        <v>1</v>
-      </c>
+        <v>65.34</v>
+      </c>
+      <c r="S16" s="205"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="192" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="194">
-        <v>4</v>
-      </c>
-      <c r="E17" s="194"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="225" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="194" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="225" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="225" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="236" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="227">
-        <v>2.16</v>
-      </c>
-      <c r="M17" s="228">
+      <c r="B17" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71">
+        <v>1</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="131">
+        <v>32.67</v>
+      </c>
+      <c r="M17" s="74">
         <f t="shared" si="0"/>
-        <v>8.64</v>
-      </c>
-      <c r="S17" s="160">
-        <v>1</v>
-      </c>
+        <v>32.67</v>
+      </c>
+      <c r="S17" s="205"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="69" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="71">
@@ -3095,240 +3144,245 @@
       <c r="E18" s="71"/>
       <c r="F18" s="72"/>
       <c r="G18" s="73" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="H18" s="71" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="I18" s="73" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="133">
-        <v>4.5</v>
+        <v>157</v>
+      </c>
+      <c r="K18" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="131">
+        <v>30.39</v>
       </c>
       <c r="M18" s="74">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
+        <v>30.39</v>
+      </c>
+      <c r="S18" s="205"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65">
+      <c r="B19" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71">
         <v>1</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="75" t="s">
-        <v>36</v>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="L19" s="131">
-        <v>0.48</v>
-      </c>
-      <c r="M19" s="68">
+        <v>73.78</v>
+      </c>
+      <c r="M19" s="74">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="O19" s="76"/>
+        <v>73.78</v>
+      </c>
+      <c r="S19" s="205"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="69" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C20" s="70"/>
       <c r="D20" s="71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="72"/>
       <c r="G20" s="73" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H20" s="71" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I20" s="73" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="133">
-        <v>2.4900000000000002</v>
+        <v>157</v>
+      </c>
+      <c r="K20" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="131">
+        <v>67.72</v>
       </c>
       <c r="M20" s="74">
         <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="S20" s="160">
-        <v>1</v>
-      </c>
+        <v>67.72</v>
+      </c>
+      <c r="S20" s="205"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="161" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="162">
-        <v>4</v>
-      </c>
-      <c r="E21" s="162"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="222" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="162" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="222" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="222" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="223" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="167">
-        <v>49</v>
-      </c>
-      <c r="M21" s="168">
+      <c r="B21" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71">
+        <v>1</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="131">
+        <v>51.48</v>
+      </c>
+      <c r="M21" s="74">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="S21" s="160">
+        <v>51.48</v>
+      </c>
+      <c r="S21" s="205"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="190" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="96">
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="131">
+        <v>99.76</v>
+      </c>
+      <c r="M22" s="74">
+        <f t="shared" si="0"/>
+        <v>99.76</v>
+      </c>
+      <c r="S22" s="205"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71">
+        <v>1</v>
+      </c>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="131">
+        <v>104.4</v>
+      </c>
+      <c r="M23" s="74">
+        <f t="shared" si="0"/>
+        <v>104.4</v>
+      </c>
+      <c r="S23" s="205"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65">
         <v>8</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="46">
-        <v>10.14</v>
-      </c>
-      <c r="M22" s="48">
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="129">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M24" s="68">
         <f t="shared" si="0"/>
-        <v>81.12</v>
-      </c>
-      <c r="S22" s="231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="K23" s="170" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="S23" s="231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="192" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="194">
-        <v>1</v>
-      </c>
-      <c r="E24" s="194"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="225" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="225" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="225" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="226" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="227">
-        <v>400</v>
-      </c>
-      <c r="M24" s="228">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="S24" s="231">
-        <v>1</v>
-      </c>
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="O24" s="223"/>
+      <c r="P24" s="223"/>
+      <c r="S24" s="205"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="69" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C25" s="70"/>
       <c r="D25" s="71">
@@ -3337,2012 +3391,2450 @@
       <c r="E25" s="71"/>
       <c r="F25" s="72"/>
       <c r="G25" s="73" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="H25" s="71" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="I25" s="73" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J25" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="133">
-        <v>1.6</v>
+        <v>134</v>
+      </c>
+      <c r="K25" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="131">
+        <v>2.4900000000000002</v>
       </c>
       <c r="M25" s="74">
         <f t="shared" si="0"/>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="O25" s="223"/>
+      <c r="P25" s="223"/>
+      <c r="S25" s="205"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="160" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="161">
+        <v>2</v>
+      </c>
+      <c r="E26" s="161"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="166" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="168">
+        <v>5</v>
+      </c>
+      <c r="M26" s="169">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="223"/>
+      <c r="P26" s="223"/>
+      <c r="S26" s="205"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="161">
+        <v>8</v>
+      </c>
+      <c r="E27" s="161"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="166" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="161" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="166" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="168">
+        <v>1.37</v>
+      </c>
+      <c r="M27" s="169">
+        <f t="shared" si="0"/>
+        <v>10.96</v>
+      </c>
+      <c r="O27" s="223"/>
+      <c r="P27" s="223"/>
+      <c r="S27" s="205"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="160" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="161">
+        <v>1</v>
+      </c>
+      <c r="E28" s="161"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="161" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="166" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="168">
+        <v>17.7</v>
+      </c>
+      <c r="M28" s="169">
+        <f t="shared" si="0"/>
+        <v>17.7</v>
+      </c>
+      <c r="O28" s="223"/>
+      <c r="P28" s="223"/>
+      <c r="S28" s="205"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="160" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="161">
+        <v>1</v>
+      </c>
+      <c r="E29" s="161"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="166" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="168">
+        <v>6.75</v>
+      </c>
+      <c r="M29" s="169">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="O29" s="223"/>
+      <c r="P29" s="223"/>
+      <c r="S29" s="205"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="160" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="161">
+        <v>1</v>
+      </c>
+      <c r="E30" s="161"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="166" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="166" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="168">
+        <v>21.86</v>
+      </c>
+      <c r="M30" s="169">
+        <f t="shared" si="0"/>
+        <v>21.86</v>
+      </c>
+      <c r="O30" s="223"/>
+      <c r="P30" s="223"/>
+      <c r="S30" s="205"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="160" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="161">
+        <v>1</v>
+      </c>
+      <c r="E31" s="161"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="166" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="166" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="168">
+        <v>21.86</v>
+      </c>
+      <c r="M31" s="169">
+        <f t="shared" si="0"/>
+        <v>21.86</v>
+      </c>
+      <c r="O31" s="223"/>
+      <c r="P31" s="223"/>
+      <c r="S31" s="205"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="160" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="161">
+        <v>1</v>
+      </c>
+      <c r="E32" s="161"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="166" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="161" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="166" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="168">
+        <v>1.58</v>
+      </c>
+      <c r="M32" s="169">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="O32" s="223"/>
+      <c r="P32" s="223"/>
+      <c r="S32" s="205"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="160" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="161">
+        <v>1</v>
+      </c>
+      <c r="E33" s="161"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="166" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" s="161" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="166" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="168">
+        <v>1.58</v>
+      </c>
+      <c r="M33" s="169">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="O33" s="223"/>
+      <c r="P33" s="223"/>
+      <c r="S33" s="205"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="161">
+        <v>1</v>
+      </c>
+      <c r="E34" s="161"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="166" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="161" t="s">
+        <v>190</v>
+      </c>
+      <c r="I34" s="166" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="168">
+        <v>1.58</v>
+      </c>
+      <c r="M34" s="169">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="O34" s="223"/>
+      <c r="P34" s="223"/>
+      <c r="S34" s="205"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="160" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="161">
+        <v>1</v>
+      </c>
+      <c r="E35" s="161"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="166" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="161" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" s="166" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="168">
+        <v>1.58</v>
+      </c>
+      <c r="M35" s="169">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="O35" s="223"/>
+      <c r="P35" s="223"/>
+      <c r="S35" s="205"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="160" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="161">
+        <v>2</v>
+      </c>
+      <c r="E36" s="161"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="161" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="166" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="168">
+        <v>541.63</v>
+      </c>
+      <c r="M36" s="169">
+        <f t="shared" si="0"/>
+        <v>1083.26</v>
+      </c>
+      <c r="O36" s="223"/>
+      <c r="P36" s="223"/>
+      <c r="S36" s="205"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="160" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="161">
+        <v>2</v>
+      </c>
+      <c r="E37" s="161"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="161" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="166" t="s">
+        <v>200</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="168">
+        <v>541.79999999999995</v>
+      </c>
+      <c r="M37" s="169">
+        <f t="shared" si="0"/>
+        <v>1083.5999999999999</v>
+      </c>
+      <c r="O37" s="223"/>
+      <c r="P37" s="223"/>
+      <c r="S37" s="205"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="160" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="161">
+        <v>1</v>
+      </c>
+      <c r="E38" s="161"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" s="161" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="166" t="s">
+        <v>200</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="168">
+        <v>377.6</v>
+      </c>
+      <c r="M38" s="169">
+        <f t="shared" si="0"/>
+        <v>377.6</v>
+      </c>
+      <c r="O38" s="223"/>
+      <c r="P38" s="223"/>
+      <c r="S38" s="205"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="161">
+        <v>2</v>
+      </c>
+      <c r="E39" s="161"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="166" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="166" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="168">
+        <v>117.04</v>
+      </c>
+      <c r="M39" s="169">
+        <f t="shared" si="0"/>
+        <v>234.08</v>
+      </c>
+      <c r="O39" s="223"/>
+      <c r="P39" s="223"/>
+      <c r="S39" s="205"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="85">
+        <v>1</v>
+      </c>
+      <c r="E40" s="85"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="K40" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="130">
+        <v>61.66</v>
+      </c>
+      <c r="M40" s="171">
+        <f>L40*D40</f>
+        <v>61.66</v>
+      </c>
+      <c r="S40" s="205"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="158" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="159">
+        <v>4</v>
+      </c>
+      <c r="E41" s="159"/>
+      <c r="F41" s="193"/>
+      <c r="G41" s="194" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="194" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="164">
+        <v>49</v>
+      </c>
+      <c r="M41" s="165">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="O41" s="223"/>
+      <c r="P41" s="223"/>
+      <c r="S41" s="205"/>
+    </row>
+    <row r="42" spans="1:19" s="78" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="76"/>
+      <c r="B42" s="187" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="201"/>
+      <c r="D42" s="95">
+        <v>8</v>
+      </c>
+      <c r="E42" s="95"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="46">
+        <v>10.14</v>
+      </c>
+      <c r="M42" s="48">
+        <f t="shared" si="0"/>
+        <v>81.12</v>
+      </c>
+      <c r="O42" s="224"/>
+      <c r="P42" s="224"/>
+      <c r="S42" s="205"/>
+    </row>
+    <row r="43" spans="1:19" s="78" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="76"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="167" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="51"/>
+      <c r="M43" s="52"/>
+      <c r="O43" s="224"/>
+      <c r="P43" s="224"/>
+      <c r="S43" s="205"/>
+    </row>
+    <row r="44" spans="1:19" s="78" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="76"/>
+      <c r="B44" s="189" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="190">
+        <v>1</v>
+      </c>
+      <c r="E44" s="190"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="197" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="190" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="197" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="197" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="198" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="199">
+        <v>400</v>
+      </c>
+      <c r="M44" s="200">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="O44" s="224"/>
+      <c r="P44" s="224"/>
+      <c r="S44" s="205"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71">
+        <v>4</v>
+      </c>
+      <c r="E45" s="71"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="131">
+        <v>1.6</v>
+      </c>
+      <c r="M45" s="74">
+        <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="O25" s="76"/>
-      <c r="S25" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="71" t="s">
+      <c r="O45" s="223"/>
+      <c r="P45" s="223"/>
+      <c r="S45" s="205"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="133"/>
-      <c r="M26" s="74"/>
-      <c r="S26" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="63" t="s">
+      <c r="I46" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65">
+      <c r="K46" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="131"/>
+      <c r="M46" s="74"/>
+      <c r="O46" s="223"/>
+      <c r="P46" s="223"/>
+      <c r="S46" s="205"/>
+    </row>
+    <row r="47" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="79"/>
+      <c r="B47" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65">
         <v>2</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="65" t="s">
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="131">
+      <c r="I47" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" s="129">
         <v>315</v>
       </c>
-      <c r="M27" s="68">
+      <c r="M47" s="68">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="81"/>
-      <c r="Q27" s="82"/>
-      <c r="S27" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="163" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="164">
+      <c r="N47" s="1"/>
+      <c r="O47" s="80"/>
+      <c r="Q47" s="81"/>
+      <c r="S47" s="205"/>
+    </row>
+    <row r="48" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="79"/>
+      <c r="B48" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="58"/>
+      <c r="D48" s="161">
         <v>12</v>
       </c>
-      <c r="E28" s="164"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="169" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="164" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="169" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="169" t="s">
-        <v>119</v>
-      </c>
-      <c r="K28" s="170" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="171">
+      <c r="E48" s="161"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="161" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="166" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="167" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="168">
         <v>0.18</v>
       </c>
-      <c r="M28" s="172">
+      <c r="M48" s="169">
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="81"/>
-      <c r="Q28" s="82"/>
-      <c r="S28" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="80"/>
-      <c r="B29" s="91" t="s">
+      <c r="N48" s="1"/>
+      <c r="O48" s="80"/>
+      <c r="Q48" s="81"/>
+      <c r="S48" s="205"/>
+    </row>
+    <row r="49" spans="1:19" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="79"/>
+      <c r="B49" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="180"/>
+      <c r="D49" s="29">
+        <v>3</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="176" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="183"/>
-      <c r="D29" s="29">
-        <v>3</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="179" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="175" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="177" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="31">
+      <c r="K49" s="174" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" s="31">
         <v>3.98</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M49" s="33">
         <f t="shared" si="0"/>
         <v>11.94</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="81"/>
-      <c r="Q29" s="82"/>
-      <c r="S29" s="160">
+      <c r="N49" s="1"/>
+      <c r="O49" s="80"/>
+      <c r="Q49" s="81"/>
+      <c r="S49" s="205"/>
+    </row>
+    <row r="50" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="79"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="177" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="173" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="K50" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="56"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="80"/>
+      <c r="Q50" s="81"/>
+      <c r="S50" s="205"/>
+    </row>
+    <row r="51" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="79"/>
+      <c r="B51" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="70"/>
+      <c r="D51" s="71">
+        <v>3</v>
+      </c>
+      <c r="E51" s="71"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" s="131">
+        <v>10</v>
+      </c>
+      <c r="M51" s="74">
+        <f>L51*D51</f>
+        <v>30</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="80"/>
+      <c r="Q51" s="81"/>
+      <c r="S51" s="205"/>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65">
+        <v>3</v>
+      </c>
+      <c r="E52" s="65"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="129">
+        <v>1.23</v>
+      </c>
+      <c r="M52" s="68">
+        <f>L52*D52</f>
+        <v>3.69</v>
+      </c>
+      <c r="S52" s="205"/>
+    </row>
+    <row r="53" spans="1:19" s="83" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="82"/>
+      <c r="B53" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="70"/>
+      <c r="D53" s="71">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="180" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="176" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" s="134" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="56"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="81"/>
-      <c r="Q30" s="82"/>
-      <c r="S30" s="160">
+      <c r="E53" s="71"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="131">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="M53" s="74">
+        <f>L53*D53</f>
+        <v>16.059999999999999</v>
+      </c>
+      <c r="O53" s="84"/>
+      <c r="S53" s="205"/>
+    </row>
+    <row r="54" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="79"/>
+      <c r="B54" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="86">
+      <c r="E54" s="65"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" s="129">
+        <v>5</v>
+      </c>
+      <c r="M54" s="68">
+        <f>L54*D54</f>
+        <v>5</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="80"/>
+      <c r="Q54" s="81"/>
+      <c r="S54" s="205"/>
+    </row>
+    <row r="55" spans="1:19" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="191"/>
+      <c r="D55" s="161">
         <v>1</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="K31" s="173" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="132">
-        <v>61.66</v>
-      </c>
-      <c r="M31" s="174">
-        <f t="shared" si="0"/>
-        <v>61.66</v>
-      </c>
-      <c r="S31" s="160">
+      <c r="E55" s="95"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="L55" s="126">
+        <v>12.38</v>
+      </c>
+      <c r="M55" s="48">
+        <f>L55*D55</f>
+        <v>12.38</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="80"/>
+      <c r="Q55" s="81"/>
+      <c r="S55" s="205"/>
+    </row>
+    <row r="56" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="192"/>
+      <c r="D56" s="85">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="63" t="s">
+      <c r="E56" s="96"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65">
+      <c r="K56" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" s="127">
+        <v>3.07</v>
+      </c>
+      <c r="M56" s="52">
+        <f>L56*D56</f>
+        <v>3.07</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="80"/>
+      <c r="Q56" s="81"/>
+      <c r="S56" s="205"/>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="131">
-        <v>7.93</v>
-      </c>
-      <c r="M32" s="68">
-        <f t="shared" si="0"/>
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71">
-        <v>3</v>
-      </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="133">
-        <v>10</v>
-      </c>
-      <c r="M33" s="74">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="81"/>
-      <c r="Q33" s="82"/>
-      <c r="S33" s="160">
+      <c r="G57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K57" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="52">
+        <f>L57*D57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65">
-        <v>3</v>
-      </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="131">
-        <v>1.23</v>
-      </c>
-      <c r="M34" s="68">
-        <f t="shared" si="0"/>
-        <v>3.69</v>
-      </c>
-      <c r="S34" s="160">
+      <c r="G58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K58" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="24">
+        <f>L58*D58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="L59" s="142"/>
+      <c r="M59" s="141">
+        <f>SUM(M8:M56)</f>
+        <v>6322.21</v>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="80"/>
+      <c r="Q59" s="81"/>
+      <c r="S59" s="205"/>
+    </row>
+    <row r="60" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="80"/>
+      <c r="Q60" s="81"/>
+      <c r="S60" s="205"/>
+    </row>
+    <row r="61" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="215" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="221"/>
+      <c r="D61" s="219">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71">
-        <v>1</v>
-      </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="K35" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" s="133">
-        <v>16.059999999999999</v>
-      </c>
-      <c r="M35" s="74">
-        <f t="shared" si="0"/>
-        <v>16.059999999999999</v>
-      </c>
-      <c r="O35" s="85"/>
-      <c r="S35" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65">
-        <v>1</v>
-      </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67" t="s">
+      <c r="E61" s="29"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="131">
-        <v>10</v>
-      </c>
-      <c r="M36" s="68">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="81"/>
-      <c r="Q36" s="82"/>
-      <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71">
-        <v>4</v>
-      </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37" s="133">
-        <v>16</v>
-      </c>
-      <c r="M37" s="74">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="81"/>
-      <c r="Q37" s="82"/>
-      <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65">
-        <v>1</v>
-      </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67" t="s">
+      <c r="H61" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K61" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="31">
+        <v>20.9</v>
+      </c>
+      <c r="M61" s="33">
+        <f t="shared" ref="M61:M63" si="1">L61*D61</f>
+        <v>20.9</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="80"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="205"/>
+      <c r="S61" s="205"/>
+    </row>
+    <row r="62" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="216"/>
+      <c r="C62" s="222"/>
+      <c r="D62" s="220"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="135"/>
+      <c r="G62" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" s="136"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="44"/>
+      <c r="S62" s="205"/>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="67" t="s">
+      <c r="C63" s="208"/>
+      <c r="D63" s="210">
+        <v>2</v>
+      </c>
+      <c r="E63" s="95"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K38" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="131">
-        <v>3.05</v>
-      </c>
-      <c r="M38" s="68">
-        <f t="shared" si="0"/>
-        <v>3.05</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="81"/>
-      <c r="Q38" s="82"/>
-      <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71">
-        <v>1</v>
-      </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="K39" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="133">
-        <v>2.29</v>
-      </c>
-      <c r="M39" s="74">
-        <f t="shared" si="0"/>
-        <v>2.29</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="81"/>
-      <c r="Q39" s="82"/>
-      <c r="S39" s="1"/>
-    </row>
-    <row r="40" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65">
-        <v>1</v>
-      </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J40" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="L40" s="131">
-        <v>5</v>
-      </c>
-      <c r="M40" s="68">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="81"/>
-      <c r="Q40" s="82"/>
-      <c r="S40" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="208" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="210" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="212">
-        <v>1</v>
-      </c>
-      <c r="E41" s="96"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="128">
-        <v>11.5</v>
-      </c>
-      <c r="M41" s="48">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="81"/>
-      <c r="Q41" s="82"/>
-      <c r="S41" s="1"/>
-    </row>
-    <row r="42" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="209"/>
-      <c r="C42" s="211"/>
-      <c r="D42" s="213"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="97"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="81"/>
-      <c r="Q42" s="82"/>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="141" t="s">
-        <v>79</v>
-      </c>
-      <c r="L43" s="144"/>
-      <c r="M43" s="143">
-        <f>SUM(M8:M42)</f>
-        <v>3002.02</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="81"/>
-      <c r="Q43" s="82"/>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="100" t="s">
+      <c r="H63" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="81"/>
-      <c r="Q44" s="82"/>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="202" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="200"/>
-      <c r="D45" s="196">
-        <v>1</v>
-      </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" s="29" t="s">
+      <c r="I63" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="31">
-        <v>20.9</v>
-      </c>
-      <c r="M45" s="33">
-        <f t="shared" ref="M45:M47" si="1">L45*D45</f>
-        <v>20.9</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="81"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="241"/>
-      <c r="S45" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="203"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="197"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="138"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="44"/>
-      <c r="S46" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="204" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="206"/>
-      <c r="D47" s="198">
-        <v>2</v>
-      </c>
-      <c r="E47" s="96"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="H47" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K47" s="122" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="46">
+      <c r="K63" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="46">
         <v>5.49</v>
       </c>
-      <c r="M47" s="48">
+      <c r="M63" s="48">
         <f t="shared" si="1"/>
         <v>10.98</v>
       </c>
-      <c r="R47" s="241"/>
-      <c r="S47" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="205"/>
-      <c r="C48" s="207"/>
-      <c r="D48" s="199"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="124" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="62"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="52"/>
-      <c r="S48" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K49" s="141" t="s">
-        <v>79</v>
-      </c>
-      <c r="L49" s="142"/>
-      <c r="M49" s="143">
-        <f>SUM(M45:M48)</f>
+      <c r="R63" s="205"/>
+      <c r="S63" s="205"/>
+    </row>
+    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="207"/>
+      <c r="C64" s="209"/>
+      <c r="D64" s="211"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="62"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="123"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="52"/>
+      <c r="S64" s="205"/>
+    </row>
+    <row r="65" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="L65" s="140"/>
+      <c r="M65" s="141">
+        <f>SUM(M61:M64)</f>
         <v>31.88</v>
       </c>
-    </row>
-    <row r="50" spans="2:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="87" t="s">
+      <c r="S65" s="205"/>
+    </row>
+    <row r="66" spans="2:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="89"/>
-    </row>
-    <row r="51" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="63" t="s">
+      <c r="C66" s="86"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="88"/>
+      <c r="S66" s="205"/>
+    </row>
+    <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="100"/>
+      <c r="D67" s="65">
+        <v>4</v>
+      </c>
+      <c r="E67" s="65"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="H67" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="65">
-        <v>4</v>
-      </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="H51" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="J51" s="102" t="s">
+      <c r="K67" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" s="129">
+        <v>8.84</v>
+      </c>
+      <c r="M67" s="68">
+        <f t="shared" ref="M67:M90" si="2">L67*D67</f>
+        <v>35.36</v>
+      </c>
+      <c r="S67" s="205"/>
+    </row>
+    <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="105"/>
+      <c r="D68" s="106">
+        <v>56</v>
+      </c>
+      <c r="E68" s="106"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="L51" s="131">
-        <v>8.84</v>
-      </c>
-      <c r="M51" s="68">
-        <f t="shared" ref="M51:M74" si="2">L51*D51</f>
-        <v>35.36</v>
-      </c>
-      <c r="S51" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="106"/>
-      <c r="D52" s="107">
-        <v>56</v>
-      </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="J52" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="K52" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" s="140">
+      <c r="H68" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="K68" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="L68" s="138">
         <v>0.4</v>
       </c>
-      <c r="M52" s="172">
+      <c r="M68" s="169">
         <f t="shared" si="2"/>
         <v>22.400000000000002</v>
       </c>
-      <c r="S52" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="29">
+      <c r="S68" s="205"/>
+    </row>
+    <row r="69" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B69" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="91"/>
+      <c r="D69" s="29">
         <v>6</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="H53" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="I53" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="J53" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="K53" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="L53" s="31">
+      <c r="E69" s="29"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="K69" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" s="31">
         <v>1.84</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M69" s="33">
         <f t="shared" si="2"/>
         <v>11.040000000000001</v>
       </c>
-      <c r="S53" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="111"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="I54" s="123" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="113" t="s">
-        <v>167</v>
-      </c>
-      <c r="K54" s="234" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="56"/>
-      <c r="M54" s="57"/>
-      <c r="S54" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="105" t="s">
+      <c r="S69" s="205"/>
+    </row>
+    <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="110"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="K70" s="203" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="56"/>
+      <c r="M70" s="57"/>
+      <c r="S70" s="205"/>
+    </row>
+    <row r="71" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="105"/>
+      <c r="D71" s="106">
+        <v>20</v>
+      </c>
+      <c r="E71" s="106"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="K71" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="138">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M71" s="171">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="S71" s="205"/>
+    </row>
+    <row r="72" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="91"/>
+      <c r="D72" s="29">
+        <v>4</v>
+      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I72" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="107">
-        <v>20</v>
-      </c>
-      <c r="E55" s="107"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55" s="108" t="s">
-        <v>101</v>
-      </c>
-      <c r="K55" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="140">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M55" s="174">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="S55" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="29">
-        <v>4</v>
-      </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="K56" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="L56" s="126">
+      <c r="K72" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" s="124">
         <v>5.27</v>
       </c>
-      <c r="M56" s="33">
+      <c r="M72" s="33">
         <f t="shared" si="2"/>
         <v>21.08</v>
       </c>
-      <c r="S56" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="111"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="I57" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="K57" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="130"/>
-      <c r="M57" s="57"/>
-      <c r="S57" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="105" t="s">
+      <c r="S72" s="205"/>
+    </row>
+    <row r="73" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="110"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="I73" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="107">
+      <c r="K73" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="128"/>
+      <c r="M73" s="57"/>
+      <c r="S73" s="205"/>
+    </row>
+    <row r="74" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="105"/>
+      <c r="D74" s="106">
         <v>8</v>
       </c>
-      <c r="E58" s="107"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="H58" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="J58" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="K58" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="L58" s="140">
+      <c r="E74" s="106"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="L74" s="138">
         <v>5.08</v>
       </c>
-      <c r="M58" s="74">
+      <c r="M74" s="74">
         <f t="shared" si="2"/>
         <v>40.64</v>
       </c>
-      <c r="S58" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="63" t="s">
+      <c r="S74" s="205"/>
+    </row>
+    <row r="75" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="100"/>
+      <c r="D75" s="65">
+        <v>6</v>
+      </c>
+      <c r="E75" s="65"/>
+      <c r="F75" s="101"/>
+      <c r="G75" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="H75" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="J75" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="65">
-        <v>6</v>
-      </c>
-      <c r="E59" s="65"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102" t="s">
-        <v>139</v>
-      </c>
-      <c r="H59" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="J59" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="K59" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="L59" s="131">
+      <c r="K75" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="L75" s="129">
         <v>2</v>
       </c>
-      <c r="M59" s="68">
+      <c r="M75" s="68">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="S59" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="105" t="s">
+      <c r="S75" s="205"/>
+    </row>
+    <row r="76" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106">
+        <v>20</v>
+      </c>
+      <c r="E76" s="106"/>
+      <c r="F76" s="107"/>
+      <c r="G76" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="107">
-        <v>20</v>
-      </c>
-      <c r="E60" s="107"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="H60" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="J60" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="K60" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="140">
+      <c r="K76" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="138">
         <v>0.47</v>
       </c>
-      <c r="M60" s="172">
+      <c r="M76" s="169">
         <f t="shared" si="2"/>
         <v>9.3999999999999986</v>
       </c>
-      <c r="S60" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="92"/>
-      <c r="D61" s="29">
+      <c r="S76" s="205"/>
+    </row>
+    <row r="77" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="91"/>
+      <c r="D77" s="29">
         <v>24</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="K61" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="31">
+      <c r="E77" s="29"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="K77" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="31">
         <v>2</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M77" s="33">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="S61" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="111"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="J62" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="K62" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="L62" s="56"/>
-      <c r="M62" s="57"/>
-      <c r="S62" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="105" t="s">
+      <c r="S77" s="205"/>
+    </row>
+    <row r="78" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="110"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="112"/>
+      <c r="H78" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="106"/>
-      <c r="D63" s="107">
+      <c r="K78" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" s="56"/>
+      <c r="M78" s="57"/>
+      <c r="S78" s="205"/>
+    </row>
+    <row r="79" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="105"/>
+      <c r="D79" s="106">
         <v>16</v>
       </c>
-      <c r="E63" s="107"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="J63" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="K63" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="L63" s="140">
+      <c r="E79" s="106"/>
+      <c r="F79" s="107"/>
+      <c r="G79" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="138">
         <v>0.44</v>
       </c>
-      <c r="M63" s="174">
+      <c r="M79" s="171">
         <f t="shared" si="2"/>
         <v>7.04</v>
       </c>
-      <c r="S63" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="63" t="s">
+      <c r="S79" s="205"/>
+    </row>
+    <row r="80" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="100"/>
+      <c r="D80" s="65">
+        <v>32</v>
+      </c>
+      <c r="E80" s="65"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="101"/>
-      <c r="D64" s="65">
-        <v>32</v>
-      </c>
-      <c r="E64" s="65"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="H64" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="J64" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="K64" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="L64" s="131">
+      <c r="K80" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="L80" s="129">
         <v>2.08</v>
       </c>
-      <c r="M64" s="68">
+      <c r="M80" s="68">
         <f t="shared" si="2"/>
         <v>66.56</v>
       </c>
-      <c r="S64" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="107">
+      <c r="S80" s="205"/>
+    </row>
+    <row r="81" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="105"/>
+      <c r="D81" s="106">
         <v>4</v>
       </c>
-      <c r="E65" s="107"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="108" t="s">
+      <c r="E81" s="106"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H65" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="I65" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="K65" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="140">
+      <c r="K81" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="138">
         <v>0.12</v>
       </c>
-      <c r="M65" s="172">
+      <c r="M81" s="169">
         <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
-      <c r="S65" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="187"/>
-      <c r="D66" s="71">
+      <c r="S81" s="205"/>
+    </row>
+    <row r="82" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="184"/>
+      <c r="D82" s="71">
         <v>14</v>
       </c>
-      <c r="E66" s="71"/>
-      <c r="F66" s="188"/>
-      <c r="G66" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="H66" s="189" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="188" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="K66" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" s="133">
+      <c r="E82" s="71"/>
+      <c r="F82" s="185"/>
+      <c r="G82" s="185" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" s="186" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" s="185" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="185" t="s">
+        <v>103</v>
+      </c>
+      <c r="K82" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="131">
         <v>0.8</v>
       </c>
-      <c r="M66" s="74">
+      <c r="M82" s="74">
         <f t="shared" si="2"/>
         <v>11.200000000000001</v>
       </c>
-      <c r="S66" s="195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="63" t="s">
+      <c r="S82" s="205"/>
+    </row>
+    <row r="83" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="100"/>
+      <c r="D83" s="65">
+        <v>14</v>
+      </c>
+      <c r="E83" s="65"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H83" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="101"/>
-      <c r="D67" s="65">
-        <v>14</v>
-      </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="H67" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="I67" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="K67" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="131">
+      <c r="K83" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="129">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M67" s="68">
+      <c r="M83" s="68">
         <f t="shared" si="2"/>
         <v>16.239999999999998</v>
       </c>
-      <c r="S67" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="106"/>
-      <c r="D68" s="107">
+      <c r="S83" s="205"/>
+    </row>
+    <row r="84" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="105"/>
+      <c r="D84" s="106">
         <v>8</v>
       </c>
-      <c r="E68" s="107"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="H68" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I68" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="J68" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="K68" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L68" s="140">
+      <c r="E84" s="106"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="K84" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="138">
         <v>2.09</v>
       </c>
-      <c r="M68" s="74">
+      <c r="M84" s="74">
         <f t="shared" si="2"/>
         <v>16.72</v>
       </c>
-      <c r="S68" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="101"/>
-      <c r="D69" s="65">
+      <c r="S84" s="205"/>
+    </row>
+    <row r="85" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="100"/>
+      <c r="D85" s="65">
         <v>4</v>
       </c>
-      <c r="E69" s="65"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="K69" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="L69" s="131">
+      <c r="E85" s="65"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="K85" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" s="129">
         <v>2.9</v>
       </c>
-      <c r="M69" s="68">
+      <c r="M85" s="68">
         <f t="shared" si="2"/>
         <v>11.6</v>
       </c>
-      <c r="S69" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="109"/>
-      <c r="D70" s="107">
+      <c r="S85" s="205"/>
+    </row>
+    <row r="86" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="108"/>
+      <c r="D86" s="106">
         <v>16</v>
       </c>
-      <c r="E70" s="107"/>
-      <c r="F70" s="115"/>
-      <c r="G70" s="115" t="s">
+      <c r="E86" s="106"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" s="140">
+      <c r="K86" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="138">
         <v>0.6</v>
       </c>
-      <c r="M70" s="74">
+      <c r="M86" s="74">
         <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
-      <c r="S70" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="103"/>
-      <c r="D71" s="65">
+      <c r="S86" s="205"/>
+    </row>
+    <row r="87" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="102"/>
+      <c r="D87" s="65">
         <v>12</v>
       </c>
-      <c r="E71" s="65"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="H71" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="I71" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="K71" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="L71" s="131">
+      <c r="E87" s="65"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H87" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="I87" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="K87" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="129">
         <v>6.53</v>
       </c>
-      <c r="M71" s="68">
+      <c r="M87" s="68">
         <f t="shared" si="2"/>
         <v>78.36</v>
       </c>
-      <c r="S71" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="109"/>
-      <c r="D72" s="107">
+      <c r="S87" s="205"/>
+    </row>
+    <row r="88" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="108"/>
+      <c r="D88" s="106">
         <v>4</v>
       </c>
-      <c r="E72" s="107"/>
-      <c r="F72" s="115"/>
-      <c r="G72" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="H72" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="I72" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="J72" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="K72" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L72" s="140">
+      <c r="E88" s="106"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="I88" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="K88" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="138">
         <v>3.7</v>
       </c>
-      <c r="M72" s="74">
+      <c r="M88" s="74">
         <f t="shared" si="2"/>
         <v>14.8</v>
       </c>
-      <c r="S72" s="160">
+      <c r="S88" s="205"/>
+    </row>
+    <row r="89" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="102"/>
+      <c r="D89" s="65">
+        <v>4</v>
+      </c>
+      <c r="E89" s="65"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="J89" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="L89" s="129">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="103"/>
-      <c r="D73" s="65">
-        <v>4</v>
-      </c>
-      <c r="E73" s="65"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="H73" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="I73" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="J73" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="K73" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="L73" s="131">
-        <v>1</v>
-      </c>
-      <c r="M73" s="68">
+      <c r="M89" s="68">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="S73" s="160">
+      <c r="S89" s="205"/>
+    </row>
+    <row r="90" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="115"/>
+      <c r="D90" s="85">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="116"/>
-      <c r="D74" s="86">
-        <v>1</v>
-      </c>
-      <c r="E74" s="86"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="H74" s="86" t="s">
+      <c r="E90" s="85"/>
+      <c r="F90" s="97"/>
+      <c r="G90" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H90" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="K74" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="L74" s="132">
+      <c r="I90" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="K90" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="130">
         <v>5.6</v>
       </c>
-      <c r="M74" s="74">
+      <c r="M90" s="74">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
-      <c r="S74" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="F75" s="1"/>
-      <c r="K75" s="141" t="s">
-        <v>79</v>
-      </c>
-      <c r="L75" s="142"/>
-      <c r="M75" s="143">
-        <f>SUM(M51:M74)</f>
-        <v>464.12000000000006</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="K77" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="L77" s="142"/>
-      <c r="M77" s="143">
-        <f>M43+M49+M75</f>
-        <v>3498.02</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="101"/>
-      <c r="D82" s="65">
-        <v>1</v>
-      </c>
-      <c r="E82" s="65"/>
-      <c r="F82" s="102"/>
-      <c r="G82" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="H82" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="K82" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" s="131">
-        <v>50</v>
-      </c>
-      <c r="M82" s="68">
-        <f t="shared" ref="M82" si="3">L82*D82</f>
-        <v>50</v>
-      </c>
-      <c r="S82" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" s="101"/>
-      <c r="D83" s="65">
-        <v>1</v>
-      </c>
-      <c r="E83" s="65"/>
-      <c r="F83" s="102"/>
-      <c r="G83" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="H83" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J83" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="K83" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="L83" s="131">
-        <v>50</v>
-      </c>
-      <c r="M83" s="68">
-        <f t="shared" ref="M83" si="4">L83*D83</f>
-        <v>50</v>
-      </c>
-      <c r="S83" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="161" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84" s="165"/>
-      <c r="D84" s="162">
-        <v>1</v>
-      </c>
-      <c r="E84" s="162"/>
-      <c r="F84" s="166"/>
-      <c r="G84" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="H84" s="162" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" s="166" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="K84" s="178" t="s">
-        <v>22</v>
-      </c>
-      <c r="L84" s="167">
-        <v>50</v>
-      </c>
-      <c r="M84" s="168">
-        <f t="shared" ref="M84" si="5">L84*D84</f>
-        <v>50</v>
-      </c>
-      <c r="S84" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B85" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" s="92"/>
-      <c r="D85" s="29">
-        <v>1</v>
-      </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="H85" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="J85" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="K85" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="L85" s="31">
-        <v>50</v>
-      </c>
-      <c r="M85" s="33">
-        <f t="shared" ref="M85" si="6">L85*D85</f>
-        <v>50</v>
-      </c>
-      <c r="S85" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="111"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="113"/>
-      <c r="G86" s="113"/>
-      <c r="H86" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="K86" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="L86" s="56"/>
-      <c r="M86" s="57">
-        <f t="shared" ref="M86:M87" si="7">L86*D86</f>
-        <v>0</v>
-      </c>
-      <c r="S86" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C87" s="101"/>
-      <c r="D87" s="65">
-        <v>1</v>
-      </c>
-      <c r="E87" s="65"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="H87" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="J87" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="K87" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="L87" s="67">
-        <v>50</v>
-      </c>
-      <c r="M87" s="68">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="S87" s="160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S90" s="205"/>
+    </row>
+    <row r="91" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
+      <c r="F91" s="1"/>
+      <c r="K91" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="L91" s="140"/>
+      <c r="M91" s="141">
+        <f>SUM(M67:M90)</f>
+        <v>464.12000000000006</v>
+      </c>
+      <c r="S91" s="205"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="S92" s="205"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
+      <c r="S94" s="205"/>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
+      <c r="S95" s="205"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B97" s="4"/>
+      <c r="S96" s="205"/>
+    </row>
+    <row r="97" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="86" t="s">
+        <v>89</v>
+      </c>
       <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="S97" s="205"/>
+    </row>
+    <row r="98" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="100"/>
+      <c r="D98" s="65">
+        <v>1</v>
+      </c>
+      <c r="E98" s="65"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="H98" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="K98" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" s="129">
+        <v>50</v>
+      </c>
+      <c r="M98" s="68">
+        <f t="shared" ref="M98" si="3">L98*D98</f>
+        <v>50</v>
+      </c>
+      <c r="S98" s="205"/>
+    </row>
+    <row r="99" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="100"/>
+      <c r="D99" s="65">
+        <v>1</v>
+      </c>
+      <c r="E99" s="65"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="H99" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="K99" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" s="129">
+        <v>50</v>
+      </c>
+      <c r="M99" s="68">
+        <f t="shared" ref="M99" si="4">L99*D99</f>
+        <v>50</v>
+      </c>
+      <c r="S99" s="205"/>
+    </row>
+    <row r="100" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="158" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="162"/>
+      <c r="D100" s="159">
+        <v>1</v>
+      </c>
+      <c r="E100" s="159"/>
+      <c r="F100" s="163"/>
+      <c r="G100" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="H100" s="159" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="163" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="163" t="s">
+        <v>93</v>
+      </c>
+      <c r="K100" s="175" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" s="164">
+        <v>50</v>
+      </c>
+      <c r="M100" s="165">
+        <f t="shared" ref="M100" si="5">L100*D100</f>
+        <v>50</v>
+      </c>
+      <c r="S100" s="205"/>
+    </row>
+    <row r="101" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B101" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="91"/>
+      <c r="D101" s="29">
+        <v>1</v>
+      </c>
+      <c r="E101" s="29"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="J101" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="K101" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="L101" s="31">
+        <v>50</v>
+      </c>
+      <c r="M101" s="33">
+        <f t="shared" ref="M101" si="6">L101*D101</f>
+        <v>50</v>
+      </c>
+      <c r="S101" s="205"/>
+    </row>
+    <row r="102" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="110"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="112"/>
+      <c r="G102" s="112"/>
+      <c r="H102" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="K102" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" s="56"/>
+      <c r="M102" s="57">
+        <f t="shared" ref="M102:M103" si="7">L102*D102</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="205"/>
+    </row>
+    <row r="103" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="100"/>
+      <c r="D103" s="65">
+        <v>1</v>
+      </c>
+      <c r="E103" s="65"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="H103" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="J103" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="K103" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="L103" s="67">
+        <v>50</v>
+      </c>
+      <c r="M103" s="68">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="S103" s="205"/>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="S104" s="205"/>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="S105" s="205"/>
+    </row>
+    <row r="106" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="S106" s="205"/>
+    </row>
+    <row r="107" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="K107" s="139" t="s">
+        <v>63</v>
+      </c>
+      <c r="L107" s="140"/>
+      <c r="M107" s="141">
+        <f>M59+M65+M91</f>
+        <v>6818.21</v>
+      </c>
+      <c r="S107" s="205"/>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
     </row>
@@ -6078,107 +6570,187 @@
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
     </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B302" s="4"/>
+      <c r="C302" s="4"/>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B303" s="4"/>
+      <c r="C303" s="4"/>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+  <mergeCells count="13">
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K51" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
-    <hyperlink ref="K52" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
-    <hyperlink ref="K53" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
-    <hyperlink ref="K55" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
-    <hyperlink ref="K57" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
-    <hyperlink ref="K56" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
-    <hyperlink ref="K58" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
-    <hyperlink ref="K60" r:id="rId9" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
-    <hyperlink ref="K61" r:id="rId10" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
-    <hyperlink ref="K63" r:id="rId11" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
-    <hyperlink ref="K65" r:id="rId12" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
-    <hyperlink ref="K67" r:id="rId13" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
-    <hyperlink ref="K68" r:id="rId14" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
-    <hyperlink ref="K69" r:id="rId15" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
-    <hyperlink ref="K70" r:id="rId16" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
-    <hyperlink ref="K71" r:id="rId17" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
-    <hyperlink ref="K72" r:id="rId18" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
-    <hyperlink ref="K73" r:id="rId19" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
-    <hyperlink ref="K74" r:id="rId20" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
-    <hyperlink ref="K45" r:id="rId21" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
-    <hyperlink ref="K47" r:id="rId22" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
+    <hyperlink ref="K67" r:id="rId2" xr:uid="{C73C1169-FDF1-45E5-9DE3-A91BF9F61F35}"/>
+    <hyperlink ref="K68" r:id="rId3" xr:uid="{F447BF97-6662-476A-9EAB-776C19E65423}"/>
+    <hyperlink ref="K69" r:id="rId4" xr:uid="{349CED35-411C-40EA-A2D1-D923BB975D48}"/>
+    <hyperlink ref="K71" r:id="rId5" xr:uid="{C50ADA7F-DA45-4EDF-987E-C5FE06237EB0}"/>
+    <hyperlink ref="K73" r:id="rId6" xr:uid="{ACA6E6A1-B3B0-433B-8297-5986A6083CB1}"/>
+    <hyperlink ref="K72" r:id="rId7" xr:uid="{091378A6-6378-4149-B9D6-80655DD54172}"/>
+    <hyperlink ref="K74" r:id="rId8" xr:uid="{00C5D41C-15E6-47FA-B1D8-208373CD4056}"/>
+    <hyperlink ref="K76" r:id="rId9" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
+    <hyperlink ref="K77" r:id="rId10" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
+    <hyperlink ref="K79" r:id="rId11" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
+    <hyperlink ref="K81" r:id="rId12" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
+    <hyperlink ref="K83" r:id="rId13" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
+    <hyperlink ref="K84" r:id="rId14" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
+    <hyperlink ref="K85" r:id="rId15" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
+    <hyperlink ref="K86" r:id="rId16" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
+    <hyperlink ref="K87" r:id="rId17" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
+    <hyperlink ref="K88" r:id="rId18" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
+    <hyperlink ref="K89" r:id="rId19" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
+    <hyperlink ref="K90" r:id="rId20" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
+    <hyperlink ref="K61" r:id="rId21" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
+    <hyperlink ref="K63" r:id="rId22" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
     <hyperlink ref="K8" r:id="rId23" xr:uid="{7B631EFD-FBB0-414A-ABB9-E4EF1004CB36}"/>
     <hyperlink ref="K9" r:id="rId24" xr:uid="{E26C9157-F701-4202-8C8A-2A5490BB2432}"/>
-    <hyperlink ref="K13" r:id="rId25" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
-    <hyperlink ref="K15" r:id="rId26" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
-    <hyperlink ref="K17" r:id="rId27" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
-    <hyperlink ref="K18" r:id="rId28" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
-    <hyperlink ref="K19" r:id="rId29" xr:uid="{8623CD09-3F1E-4EBC-A650-32779CBF8D38}"/>
-    <hyperlink ref="K20" r:id="rId30" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
-    <hyperlink ref="K21" r:id="rId31" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
-    <hyperlink ref="K22" r:id="rId32" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
-    <hyperlink ref="K24" r:id="rId33" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
-    <hyperlink ref="K25" r:id="rId34" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
-    <hyperlink ref="K27" r:id="rId35" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
-    <hyperlink ref="K28" r:id="rId36" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
-    <hyperlink ref="K29" r:id="rId37" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
-    <hyperlink ref="K31" r:id="rId38" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
-    <hyperlink ref="K32" r:id="rId39" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
-    <hyperlink ref="K33" r:id="rId40" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
-    <hyperlink ref="K34" r:id="rId41" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
-    <hyperlink ref="K35" r:id="rId42" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
-    <hyperlink ref="K36" r:id="rId43" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
-    <hyperlink ref="K37" r:id="rId44" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
-    <hyperlink ref="K40" r:id="rId45" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
-    <hyperlink ref="K41" r:id="rId46" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
-    <hyperlink ref="K38" r:id="rId47" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
-    <hyperlink ref="K39" r:id="rId48" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
-    <hyperlink ref="K64" r:id="rId49" xr:uid="{B270F44D-5DCA-4473-A1B5-4E0C4CABA102}"/>
-    <hyperlink ref="K82" r:id="rId50" xr:uid="{6378F978-E6E0-4D99-BBC2-0965287F858B}"/>
-    <hyperlink ref="K83" r:id="rId51" xr:uid="{843877E7-70BA-44E4-AE96-525FCD8022C5}"/>
-    <hyperlink ref="K84" r:id="rId52" xr:uid="{33C0E0FA-9E87-4BED-BA68-5C3503F7C6FD}"/>
-    <hyperlink ref="K85" r:id="rId53" xr:uid="{D6016C3F-255A-400C-AD59-5D277E5DFF38}"/>
-    <hyperlink ref="K86" r:id="rId54" xr:uid="{24D23601-704A-49AD-8C06-8EC8857B8841}"/>
-    <hyperlink ref="K87" r:id="rId55" xr:uid="{E2598E4E-BD4E-49AA-B4A5-C6E3BC5B2280}"/>
-    <hyperlink ref="K30" r:id="rId56" xr:uid="{0029815D-CA13-4ED4-B203-76A4C7ADDBEE}"/>
-    <hyperlink ref="K66" r:id="rId57" xr:uid="{8911087A-9DC1-421B-AA5D-F6CBE6E8A61D}"/>
-    <hyperlink ref="K62" r:id="rId58" xr:uid="{51A1AB4F-AD59-4C5E-81D7-E513117A837A}"/>
-    <hyperlink ref="K26" r:id="rId59" xr:uid="{99031EAA-9060-4C2A-AB60-9487EB9903ED}"/>
-    <hyperlink ref="K11" r:id="rId60" xr:uid="{723F9773-2E4B-47EB-9D74-49EF89E5DEB9}"/>
-    <hyperlink ref="K12" r:id="rId61" xr:uid="{AA3A3EFD-47BC-4616-87E2-13B2B92C9A86}"/>
-    <hyperlink ref="K59" r:id="rId62" xr:uid="{0EE8C112-4372-4088-80EA-A654F59999EC}"/>
-    <hyperlink ref="K23" r:id="rId63" xr:uid="{C2E179CF-2609-489C-A5BD-1C854E96D9AD}"/>
-    <hyperlink ref="K16" r:id="rId64" xr:uid="{F783CDFF-8758-4D06-A5B1-E9CA605A23DA}"/>
-    <hyperlink ref="K54" r:id="rId65" xr:uid="{A25C09F9-E26F-479C-90F3-FA2B27127EFF}"/>
+    <hyperlink ref="K12" r:id="rId25" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
+    <hyperlink ref="K13" r:id="rId26" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
+    <hyperlink ref="K15" r:id="rId27" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
+    <hyperlink ref="K16" r:id="rId28" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
+    <hyperlink ref="K25" r:id="rId29" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
+    <hyperlink ref="K41" r:id="rId30" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
+    <hyperlink ref="K42" r:id="rId31" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
+    <hyperlink ref="K44" r:id="rId32" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
+    <hyperlink ref="K45" r:id="rId33" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
+    <hyperlink ref="K47" r:id="rId34" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
+    <hyperlink ref="K48" r:id="rId35" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
+    <hyperlink ref="K49" r:id="rId36" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
+    <hyperlink ref="K40" r:id="rId37" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
+    <hyperlink ref="K51" r:id="rId38" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
+    <hyperlink ref="K52" r:id="rId39" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
+    <hyperlink ref="K53" r:id="rId40" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
+    <hyperlink ref="K54" r:id="rId41" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
+    <hyperlink ref="K55" r:id="rId42" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
+    <hyperlink ref="K80" r:id="rId43" xr:uid="{B270F44D-5DCA-4473-A1B5-4E0C4CABA102}"/>
+    <hyperlink ref="K98" r:id="rId44" xr:uid="{6378F978-E6E0-4D99-BBC2-0965287F858B}"/>
+    <hyperlink ref="K99" r:id="rId45" xr:uid="{843877E7-70BA-44E4-AE96-525FCD8022C5}"/>
+    <hyperlink ref="K100" r:id="rId46" xr:uid="{33C0E0FA-9E87-4BED-BA68-5C3503F7C6FD}"/>
+    <hyperlink ref="K101" r:id="rId47" xr:uid="{D6016C3F-255A-400C-AD59-5D277E5DFF38}"/>
+    <hyperlink ref="K102" r:id="rId48" xr:uid="{24D23601-704A-49AD-8C06-8EC8857B8841}"/>
+    <hyperlink ref="K103" r:id="rId49" xr:uid="{E2598E4E-BD4E-49AA-B4A5-C6E3BC5B2280}"/>
+    <hyperlink ref="K50" r:id="rId50" xr:uid="{0029815D-CA13-4ED4-B203-76A4C7ADDBEE}"/>
+    <hyperlink ref="K82" r:id="rId51" xr:uid="{8911087A-9DC1-421B-AA5D-F6CBE6E8A61D}"/>
+    <hyperlink ref="K78" r:id="rId52" xr:uid="{51A1AB4F-AD59-4C5E-81D7-E513117A837A}"/>
+    <hyperlink ref="K46" r:id="rId53" xr:uid="{99031EAA-9060-4C2A-AB60-9487EB9903ED}"/>
+    <hyperlink ref="K10" r:id="rId54" xr:uid="{723F9773-2E4B-47EB-9D74-49EF89E5DEB9}"/>
+    <hyperlink ref="K11" r:id="rId55" xr:uid="{AA3A3EFD-47BC-4616-87E2-13B2B92C9A86}"/>
+    <hyperlink ref="K75" r:id="rId56" xr:uid="{0EE8C112-4372-4088-80EA-A654F59999EC}"/>
+    <hyperlink ref="K43" r:id="rId57" xr:uid="{C2E179CF-2609-489C-A5BD-1C854E96D9AD}"/>
+    <hyperlink ref="K14" r:id="rId58" xr:uid="{F783CDFF-8758-4D06-A5B1-E9CA605A23DA}"/>
+    <hyperlink ref="K70" r:id="rId59" xr:uid="{A25C09F9-E26F-479C-90F3-FA2B27127EFF}"/>
+    <hyperlink ref="K17" r:id="rId60" xr:uid="{541137E7-59BE-4453-BCB0-3F2ECEC153F1}"/>
+    <hyperlink ref="K18" r:id="rId61" xr:uid="{E213DE8E-B24C-4BA1-9A66-896C8AE5563C}"/>
+    <hyperlink ref="K19" r:id="rId62" xr:uid="{38DD468D-E9E2-40E5-AECD-8C3FE496C29C}"/>
+    <hyperlink ref="K20" r:id="rId63" xr:uid="{F3AD2807-1B70-46C7-B45E-DA4E4874BDC9}"/>
+    <hyperlink ref="K21" r:id="rId64" xr:uid="{DF300D32-CBDB-4A43-8DFD-0600D82C573B}"/>
+    <hyperlink ref="K22" r:id="rId65" xr:uid="{DDF361E9-1B6B-4830-AB9E-3F82D5D19C5C}"/>
+    <hyperlink ref="K23" r:id="rId66" xr:uid="{0F348E36-C580-451D-808D-31E9F5777877}"/>
+    <hyperlink ref="K24" r:id="rId67" xr:uid="{5A72016E-23C6-4B31-9E93-D458CCB8A721}"/>
+    <hyperlink ref="K26" r:id="rId68" xr:uid="{026591F4-7D33-4F9B-B85A-4FD0A9D08898}"/>
+    <hyperlink ref="K27" r:id="rId69" xr:uid="{CFED431E-CDAB-4724-95D3-67EA5FD43A96}"/>
+    <hyperlink ref="K28" r:id="rId70" xr:uid="{6E28C821-CA47-4BAF-8336-B5434FDBAEF1}"/>
+    <hyperlink ref="K29" r:id="rId71" xr:uid="{14FF2E6B-0829-4E83-BFB1-07A516115851}"/>
+    <hyperlink ref="K30" r:id="rId72" xr:uid="{53F20B42-83FA-48A3-80CE-B26F3271DF79}"/>
+    <hyperlink ref="K31" r:id="rId73" xr:uid="{5A442103-295D-4176-B901-01480883C2F4}"/>
+    <hyperlink ref="K32" r:id="rId74" xr:uid="{EFF29763-DA4E-4EEB-A4CC-CCBAC2887A0B}"/>
+    <hyperlink ref="K33" r:id="rId75" xr:uid="{CE52C659-D54B-4136-83ED-64ECDAAD2367}"/>
+    <hyperlink ref="K34" r:id="rId76" xr:uid="{D137AE66-75A9-4CB8-8F22-9C6C83B5DE78}"/>
+    <hyperlink ref="K35" r:id="rId77" xr:uid="{295E5EE6-0AE8-4450-AFB8-E8DB53F0BA1B}"/>
+    <hyperlink ref="K36" r:id="rId78" xr:uid="{E2DBAD1A-A70C-46E2-9CE2-81898469C69A}"/>
+    <hyperlink ref="K37" r:id="rId79" xr:uid="{4DBCE2F7-CC71-4FD5-AAA7-0491F342F6D4}"/>
+    <hyperlink ref="K38" r:id="rId80" xr:uid="{2B9113A6-1DA0-4E58-92B2-60DD343F1BB9}"/>
+    <hyperlink ref="K39" r:id="rId81" xr:uid="{3C6E5ED7-F3C6-497E-A83C-0C1F275634AF}"/>
+    <hyperlink ref="K56" r:id="rId82" xr:uid="{0CE13CDA-8638-4144-B6D9-1EF6C6D6E110}"/>
+    <hyperlink ref="K57" r:id="rId83" xr:uid="{B2A3B2F3-F291-4FA4-941B-E9A5422870D1}"/>
+    <hyperlink ref="K58" r:id="rId84" xr:uid="{267E6931-F48D-4138-AD0E-3BEB4EEA61BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.16" bottom="0.25" header="0.11" footer="7.0000000000000007E-2"/>
-  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId66"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId85"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;R&amp;D  &amp;T</oddFooter>
   </headerFooter>
-  <drawing r:id="rId67"/>
-  <legacyDrawing r:id="rId68"/>
+  <drawing r:id="rId86"/>
+  <legacyDrawing r:id="rId87"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId69" name="AltiumMatBut">
+            <control shapeId="1030" r:id="rId88" name="AltiumMatBut">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMatStart.AltiumMatStart">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -6200,7 +6772,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId70" name="Button 7">
+            <control shapeId="1031" r:id="rId89" name="Button 7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMan1ShowHide1" altText="Show/Hide ">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
